--- a/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
+++ b/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Documents\GitHub\Josh\understory-ma\Data Extraction Workbook\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="75" yWindow="285" windowWidth="8310" windowHeight="2505"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="117">
   <si>
     <t>mean</t>
   </si>
@@ -328,12 +323,57 @@
   <si>
     <t>Shive</t>
   </si>
+  <si>
+    <t>Dodson+Fiedler-2006</t>
+  </si>
+  <si>
+    <t>2·17(0·66) 1·60(0·75) 2·33(0·68)</t>
+  </si>
+  <si>
+    <t>Dodson-2004</t>
+  </si>
+  <si>
+    <t>Phillips+Hutchinson-2007</t>
+  </si>
+  <si>
+    <t>Ohio Hills</t>
+  </si>
+  <si>
+    <t>Southern Appalachian</t>
+  </si>
+  <si>
+    <t>Fule+Laughlin+etal-2005</t>
+  </si>
+  <si>
+    <t>Huisinga+Laughlin-2005</t>
+  </si>
+  <si>
+    <t>Waldrop+Phillips+etal-2010</t>
+  </si>
+  <si>
+    <t>USELESS</t>
+  </si>
+  <si>
+    <t>Fornwalt+Kaufmann+etal-2010</t>
+  </si>
+  <si>
+    <t>UplandLowSeverity</t>
+  </si>
+  <si>
+    <t>UplandModerateSeverity</t>
+  </si>
+  <si>
+    <t>UplandHighSeverity</t>
+  </si>
+  <si>
+    <t>RiparianLowSeverity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,8 +397,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +441,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -408,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -427,6 +485,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,15 +521,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>93889</xdr:colOff>
-          <xdr:row>93</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>88446</xdr:colOff>
+          <xdr:row>94</xdr:row>
+          <xdr:rowOff>63954</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>255814</xdr:colOff>
-          <xdr:row>93</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:colOff>240846</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>48986</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -480,7 +542,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -488,12 +550,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -506,15 +562,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>93889</xdr:colOff>
-          <xdr:row>93</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>88446</xdr:colOff>
+          <xdr:row>94</xdr:row>
+          <xdr:rowOff>63954</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>255814</xdr:colOff>
-          <xdr:row>93</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:colOff>240846</xdr:colOff>
+          <xdr:row>95</xdr:row>
+          <xdr:rowOff>48986</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -527,7 +583,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -535,12 +591,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -594,7 +644,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,7 +679,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,26 +889,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AR544"/>
+  <dimension ref="A1:AR539"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A471" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="15">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" ht="15">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -917,7 +967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="15">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -978,7 +1028,7 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="15">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1037,7 +1087,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="15">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1098,7 +1148,7 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="15">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1159,7 +1209,7 @@
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="15">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1288,7 @@
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="15">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1299,7 +1349,7 @@
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1360,7 +1410,7 @@
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1421,7 +1471,7 @@
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="15">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1500,7 +1550,7 @@
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1579,7 +1629,7 @@
       <c r="AQ12" s="6"/>
       <c r="AR12" s="6"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1626,7 +1676,7 @@
       </c>
       <c r="AR13" s="6"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -1673,7 +1723,7 @@
       </c>
       <c r="AR14" s="6"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -1716,7 +1766,7 @@
       </c>
       <c r="AR15" s="6"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1775,7 +1825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1834,7 +1884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1893,7 +1943,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -1952,7 +2002,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2011,7 +2061,7 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2138,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -2147,7 +2197,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -2206,7 +2256,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -2265,7 +2315,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15">
       <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
@@ -2342,7 +2392,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -2419,7 +2469,7 @@
         <v>0.89566858950296024</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2466,7 +2516,7 @@
         <v>-1.7726</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -2513,7 +2563,7 @@
         <v>-3.6613000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -2554,12 +2604,12 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -2582,7 +2632,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15">
       <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
@@ -2605,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -2628,7 +2678,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15">
       <c r="A34" s="7" t="s">
         <v>27</v>
       </c>
@@ -2651,7 +2701,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
         <v>25</v>
       </c>
@@ -2680,7 +2730,7 @@
         <v>1.8809040379562167</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" s="5" t="s">
         <v>31</v>
       </c>
@@ -2697,7 +2747,7 @@
         <v>2.4195000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -2714,7 +2764,7 @@
         <v>0.31359999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
@@ -2731,12 +2781,12 @@
         <v>4.5255000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -2786,7 +2836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15">
       <c r="A41" s="10" t="s">
         <v>26</v>
       </c>
@@ -2836,7 +2886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -2886,7 +2936,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15">
       <c r="A43" s="10" t="s">
         <v>27</v>
       </c>
@@ -2936,7 +2986,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" s="9" t="s">
         <v>25</v>
       </c>
@@ -3001,7 +3051,7 @@
         <v>0.18384776310850237</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" s="8" t="s">
         <v>31</v>
       </c>
@@ -3033,7 +3083,7 @@
         <v>0.50090000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="8" t="s">
         <v>39</v>
       </c>
@@ -3065,7 +3115,7 @@
         <v>-0.1285</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="8" t="s">
         <v>40</v>
       </c>
@@ -3097,7 +3147,7 @@
         <v>1.1304000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="8" t="s">
         <v>32</v>
       </c>
@@ -3120,7 +3170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" s="10" t="s">
         <v>26</v>
       </c>
@@ -3143,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="10" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +3216,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15">
       <c r="A51" s="10" t="s">
         <v>27</v>
       </c>
@@ -3189,7 +3239,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="9" t="s">
         <v>25</v>
       </c>
@@ -3218,7 +3268,7 @@
         <v>7.0710678118654766E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
         <v>31</v>
       </c>
@@ -3235,7 +3285,7 @@
         <v>0.33379999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
         <v>39</v>
       </c>
@@ -3252,7 +3302,7 @@
         <v>-0.29020000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -3269,12 +3319,12 @@
         <v>0.95789999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3288,7 +3338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -3302,7 +3352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15">
       <c r="A59" s="7" t="s">
         <v>0</v>
       </c>
@@ -3316,7 +3366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15">
       <c r="A60" s="7" t="s">
         <v>27</v>
       </c>
@@ -3330,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
         <v>25</v>
       </c>
@@ -3347,7 +3397,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="5" t="s">
         <v>31</v>
       </c>
@@ -3358,7 +3408,7 @@
         <v>-0.1026</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="5" t="s">
         <v>39</v>
       </c>
@@ -3369,7 +3419,7 @@
         <v>-0.7228</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="5" t="s">
         <v>40</v>
       </c>
@@ -3380,12 +3430,12 @@
         <v>0.51759999999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>32</v>
       </c>
@@ -3399,7 +3449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="7" t="s">
         <v>26</v>
       </c>
@@ -3413,7 +3463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="7" t="s">
         <v>0</v>
       </c>
@@ -3427,7 +3477,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="7" t="s">
         <v>27</v>
       </c>
@@ -3441,7 +3491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
         <v>25</v>
       </c>
@@ -3458,7 +3508,7 @@
         <v>4.2426406871192857</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="5" t="s">
         <v>31</v>
       </c>
@@ -3469,7 +3519,7 @@
         <v>0.62350000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="5" t="s">
         <v>39</v>
       </c>
@@ -3480,7 +3530,7 @@
         <v>-4.5499999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="5" t="s">
         <v>40</v>
       </c>
@@ -3491,15 +3541,15 @@
         <v>1.2925</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="9" t="s">
         <v>32</v>
       </c>
@@ -3522,7 +3572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10" t="s">
         <v>26</v>
       </c>
@@ -3545,7 +3595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10" t="s">
         <v>0</v>
       </c>
@@ -3569,7 +3619,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10" t="s">
         <v>27</v>
       </c>
@@ -3592,7 +3642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="9" t="s">
         <v>25</v>
       </c>
@@ -3622,7 +3672,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="8" t="s">
         <v>31</v>
       </c>
@@ -3636,7 +3686,7 @@
         <v>-0.15989999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="8" t="s">
         <v>39</v>
       </c>
@@ -3650,7 +3700,7 @@
         <v>-1.6592</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="8" t="s">
         <v>40</v>
       </c>
@@ -3664,12 +3714,12 @@
         <v>1.3393999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="5" t="s">
         <v>32</v>
       </c>
@@ -3683,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" s="7" t="s">
         <v>26</v>
       </c>
@@ -3697,7 +3747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
         <v>19</v>
       </c>
@@ -3711,7 +3761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
         <v>20</v>
       </c>
@@ -3725,7 +3775,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
@@ -3742,7 +3792,7 @@
         <v>35.15</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
         <v>49</v>
       </c>
@@ -3756,7 +3806,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
         <v>50</v>
       </c>
@@ -3770,7 +3820,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15">
       <c r="A92" s="7" t="s">
         <v>27</v>
       </c>
@@ -3787,7 +3837,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="5" t="s">
         <v>25</v>
       </c>
@@ -3804,7 +3854,7 @@
         <v>1.9091883092036785</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="5" t="s">
         <v>31</v>
       </c>
@@ -3815,7 +3865,7 @@
         <v>0.69769999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="5" t="s">
         <v>39</v>
       </c>
@@ -3826,7 +3876,7 @@
         <v>5.9299999999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="5" t="s">
         <v>40</v>
       </c>
@@ -3837,12 +3887,12 @@
         <v>1.3360000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="9" t="s">
         <v>30</v>
       </c>
@@ -3856,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="15">
       <c r="A99" s="10" t="s">
         <v>26</v>
       </c>
@@ -3870,7 +3920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="15">
       <c r="A100" s="10" t="s">
         <v>0</v>
       </c>
@@ -3884,7 +3934,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="15">
       <c r="A101" s="10" t="s">
         <v>27</v>
       </c>
@@ -3898,7 +3948,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="9" t="s">
         <v>25</v>
       </c>
@@ -3915,7 +3965,7 @@
         <v>19.179155351578967</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="8" t="s">
         <v>31</v>
       </c>
@@ -3926,7 +3976,7 @@
         <v>9.8100000000000007E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="8" t="s">
         <v>39</v>
       </c>
@@ -3937,7 +3987,7 @@
         <v>-0.70250000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="8" t="s">
         <v>40</v>
       </c>
@@ -3948,12 +3998,12 @@
         <v>0.89880000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
         <v>32</v>
       </c>
@@ -3964,7 +4014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="15">
       <c r="A108" s="7" t="s">
         <v>26</v>
       </c>
@@ -3979,7 +4029,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="15">
       <c r="A109" s="4" t="s">
         <v>19</v>
       </c>
@@ -3994,7 +4044,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="15">
       <c r="A110" s="5" t="s">
         <v>20</v>
       </c>
@@ -4009,7 +4059,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="15">
       <c r="A111" s="5" t="s">
         <v>21</v>
       </c>
@@ -4024,7 +4074,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="15">
       <c r="A112" s="5" t="s">
         <v>53</v>
       </c>
@@ -4039,7 +4089,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="15">
       <c r="A113" s="5" t="s">
         <v>54</v>
       </c>
@@ -4054,7 +4104,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="15">
       <c r="A114" s="5" t="s">
         <v>55</v>
       </c>
@@ -4069,7 +4119,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="5" t="s">
         <v>56</v>
       </c>
@@ -4082,7 +4132,7 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="5" t="s">
         <v>60</v>
       </c>
@@ -4095,7 +4145,7 @@
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="15">
       <c r="A117" s="7" t="s">
         <v>0</v>
       </c>
@@ -4108,7 +4158,7 @@
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="5" t="s">
         <v>22</v>
       </c>
@@ -4121,7 +4171,7 @@
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="5" t="s">
         <v>23</v>
       </c>
@@ -4134,7 +4184,7 @@
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="5" t="s">
         <v>24</v>
       </c>
@@ -4147,7 +4197,7 @@
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="5" t="s">
         <v>57</v>
       </c>
@@ -4160,7 +4210,7 @@
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="5" t="s">
         <v>58</v>
       </c>
@@ -4172,7 +4222,7 @@
       </c>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="5" t="s">
         <v>59</v>
       </c>
@@ -4184,7 +4234,7 @@
       </c>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="5" t="s">
         <v>61</v>
       </c>
@@ -4196,7 +4246,7 @@
       </c>
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="5" t="s">
         <v>62</v>
       </c>
@@ -4208,7 +4258,7 @@
       </c>
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="15">
       <c r="A126" s="7" t="s">
         <v>27</v>
       </c>
@@ -4221,7 +4271,7 @@
         <v>1.3125000000000011</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="5" t="s">
         <v>25</v>
       </c>
@@ -4234,7 +4284,7 @@
         <v>2.6250000000000022</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="5" t="s">
         <v>31</v>
       </c>
@@ -4242,7 +4292,7 @@
         <v>0.32840000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="5" t="s">
         <v>39</v>
       </c>
@@ -4250,7 +4300,7 @@
         <v>-0.91949999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="5" t="s">
         <v>40</v>
       </c>
@@ -4258,12 +4308,12 @@
         <v>1.5764</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -4274,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="7" t="s">
         <v>26</v>
       </c>
@@ -4285,7 +4335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="7" t="s">
         <v>0</v>
       </c>
@@ -4296,7 +4346,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="7" t="s">
         <v>27</v>
       </c>
@@ -4307,7 +4357,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="5" t="s">
         <v>25</v>
       </c>
@@ -4320,7 +4370,7 @@
         <v>3.5355339059327378</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="5" t="s">
         <v>31</v>
       </c>
@@ -4328,7 +4378,7 @@
         <v>1.0607</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="5" t="s">
         <v>39</v>
       </c>
@@ -4336,7 +4386,7 @@
         <v>-0.64849999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="5" t="s">
         <v>40</v>
       </c>
@@ -4345,7 +4395,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="4" t="s">
         <v>66</v>
       </c>
@@ -4356,7 +4406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="7" t="s">
         <v>26</v>
       </c>
@@ -4368,7 +4418,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="5" t="s">
         <v>19</v>
       </c>
@@ -4380,7 +4430,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="5" t="s">
         <v>20</v>
       </c>
@@ -4392,7 +4442,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="4" t="s">
         <v>21</v>
       </c>
@@ -4403,7 +4453,7 @@
         <v>24.375</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="15">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -4416,7 +4466,7 @@
         <v>23.125</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14">
       <c r="A146" s="5" t="s">
         <v>49</v>
       </c>
@@ -4427,7 +4477,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147" s="5" t="s">
         <v>50</v>
       </c>
@@ -4438,7 +4488,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14">
       <c r="A148" s="5" t="s">
         <v>67</v>
       </c>
@@ -4449,7 +4499,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="15">
       <c r="A149" s="7" t="s">
         <v>27</v>
       </c>
@@ -4462,7 +4512,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14">
       <c r="A150" s="5" t="s">
         <v>25</v>
       </c>
@@ -4475,7 +4525,7 @@
         <v>3.5355339059327378</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="15">
       <c r="A151" s="5" t="s">
         <v>31</v>
       </c>
@@ -4485,7 +4535,7 @@
       </c>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14">
       <c r="A152" s="5" t="s">
         <v>39</v>
       </c>
@@ -4493,7 +4543,7 @@
         <v>-1.7195</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14">
       <c r="A153" s="5" t="s">
         <v>40</v>
       </c>
@@ -4501,7 +4551,7 @@
         <v>1.4838</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14">
       <c r="A154" s="5" t="s">
         <v>84</v>
       </c>
@@ -4512,7 +4562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" ht="15">
       <c r="A155" s="7" t="s">
         <v>26</v>
       </c>
@@ -4523,7 +4573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="15">
       <c r="A156" s="7" t="s">
         <v>0</v>
       </c>
@@ -4534,7 +4584,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="15">
       <c r="A157" s="7" t="s">
         <v>27</v>
       </c>
@@ -4545,7 +4595,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14">
       <c r="A158" s="5" t="s">
         <v>25</v>
       </c>
@@ -4558,13 +4608,13 @@
         <v>2.6516504294495533</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14">
       <c r="A159" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C159" s="6"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14">
       <c r="A160" s="4" t="s">
         <v>68</v>
       </c>
@@ -4590,7 +4640,7 @@
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15">
       <c r="A161" s="7" t="s">
         <v>26</v>
       </c>
@@ -4607,7 +4657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15">
       <c r="A162" s="7" t="s">
         <v>0</v>
       </c>
@@ -4624,7 +4674,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15">
       <c r="A163" s="7" t="s">
         <v>27</v>
       </c>
@@ -4641,7 +4691,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="5" t="s">
         <v>25</v>
       </c>
@@ -4662,7 +4712,7 @@
         <v>0.56568542494923812</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="5" t="s">
         <v>31</v>
       </c>
@@ -4673,7 +4723,7 @@
         <v>0.70709999999999995</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
         <v>39</v>
       </c>
@@ -4684,7 +4734,7 @@
         <v>-0.94240000000000002</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="5" t="s">
         <v>40</v>
       </c>
@@ -4695,7 +4745,7 @@
         <v>2.3567</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="5" t="s">
         <v>71</v>
       </c>
@@ -4712,7 +4762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15">
       <c r="A169" s="7" t="s">
         <v>26</v>
       </c>
@@ -4729,7 +4779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="5" t="s">
         <v>19</v>
       </c>
@@ -4746,7 +4796,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="4" t="s">
         <v>20</v>
       </c>
@@ -4763,7 +4813,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="5" t="s">
         <v>21</v>
       </c>
@@ -4780,7 +4830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15">
       <c r="A173" s="7" t="s">
         <v>0</v>
       </c>
@@ -4801,7 +4851,7 @@
         <v>5.6333333333333329</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="5" t="s">
         <v>49</v>
       </c>
@@ -4818,7 +4868,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="4" t="s">
         <v>50</v>
       </c>
@@ -4835,7 +4885,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="4" t="s">
         <v>67</v>
       </c>
@@ -4852,7 +4902,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15">
       <c r="A177" s="7" t="s">
         <v>27</v>
       </c>
@@ -4873,7 +4923,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="5" t="s">
         <v>25</v>
       </c>
@@ -4894,7 +4944,7 @@
         <v>2.5455844122715714</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
         <v>31</v>
       </c>
@@ -4905,7 +4955,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="5" t="s">
         <v>39</v>
       </c>
@@ -4916,7 +4966,7 @@
         <v>-1.1721999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="5" t="s">
         <v>40</v>
       </c>
@@ -4927,7 +4977,7 @@
         <v>2.0682999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="5" t="s">
         <v>85</v>
       </c>
@@ -4944,7 +4994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15">
       <c r="A183" s="7" t="s">
         <v>26</v>
       </c>
@@ -4961,7 +5011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15">
       <c r="A184" s="7" t="s">
         <v>0</v>
       </c>
@@ -4978,7 +5028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15">
       <c r="A185" s="7" t="s">
         <v>27</v>
       </c>
@@ -4995,7 +5045,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
         <v>25</v>
       </c>
@@ -5016,17 +5066,17 @@
         <v>0.84852813742385702</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="8" t="s">
         <v>30</v>
       </c>
@@ -5040,7 +5090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15">
       <c r="A190" s="10" t="s">
         <v>26</v>
       </c>
@@ -5054,7 +5104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="9" t="s">
         <v>78</v>
       </c>
@@ -5068,7 +5118,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="9" t="s">
         <v>19</v>
       </c>
@@ -5082,7 +5132,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="15">
       <c r="A193" s="10" t="s">
         <v>0</v>
       </c>
@@ -5100,7 +5150,7 @@
       </c>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15">
       <c r="A194" s="9" t="s">
         <v>74</v>
       </c>
@@ -5114,7 +5164,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15">
       <c r="A195" s="9" t="s">
         <v>49</v>
       </c>
@@ -5128,7 +5178,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="15">
       <c r="A196" s="10" t="s">
         <v>27</v>
       </c>
@@ -5145,7 +5195,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15">
       <c r="A197" s="9" t="s">
         <v>25</v>
       </c>
@@ -5162,7 +5212,7 @@
         <v>2.6870057685088806</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15">
       <c r="A198" s="9" t="s">
         <v>31</v>
       </c>
@@ -5173,7 +5223,7 @@
         <v>1.1671</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15">
       <c r="A199" s="9" t="s">
         <v>39</v>
       </c>
@@ -5184,7 +5234,7 @@
         <v>0.30149999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15">
       <c r="A200" s="9" t="s">
         <v>40</v>
       </c>
@@ -5195,12 +5245,12 @@
         <v>2.0327000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15">
       <c r="A201" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15">
       <c r="A202" s="4" t="s">
         <v>32</v>
       </c>
@@ -5247,7 +5297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="15">
       <c r="A203" s="7" t="s">
         <v>26</v>
       </c>
@@ -5294,7 +5344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="15">
       <c r="A204" s="7" t="s">
         <v>0</v>
       </c>
@@ -5341,7 +5391,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="15">
       <c r="A205" s="7" t="s">
         <v>27</v>
       </c>
@@ -5388,7 +5438,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15">
       <c r="A206" s="4" t="s">
         <v>25</v>
       </c>
@@ -5449,7 +5499,7 @@
         <v>0.8660254037844386</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15">
       <c r="A207" s="5" t="s">
         <v>31</v>
       </c>
@@ -5478,7 +5528,7 @@
         <v>1.3251999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15">
       <c r="A208" s="5" t="s">
         <v>39</v>
       </c>
@@ -5507,7 +5557,7 @@
         <v>-0.20530000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19">
       <c r="A209" s="5" t="s">
         <v>40</v>
       </c>
@@ -5536,12 +5586,12 @@
         <v>2.8557000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19">
       <c r="A210" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19">
       <c r="A211" s="17" t="s">
         <v>30</v>
       </c>
@@ -5600,7 +5650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19">
       <c r="A212" s="17" t="s">
         <v>26</v>
       </c>
@@ -5659,7 +5709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19">
       <c r="A213" s="9" t="s">
         <v>0</v>
       </c>
@@ -5727,7 +5777,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -5790,7 +5840,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19">
       <c r="A215" s="9" t="s">
         <v>25</v>
       </c>
@@ -5867,12 +5917,12 @@
         <v>0.15491933384829668</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19">
       <c r="A216" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19">
       <c r="A217" s="9" t="s">
         <v>32</v>
       </c>
@@ -5931,7 +5981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19">
       <c r="A218" s="9" t="s">
         <v>26</v>
       </c>
@@ -5990,7 +6040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19">
       <c r="A219" s="9" t="s">
         <v>0</v>
       </c>
@@ -6059,7 +6109,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19">
       <c r="A220" s="9" t="s">
         <v>27</v>
       </c>
@@ -6124,7 +6174,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19">
       <c r="A221" s="9" t="s">
         <v>25</v>
       </c>
@@ -6201,17 +6251,17 @@
         <v>3.8729833462074169E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19">
       <c r="A222" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19">
       <c r="A223" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19">
       <c r="A224" s="4" t="s">
         <v>32</v>
       </c>
@@ -6222,7 +6272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="15">
       <c r="A225" s="7" t="s">
         <v>26</v>
       </c>
@@ -6233,7 +6283,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="15">
       <c r="A226" s="7" t="s">
         <v>0</v>
       </c>
@@ -6244,7 +6294,7 @@
         <v>2.4725274725274726</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="15">
       <c r="A227" s="7" t="s">
         <v>27</v>
       </c>
@@ -6257,7 +6307,7 @@
         <v>0.13186813186813201</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4">
       <c r="A228" s="4" t="s">
         <v>25</v>
       </c>
@@ -6270,12 +6320,12 @@
         <v>2.8709724470871119</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="A229" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="A230" s="4" t="s">
         <v>30</v>
       </c>
@@ -6286,7 +6336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="15">
       <c r="A231" s="7" t="s">
         <v>26</v>
       </c>
@@ -6297,7 +6347,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="15">
       <c r="A232" s="7" t="s">
         <v>0</v>
       </c>
@@ -6308,7 +6358,7 @@
         <v>1.846153846153846</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="15">
       <c r="A233" s="7" t="s">
         <v>27</v>
       </c>
@@ -6321,7 +6371,7 @@
         <v>0.2142857142857145</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4">
       <c r="A234" s="4" t="s">
         <v>25</v>
       </c>
@@ -6334,17 +6384,17 @@
         <v>4.6653302265165557</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4">
       <c r="A235" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4">
       <c r="A236" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4">
       <c r="A237" s="9" t="s">
         <v>30</v>
       </c>
@@ -6358,7 +6408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4">
       <c r="A238" s="9" t="s">
         <v>26</v>
       </c>
@@ -6372,7 +6422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4">
       <c r="A239" s="9" t="s">
         <v>0</v>
       </c>
@@ -6386,7 +6436,7 @@
         <v>18.780487804878053</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4">
       <c r="A240" s="9" t="s">
         <v>27</v>
       </c>
@@ -6403,7 +6453,7 @@
         <v>1.2804878048780499</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" s="9" t="s">
         <v>25</v>
       </c>
@@ -6420,12 +6470,12 @@
         <v>4.2468975974063081</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="9" t="s">
         <v>32</v>
       </c>
@@ -6439,7 +6489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="9" t="s">
         <v>26</v>
       </c>
@@ -6453,7 +6503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="9" t="s">
         <v>0</v>
       </c>
@@ -6467,7 +6517,7 @@
         <v>23.902439024390244</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="9" t="s">
         <v>27</v>
       </c>
@@ -6484,7 +6534,7 @@
         <v>0.85365853658536495</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247" s="9" t="s">
         <v>25</v>
       </c>
@@ -6501,17 +6551,17 @@
         <v>2.8312650649375333</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="4" t="s">
         <v>32</v>
       </c>
@@ -6522,7 +6572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="7" t="s">
         <v>26</v>
       </c>
@@ -6533,7 +6583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="7" t="s">
         <v>0</v>
       </c>
@@ -6544,7 +6594,7 @@
         <v>6.3559322033898304</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="7" t="s">
         <v>27</v>
       </c>
@@ -6555,7 +6605,7 @@
         <v>1.6949152542372881</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
       <c r="A254" s="4" t="s">
         <v>25</v>
       </c>
@@ -6568,12 +6618,12 @@
         <v>10.027253869660365</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256" s="4" t="s">
         <v>30</v>
       </c>
@@ -6602,7 +6652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:33" ht="15">
       <c r="A257" s="7" t="s">
         <v>26</v>
       </c>
@@ -6631,7 +6681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:33" ht="15">
       <c r="A258" s="7" t="s">
         <v>0</v>
       </c>
@@ -6660,7 +6710,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:33" ht="15">
       <c r="A259" s="7" t="s">
         <v>27</v>
       </c>
@@ -6689,7 +6739,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:33">
       <c r="A260" s="4" t="s">
         <v>25</v>
       </c>
@@ -6726,17 +6776,17 @@
         <v>13.311179511974137</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:33">
       <c r="A261" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:33">
       <c r="A262" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:33">
       <c r="A263" s="9" t="s">
         <v>87</v>
       </c>
@@ -6777,7 +6827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:33">
       <c r="A264" s="9" t="s">
         <v>26</v>
       </c>
@@ -6818,7 +6868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:33">
       <c r="A265" s="9" t="s">
         <v>19</v>
       </c>
@@ -6859,7 +6909,7 @@
         <v>4.7499999999999991</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:33">
       <c r="A266" s="9" t="s">
         <v>21</v>
       </c>
@@ -6900,7 +6950,7 @@
         <v>9.4999999999999982</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:33">
       <c r="A267" s="9" t="s">
         <v>0</v>
       </c>
@@ -6953,7 +7003,7 @@
         <v>7.1249999999999982</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:33">
       <c r="A268" s="9" t="s">
         <v>49</v>
       </c>
@@ -6994,7 +7044,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:33">
       <c r="A269" s="9" t="s">
         <v>67</v>
       </c>
@@ -7035,7 +7085,7 @@
         <v>1.4999999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:33">
       <c r="A270" s="9" t="s">
         <v>27</v>
       </c>
@@ -7088,7 +7138,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:33">
       <c r="A271" s="9" t="s">
         <v>25</v>
       </c>
@@ -7141,7 +7191,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:33">
       <c r="A272" s="9" t="s">
         <v>31</v>
       </c>
@@ -7155,7 +7205,7 @@
       <c r="AF272" s="12"/>
       <c r="AG272" s="12"/>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:33">
       <c r="A273" s="9" t="s">
         <v>88</v>
       </c>
@@ -7205,7 +7255,7 @@
       <c r="AF273" s="12"/>
       <c r="AG273" s="12"/>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:33">
       <c r="A274" s="9" t="s">
         <v>26</v>
       </c>
@@ -7255,7 +7305,7 @@
       <c r="AF274" s="12"/>
       <c r="AG274" s="12"/>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:33">
       <c r="A275" s="9" t="s">
         <v>19</v>
       </c>
@@ -7305,7 +7355,7 @@
       <c r="AF275" s="12"/>
       <c r="AG275" s="12"/>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:33">
       <c r="A276" s="9" t="s">
         <v>21</v>
       </c>
@@ -7355,7 +7405,7 @@
       <c r="AF276" s="12"/>
       <c r="AG276" s="12"/>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:33">
       <c r="A277" s="9" t="s">
         <v>0</v>
       </c>
@@ -7417,7 +7467,7 @@
       <c r="AF277" s="12"/>
       <c r="AG277" s="12"/>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:33">
       <c r="A278" s="9" t="s">
         <v>49</v>
       </c>
@@ -7467,7 +7517,7 @@
       <c r="AF278" s="12"/>
       <c r="AG278" s="12"/>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:33">
       <c r="A279" s="9" t="s">
         <v>67</v>
       </c>
@@ -7517,7 +7567,7 @@
       <c r="AF279" s="12"/>
       <c r="AG279" s="12"/>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:33">
       <c r="A280" s="9" t="s">
         <v>27</v>
       </c>
@@ -7579,7 +7629,7 @@
       <c r="AF280" s="12"/>
       <c r="AG280" s="12"/>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:33">
       <c r="A281" s="9" t="s">
         <v>25</v>
       </c>
@@ -7641,7 +7691,7 @@
       <c r="AF281" s="12"/>
       <c r="AG281" s="12"/>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:33">
       <c r="A282" s="9" t="s">
         <v>31</v>
       </c>
@@ -7655,14 +7705,14 @@
       <c r="AF282" s="12"/>
       <c r="AG282" s="12"/>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:33">
       <c r="A283" s="4" t="s">
         <v>99</v>
       </c>
       <c r="AB283" s="9"/>
       <c r="AE283" s="9"/>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:33">
       <c r="A284" s="4" t="s">
         <v>32</v>
       </c>
@@ -7675,7 +7725,7 @@
       <c r="AB284" s="9"/>
       <c r="AE284" s="9"/>
     </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:33" ht="15">
       <c r="A285" s="7" t="s">
         <v>26</v>
       </c>
@@ -7686,7 +7736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:33" ht="15">
       <c r="A286" s="7" t="s">
         <v>0</v>
       </c>
@@ -7697,7 +7747,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:33" ht="15">
       <c r="A287" s="7" t="s">
         <v>27</v>
       </c>
@@ -7724,7 +7774,7 @@
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:33">
       <c r="A288" s="4" t="s">
         <v>25</v>
       </c>
@@ -7737,7 +7787,7 @@
         <v>7.8460180983732135</v>
       </c>
     </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:33">
       <c r="A289" s="5" t="s">
         <v>31</v>
       </c>
@@ -7758,7 +7808,7 @@
       <c r="R289" s="2"/>
       <c r="S289" s="2"/>
     </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:33">
       <c r="A290" s="4" t="s">
         <v>30</v>
       </c>
@@ -7787,7 +7837,7 @@
       <c r="R290" s="2"/>
       <c r="S290" s="2"/>
     </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:33" ht="15">
       <c r="A291" s="7" t="s">
         <v>26</v>
       </c>
@@ -7814,7 +7864,7 @@
       <c r="R291" s="3"/>
       <c r="S291" s="3"/>
     </row>
-    <row r="292" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:33" ht="15">
       <c r="A292" s="7" t="s">
         <v>0</v>
       </c>
@@ -7841,7 +7891,7 @@
       <c r="R292" s="2"/>
       <c r="S292" s="2"/>
     </row>
-    <row r="293" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:33" ht="15">
       <c r="A293" s="7" t="s">
         <v>27</v>
       </c>
@@ -7868,7 +7918,7 @@
       <c r="R293" s="2"/>
       <c r="S293" s="2"/>
     </row>
-    <row r="294" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:33">
       <c r="A294" s="4" t="s">
         <v>25</v>
       </c>
@@ -7897,7 +7947,7 @@
       <c r="R294" s="2"/>
       <c r="S294" s="2"/>
     </row>
-    <row r="295" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:33" ht="15">
       <c r="A295" s="5" t="s">
         <v>31</v>
       </c>
@@ -7921,7 +7971,7 @@
       <c r="R295" s="3"/>
       <c r="S295" s="3"/>
     </row>
-    <row r="296" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:33">
       <c r="A296" s="8" t="s">
         <v>90</v>
       </c>
@@ -7950,7 +8000,7 @@
       <c r="AF296" s="12"/>
       <c r="AG296" s="12"/>
     </row>
-    <row r="297" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:33">
       <c r="A297" s="4" t="s">
         <v>32</v>
       </c>
@@ -7997,7 +8047,7 @@
       <c r="AF297" s="12"/>
       <c r="AG297" s="12"/>
     </row>
-    <row r="298" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:33" ht="15">
       <c r="A298" s="7" t="s">
         <v>26</v>
       </c>
@@ -8044,7 +8094,7 @@
       <c r="AF298" s="12"/>
       <c r="AG298" s="12"/>
     </row>
-    <row r="299" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:33" ht="15">
       <c r="A299" s="7" t="s">
         <v>0</v>
       </c>
@@ -8090,7 +8140,7 @@
       <c r="AF299" s="12"/>
       <c r="AG299" s="12"/>
     </row>
-    <row r="300" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:33" ht="15">
       <c r="A300" s="7" t="s">
         <v>27</v>
       </c>
@@ -8132,7 +8182,7 @@
       <c r="AF300" s="12"/>
       <c r="AG300" s="12"/>
     </row>
-    <row r="301" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:33" ht="15">
       <c r="A301" s="4" t="s">
         <v>25</v>
       </c>
@@ -8184,7 +8234,7 @@
       <c r="AF301" s="12"/>
       <c r="AG301" s="12"/>
     </row>
-    <row r="302" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:33">
       <c r="A302" s="5" t="s">
         <v>31</v>
       </c>
@@ -8216,7 +8266,7 @@
       <c r="AF302" s="12"/>
       <c r="AG302" s="12"/>
     </row>
-    <row r="303" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:33" ht="15">
       <c r="A303" s="4" t="s">
         <v>30</v>
       </c>
@@ -8255,7 +8305,7 @@
       <c r="AF303" s="12"/>
       <c r="AG303" s="12"/>
     </row>
-    <row r="304" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:33" ht="15">
       <c r="A304" s="7" t="s">
         <v>26</v>
       </c>
@@ -8303,7 +8353,7 @@
       <c r="AF304" s="12"/>
       <c r="AG304" s="12"/>
     </row>
-    <row r="305" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:33" ht="15">
       <c r="A305" s="7" t="s">
         <v>0</v>
       </c>
@@ -8351,7 +8401,7 @@
       <c r="AF305" s="12"/>
       <c r="AG305" s="12"/>
     </row>
-    <row r="306" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:33" ht="15">
       <c r="A306" s="7" t="s">
         <v>27</v>
       </c>
@@ -8390,7 +8440,7 @@
       <c r="R306" s="2"/>
       <c r="S306" s="2"/>
     </row>
-    <row r="307" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:33" ht="15">
       <c r="A307" s="4" t="s">
         <v>25</v>
       </c>
@@ -8437,7 +8487,7 @@
       <c r="R307" s="2"/>
       <c r="S307" s="2"/>
     </row>
-    <row r="308" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:33" ht="15">
       <c r="A308" s="5" t="s">
         <v>31</v>
       </c>
@@ -8464,7 +8514,7 @@
       <c r="R308" s="3"/>
       <c r="S308" s="3"/>
     </row>
-    <row r="309" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:33" ht="15">
       <c r="A309" s="5"/>
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
@@ -8479,7 +8529,7 @@
       <c r="R309" s="6"/>
       <c r="S309" s="6"/>
     </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:33">
       <c r="A310" s="5" t="s">
         <v>91</v>
       </c>
@@ -8501,7 +8551,7 @@
       <c r="R310" s="6"/>
       <c r="S310" s="6"/>
     </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:33">
       <c r="A311" s="8" t="s">
         <v>32</v>
       </c>
@@ -8545,7 +8595,7 @@
       <c r="R311" s="6"/>
       <c r="S311" s="6"/>
     </row>
-    <row r="312" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:33" ht="15">
       <c r="A312" s="10" t="s">
         <v>26</v>
       </c>
@@ -8588,7 +8638,7 @@
       <c r="R312" s="6"/>
       <c r="S312" s="6"/>
     </row>
-    <row r="313" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:33" ht="15">
       <c r="A313" s="10" t="s">
         <v>0</v>
       </c>
@@ -8629,7 +8679,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="314" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:33" ht="15">
       <c r="A314" s="10" t="s">
         <v>27</v>
       </c>
@@ -8670,7 +8720,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="315" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:33">
       <c r="A315" s="9" t="s">
         <v>25</v>
       </c>
@@ -8723,15 +8773,15 @@
         <v>0.66332495807108005</v>
       </c>
     </row>
-    <row r="316" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:33">
       <c r="A316" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:33">
       <c r="A317" s="8"/>
     </row>
-    <row r="318" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:33">
       <c r="A318" s="8" t="s">
         <v>30</v>
       </c>
@@ -8772,7 +8822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:33" ht="15">
       <c r="A319" s="10" t="s">
         <v>26</v>
       </c>
@@ -8813,7 +8863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:33" ht="15">
       <c r="A320" s="10" t="s">
         <v>0</v>
       </c>
@@ -8854,7 +8904,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" ht="15">
       <c r="A321" s="10" t="s">
         <v>27</v>
       </c>
@@ -8895,7 +8945,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13">
       <c r="A322" s="9" t="s">
         <v>25</v>
       </c>
@@ -8948,7 +8998,7 @@
         <v>3.3166247903553998E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13">
       <c r="A323" s="8" t="s">
         <v>31</v>
       </c>
@@ -8959,12 +9009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13">
       <c r="A324" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13">
       <c r="A325" s="8" t="s">
         <v>32</v>
       </c>
@@ -8975,7 +9025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" ht="15">
       <c r="A326" s="10" t="s">
         <v>26</v>
       </c>
@@ -8986,7 +9036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" ht="15">
       <c r="A327" s="10" t="s">
         <v>0</v>
       </c>
@@ -8997,7 +9047,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" ht="15">
       <c r="A328" s="10" t="s">
         <v>27</v>
       </c>
@@ -9008,7 +9058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13">
       <c r="A329" s="9" t="s">
         <v>25</v>
       </c>
@@ -9021,15 +9071,15 @@
         <v>2.4494897427831779</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13">
       <c r="A330" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13">
       <c r="A331" s="8"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13">
       <c r="A332" s="8" t="s">
         <v>30</v>
       </c>
@@ -9040,7 +9090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" ht="15">
       <c r="A333" s="10" t="s">
         <v>26</v>
       </c>
@@ -9051,7 +9101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" ht="15">
       <c r="A334" s="10" t="s">
         <v>0</v>
       </c>
@@ -9062,7 +9112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" ht="15">
       <c r="A335" s="10" t="s">
         <v>27</v>
       </c>
@@ -9073,7 +9123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13">
       <c r="A336" s="9" t="s">
         <v>25</v>
       </c>
@@ -9086,20 +9136,20 @@
         <v>19.595917942265423</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" s="8"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" s="8" t="s">
         <v>30</v>
       </c>
@@ -9122,7 +9172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="15">
       <c r="A341" s="10" t="s">
         <v>26</v>
       </c>
@@ -9145,7 +9195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="15">
       <c r="A342" s="10" t="s">
         <v>0</v>
       </c>
@@ -9168,7 +9218,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="15">
       <c r="A343" s="10" t="s">
         <v>27</v>
       </c>
@@ -9191,7 +9241,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7">
       <c r="A344" s="9" t="s">
         <v>25</v>
       </c>
@@ -9220,15 +9270,15 @@
         <v>0.14142135623730953</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="15">
       <c r="A346" s="10"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" s="8" t="s">
         <v>32</v>
       </c>
@@ -9239,7 +9289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="15">
       <c r="A348" s="10" t="s">
         <v>26</v>
       </c>
@@ -9250,7 +9300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="15">
       <c r="A349" s="10" t="s">
         <v>0</v>
       </c>
@@ -9261,7 +9311,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="15">
       <c r="A350" s="10" t="s">
         <v>27</v>
       </c>
@@ -9272,7 +9322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" s="9" t="s">
         <v>25</v>
       </c>
@@ -9285,20 +9335,20 @@
         <v>42.426406871192853</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7">
       <c r="A352" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10">
       <c r="A353" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C353" s="11"/>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10">
       <c r="A354" s="8" t="s">
         <v>30</v>
       </c>
@@ -9321,7 +9371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" ht="15">
       <c r="A355" s="10" t="s">
         <v>26</v>
       </c>
@@ -9344,7 +9394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" ht="15">
       <c r="A356" s="10" t="s">
         <v>0</v>
       </c>
@@ -9367,7 +9417,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" ht="15">
       <c r="A357" s="10" t="s">
         <v>27</v>
       </c>
@@ -9390,7 +9440,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10">
       <c r="A358" s="9" t="s">
         <v>25</v>
       </c>
@@ -9419,15 +9469,15 @@
         <v>0.42426406871192851</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10">
       <c r="A359" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" ht="15">
       <c r="A360" s="10"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10">
       <c r="A361" s="8" t="s">
         <v>32</v>
       </c>
@@ -9438,7 +9488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" ht="15">
       <c r="A362" s="10" t="s">
         <v>26</v>
       </c>
@@ -9449,7 +9499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" ht="15">
       <c r="A363" s="10" t="s">
         <v>0</v>
       </c>
@@ -9460,7 +9510,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" ht="15">
       <c r="A364" s="10" t="s">
         <v>27</v>
       </c>
@@ -9471,7 +9521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10">
       <c r="A365" s="9" t="s">
         <v>25</v>
       </c>
@@ -9484,7 +9534,7 @@
         <v>70.710678118654755</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10">
       <c r="A366" s="8" t="s">
         <v>31</v>
       </c>
@@ -9492,7 +9542,7 @@
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10">
       <c r="A367" s="5" t="s">
         <v>96</v>
       </c>
@@ -9503,7 +9553,7 @@
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10">
       <c r="A368" s="4" t="s">
         <v>30</v>
       </c>
@@ -9521,7 +9571,7 @@
       </c>
       <c r="J368" s="2"/>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" ht="15">
       <c r="A369" s="7" t="s">
         <v>26</v>
       </c>
@@ -9539,7 +9589,7 @@
       </c>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" ht="15">
       <c r="A370" s="7" t="s">
         <v>0</v>
       </c>
@@ -9560,8 +9610,11 @@
       <c r="H370" s="3"/>
       <c r="I370" s="6"/>
       <c r="J370" s="2"/>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M370" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" ht="15">
       <c r="A371" s="7" t="s">
         <v>27</v>
       </c>
@@ -9583,7 +9636,7 @@
       <c r="I371" s="6"/>
       <c r="J371" s="2"/>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13">
       <c r="A372" s="4" t="s">
         <v>25</v>
       </c>
@@ -9596,7 +9649,7 @@
         <v>10.748023074035522</v>
       </c>
       <c r="D372">
-        <f t="shared" ref="D372:G372" si="27">(SQRT(D369-1))*D371</f>
+        <f t="shared" ref="D372:E372" si="27">(SQRT(D369-1))*D371</f>
         <v>12.303657992645928</v>
       </c>
       <c r="E372">
@@ -9605,684 +9658,1994 @@
       </c>
       <c r="J372" s="2"/>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" ht="15">
       <c r="A373" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" s="2"/>
+    <row r="374" spans="1:13" ht="15">
+      <c r="A374" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="B374" s="12"/>
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A375" s="3"/>
-      <c r="B375" s="12"/>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A376" s="3"/>
-      <c r="B376" s="12"/>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A377" s="3"/>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A378" s="12"/>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A379" s="2"/>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A380" s="2"/>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A381" s="2"/>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A382" s="12"/>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A383" s="3"/>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A384" s="3"/>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A385" s="3"/>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A386" s="12"/>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A387" s="2"/>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A388" s="2"/>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A389" s="2"/>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A390" s="12"/>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A391" s="12"/>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A392" s="3"/>
-      <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A393" s="3"/>
-      <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A394" s="3"/>
-      <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A395" s="2"/>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A396" s="2"/>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A397" s="2"/>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A398" s="2"/>
-      <c r="I398" s="1"/>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A399" s="12"/>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A400" s="3"/>
-      <c r="B400" s="1"/>
-      <c r="C400" s="1"/>
-      <c r="I400" s="1"/>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A401" s="2"/>
-      <c r="I401" s="1"/>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A402" s="2"/>
-      <c r="I402" s="1"/>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A403" s="12"/>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A404" s="3"/>
-      <c r="B404" s="1"/>
-      <c r="C404" s="1"/>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A405" s="2"/>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A406" s="2"/>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A407" s="2"/>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A408" s="3"/>
-      <c r="B408" s="1"/>
-      <c r="C408" s="1"/>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A409" s="2"/>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A410" s="2"/>
-      <c r="B410" s="1"/>
-      <c r="C410" s="6"/>
-      <c r="D410" s="1"/>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A411" s="2"/>
-      <c r="C411" s="6"/>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A412" s="2"/>
-      <c r="C412" s="6"/>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A413" s="2"/>
-      <c r="C413" s="6"/>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A414" s="3"/>
-      <c r="C414" s="6"/>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A415" s="3"/>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A416" s="3"/>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A417" s="2"/>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A418" s="2"/>
-      <c r="C418" s="6"/>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A419" s="12"/>
-      <c r="B419" s="6"/>
-      <c r="C419" s="6"/>
-      <c r="D419" s="6"/>
-      <c r="E419" s="6"/>
-      <c r="F419" s="6"/>
-      <c r="G419" s="6"/>
-      <c r="H419" s="6"/>
-      <c r="I419" s="6"/>
-      <c r="J419" s="6"/>
-      <c r="K419" s="6"/>
-      <c r="L419" s="6"/>
-      <c r="M419" s="6"/>
-      <c r="N419" s="6"/>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A420" s="3"/>
-      <c r="B420" s="1"/>
-      <c r="C420" s="1"/>
-      <c r="D420" s="1"/>
-      <c r="E420" s="1"/>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A421" s="3"/>
-      <c r="B421" s="1"/>
-      <c r="C421" s="1"/>
-      <c r="D421" s="1"/>
-      <c r="E421" s="1"/>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A422" s="3"/>
-      <c r="B422" s="1"/>
-      <c r="C422" s="1"/>
-      <c r="D422" s="1"/>
-      <c r="E422" s="1"/>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A423" s="2"/>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A424" s="2"/>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A425" s="2"/>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A426" s="2"/>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A427" s="2"/>
-      <c r="B427" s="6"/>
-      <c r="C427" s="6"/>
-      <c r="D427" s="6"/>
-      <c r="E427" s="6"/>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A428" s="3"/>
-      <c r="B428" s="1"/>
-      <c r="C428" s="1"/>
-      <c r="D428" s="1"/>
-      <c r="E428" s="1"/>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A429" s="2"/>
-      <c r="C429" s="6"/>
-      <c r="E429" s="6"/>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A430" s="12"/>
-      <c r="C430" s="6"/>
-      <c r="E430" s="6"/>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A431" s="2"/>
-      <c r="C431" s="6"/>
-      <c r="E431" s="6"/>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A432" s="3"/>
-      <c r="B432" s="1"/>
-      <c r="C432" s="1"/>
-      <c r="D432" s="1"/>
-      <c r="E432" s="1"/>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433" s="2"/>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434" s="12"/>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435" s="12"/>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436" s="3"/>
-      <c r="B436" s="1"/>
-      <c r="C436" s="1"/>
-      <c r="D436" s="1"/>
-      <c r="E436" s="1"/>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437" s="2"/>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438" s="2"/>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439" s="2"/>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440" s="2"/>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441" s="2"/>
-      <c r="B441" s="6"/>
-      <c r="C441" s="6"/>
-      <c r="D441" s="6"/>
-      <c r="E441" s="6"/>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442" s="3"/>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443" s="3"/>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444" s="3"/>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445" s="2"/>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446" s="2"/>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447" s="12"/>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448" s="2"/>
-    </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A449" s="3"/>
-      <c r="B449" s="1"/>
-      <c r="C449" s="1"/>
-      <c r="D449" s="1"/>
-    </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A450" s="12"/>
-    </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A451" s="12"/>
-    </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A452" s="3"/>
-      <c r="B452" s="1"/>
-      <c r="C452" s="1"/>
-      <c r="D452" s="1"/>
-      <c r="E452" s="1"/>
-    </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A453" s="12"/>
-    </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A454" s="12"/>
-    </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A455" s="3"/>
-      <c r="B455" s="1"/>
-      <c r="C455" s="1"/>
-      <c r="D455" s="1"/>
-    </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A456" s="12"/>
-    </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A457" s="12"/>
-    </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A458" s="12"/>
-    </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A459" s="12"/>
-    </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A460" s="12"/>
-    </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A461" s="12"/>
-    </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A462" s="3"/>
-      <c r="B462" s="1"/>
-      <c r="C462" s="1"/>
-      <c r="D462" s="1"/>
-      <c r="E462" s="1"/>
-      <c r="F462" s="1"/>
-      <c r="G462" s="1"/>
-      <c r="H462" s="1"/>
-      <c r="I462" s="1"/>
-      <c r="J462" s="1"/>
-      <c r="K462" s="1"/>
-      <c r="L462" s="1"/>
-      <c r="M462" s="1"/>
-      <c r="N462" s="1"/>
-      <c r="O462" s="1"/>
-    </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A463" s="3"/>
-      <c r="B463" s="1"/>
-      <c r="C463" s="1"/>
-      <c r="D463" s="1"/>
-      <c r="E463" s="1"/>
-      <c r="F463" s="1"/>
-      <c r="G463" s="1"/>
-      <c r="H463" s="1"/>
-      <c r="I463" s="1"/>
-      <c r="J463" s="1"/>
-      <c r="K463" s="1"/>
-      <c r="L463" s="1"/>
-      <c r="M463" s="1"/>
-      <c r="N463" s="1"/>
-      <c r="O463" s="1"/>
-    </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A464" s="3"/>
-      <c r="B464" s="1"/>
-      <c r="C464" s="1"/>
-      <c r="D464" s="1"/>
-      <c r="E464" s="1"/>
-      <c r="F464" s="1"/>
-      <c r="G464" s="1"/>
-      <c r="H464" s="1"/>
-      <c r="I464" s="1"/>
-      <c r="J464" s="1"/>
-      <c r="K464" s="1"/>
-      <c r="L464" s="1"/>
-      <c r="M464" s="1"/>
-      <c r="N464" s="1"/>
-      <c r="O464" s="1"/>
-    </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A465" s="12"/>
-    </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A466" s="2"/>
-      <c r="E466" s="6"/>
-      <c r="G466" s="6"/>
-      <c r="H466" s="6"/>
-      <c r="I466" s="6"/>
-      <c r="J466" s="6"/>
-      <c r="K466" s="6"/>
-      <c r="L466" s="6"/>
-      <c r="M466" s="6"/>
-      <c r="O466" s="6"/>
-    </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A467" s="2"/>
-      <c r="E467" s="6"/>
-      <c r="G467" s="6"/>
-      <c r="H467" s="6"/>
-      <c r="I467" s="6"/>
-      <c r="J467" s="6"/>
-      <c r="K467" s="6"/>
-      <c r="L467" s="6"/>
-      <c r="M467" s="6"/>
-      <c r="O467" s="6"/>
-    </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A468" s="2"/>
-      <c r="E468" s="6"/>
-      <c r="G468" s="6"/>
-      <c r="H468" s="6"/>
-      <c r="I468" s="6"/>
-      <c r="J468" s="6"/>
-      <c r="K468" s="6"/>
-      <c r="L468" s="6"/>
-      <c r="M468" s="6"/>
-      <c r="O468" s="6"/>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A469" s="2"/>
-    </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A470" s="12"/>
-    </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A471" s="12"/>
-    </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A472" s="12"/>
-    </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A473" s="12"/>
-    </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A474" s="12"/>
-    </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A475" s="12"/>
-    </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A476" s="12"/>
-    </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A477" s="12"/>
-    </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A478" s="12"/>
-    </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A479" s="12"/>
-    </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A480" s="12"/>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="12"/>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="12"/>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="12"/>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="3"/>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="3"/>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="3"/>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="12"/>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="2"/>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="12"/>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="3"/>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="3"/>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="3"/>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="12"/>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="2"/>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="2"/>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="12"/>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="12"/>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="12"/>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="12"/>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="12"/>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="12"/>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="12"/>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13">
+      <c r="A375" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B375" t="s">
+        <v>41</v>
+      </c>
+      <c r="C375" t="s">
+        <v>8</v>
+      </c>
+      <c r="D375" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" ht="15">
+      <c r="A376" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B376" s="1">
+        <v>3</v>
+      </c>
+      <c r="C376" s="1">
+        <v>3</v>
+      </c>
+      <c r="D376" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13">
+      <c r="A377" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B377">
+        <v>3.03</v>
+      </c>
+      <c r="C377">
+        <v>2.37</v>
+      </c>
+      <c r="D377">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13">
+      <c r="A378" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B378" s="2">
+        <v>3.73</v>
+      </c>
+      <c r="C378" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="D378" s="2">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13">
+      <c r="A379" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B379" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C379" s="2">
+        <v>5.93</v>
+      </c>
+      <c r="D379" s="2">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" ht="15">
+      <c r="A380" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B380" s="3">
+        <f t="shared" ref="B380:D380" si="28">AVERAGE(B377:B379)</f>
+        <v>3.72</v>
+      </c>
+      <c r="C380" s="3">
+        <f t="shared" si="28"/>
+        <v>4.376666666666666</v>
+      </c>
+      <c r="D380" s="3">
+        <f t="shared" si="28"/>
+        <v>5.9866666666666672</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13">
+      <c r="A381" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B381" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="C381" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D381" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13">
+      <c r="A382" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B382" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C382" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="D382" s="2">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13">
+      <c r="A383" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B383" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C383" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D383" s="2">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" ht="15">
+      <c r="A384" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B384" s="3">
+        <f t="shared" ref="B384:D384" si="29">AVERAGE(B381:B383)</f>
+        <v>0.89666666666666661</v>
+      </c>
+      <c r="C384" s="3">
+        <f t="shared" si="29"/>
+        <v>1.3566666666666667</v>
+      </c>
+      <c r="D384" s="3">
+        <f t="shared" si="29"/>
+        <v>1.1333333333333335</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B385" s="6">
+        <f t="shared" ref="B385:D385" si="30">(SQRT(B376-1))*B384</f>
+        <v>1.2680781609278753</v>
+      </c>
+      <c r="C385" s="6">
+        <f t="shared" si="30"/>
+        <v>1.9186163996194991</v>
+      </c>
+      <c r="D385" s="6">
+        <f t="shared" si="30"/>
+        <v>1.602775370689508</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B386" t="s">
+        <v>41</v>
+      </c>
+      <c r="C386" t="s">
+        <v>8</v>
+      </c>
+      <c r="D386" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" ht="15">
+      <c r="A387" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B387" s="1">
+        <v>3</v>
+      </c>
+      <c r="C387" s="1">
+        <v>3</v>
+      </c>
+      <c r="D387" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B388" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="C388" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D388" s="2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B389" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="C389" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="D389" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" ht="15">
+      <c r="A390" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B390" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="C390" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="D390" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E390" s="2"/>
+      <c r="F390" s="3"/>
+    </row>
+    <row r="391" spans="1:9" ht="15">
+      <c r="A391" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B391" s="3">
+        <f t="shared" ref="B391:D391" si="31">AVERAGE(B388:B390)</f>
+        <v>0.25333333333333335</v>
+      </c>
+      <c r="C391" s="3">
+        <f t="shared" si="31"/>
+        <v>0.37666666666666665</v>
+      </c>
+      <c r="D391" s="3">
+        <f t="shared" si="31"/>
+        <v>0.46333333333333337</v>
+      </c>
+      <c r="E391" s="2"/>
+      <c r="F391" s="3"/>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B392" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C392" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="D392" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B393" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C393" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="D393" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B394" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C394" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="D394" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" ht="15">
+      <c r="A395" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B395" s="3">
+        <f t="shared" ref="B395:D395" si="32">AVERAGE(B392:B394)</f>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="C395" s="3">
+        <f t="shared" si="32"/>
+        <v>0.22333333333333336</v>
+      </c>
+      <c r="D395" s="3">
+        <f t="shared" si="32"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="I395" s="1"/>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B396" s="6">
+        <f t="shared" ref="B396:D396" si="33">(SQRT(B387-1))*B395</f>
+        <v>0.14613540144521983</v>
+      </c>
+      <c r="C396" s="6">
+        <f t="shared" si="33"/>
+        <v>0.31584102892999127</v>
+      </c>
+      <c r="D396" s="6">
+        <f t="shared" si="33"/>
+        <v>0.26398653164297775</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B398" t="s">
+        <v>41</v>
+      </c>
+      <c r="C398" t="s">
+        <v>8</v>
+      </c>
+      <c r="D398" t="s">
+        <v>9</v>
+      </c>
+      <c r="E398" s="19"/>
+      <c r="F398" s="19"/>
+      <c r="G398" s="19"/>
+    </row>
+    <row r="399" spans="1:9" ht="15">
+      <c r="A399" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B399">
+        <v>12</v>
+      </c>
+      <c r="C399">
+        <v>12</v>
+      </c>
+      <c r="D399">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" ht="15">
+      <c r="A400" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B400" s="3">
+        <v>1.367</v>
+      </c>
+      <c r="C400" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D400" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="E400" s="2"/>
+    </row>
+    <row r="401" spans="1:14" ht="15">
+      <c r="A401" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B401" s="3">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C401" s="6">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D401" s="2">
+        <v>0.626</v>
+      </c>
+      <c r="E401" s="2"/>
+    </row>
+    <row r="402" spans="1:14">
+      <c r="A402" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B402">
+        <f>(SQRT(B399-1))*B401</f>
+        <v>1.2138846732700763</v>
+      </c>
+      <c r="C402">
+        <f>(SQRT(C399-1))*C401</f>
+        <v>2.0264577469071492</v>
+      </c>
+      <c r="D402">
+        <f t="shared" ref="D402" si="34">(SQRT(D399-1))*D401</f>
+        <v>2.0762071187624804</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14">
+      <c r="A403" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B403" t="s">
+        <v>41</v>
+      </c>
+      <c r="C403" t="s">
+        <v>8</v>
+      </c>
+      <c r="D403" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" ht="15">
+      <c r="A404" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B404">
+        <v>12</v>
+      </c>
+      <c r="C404">
+        <v>12</v>
+      </c>
+      <c r="D404">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" ht="15">
+      <c r="A405" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B405" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C405" s="6">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D405" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" ht="15">
+      <c r="A406" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B406" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C406" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D406" s="2">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14">
+      <c r="A407" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B407">
+        <f>(SQRT(B404-1))*B406</f>
+        <v>0.10613199329137279</v>
+      </c>
+      <c r="C407">
+        <f>(SQRT(C404-1))*C406</f>
+        <v>0.13929824119492681</v>
+      </c>
+      <c r="D407">
+        <f t="shared" ref="D407" si="35">(SQRT(D404-1))*D406</f>
+        <v>0.16914786430812537</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14">
+      <c r="A408" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C408" s="6"/>
+    </row>
+    <row r="409" spans="1:14">
+      <c r="A409" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C409" s="6"/>
+    </row>
+    <row r="410" spans="1:14">
+      <c r="A410" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1</v>
+      </c>
+      <c r="C410" t="s">
+        <v>2</v>
+      </c>
+      <c r="D410" t="s">
+        <v>3</v>
+      </c>
+      <c r="E410" t="s">
+        <v>63</v>
+      </c>
+      <c r="F410" t="s">
+        <v>43</v>
+      </c>
+      <c r="G410" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" ht="15">
+      <c r="A411" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B411">
+        <v>3</v>
+      </c>
+      <c r="C411">
+        <v>3</v>
+      </c>
+      <c r="D411">
+        <v>3</v>
+      </c>
+      <c r="E411">
+        <v>3</v>
+      </c>
+      <c r="F411">
+        <v>3</v>
+      </c>
+      <c r="G411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" ht="15">
+      <c r="A412" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B412" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="C412" s="6">
+        <v>9</v>
+      </c>
+      <c r="D412" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="E412" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="F412" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="G412" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" ht="15">
+      <c r="A413" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B413" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C413" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D413" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E413" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F413" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="G413" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14">
+      <c r="A414" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B414">
+        <f>(SQRT(B411-1))*B413</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="C414">
+        <f>(SQRT(C411-1))*C413</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="D414">
+        <f t="shared" ref="D414:G414" si="36">(SQRT(D411-1))*D413</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="E414">
+        <f>(SQRT(E411-1))*E413</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="F414">
+        <f>(SQRT(F411-1))*F413</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="G414">
+        <f t="shared" ref="G414" si="37">(SQRT(G411-1))*G413</f>
+        <v>0.56568542494923812</v>
+      </c>
+      <c r="H414" s="6"/>
+      <c r="I414" s="6"/>
+      <c r="J414" s="6"/>
+      <c r="K414" s="6"/>
+      <c r="L414" s="6"/>
+      <c r="M414" s="6"/>
+      <c r="N414" s="6"/>
+    </row>
+    <row r="415" spans="1:14" ht="15">
+      <c r="A415" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B415" t="s">
+        <v>63</v>
+      </c>
+      <c r="C415" t="s">
+        <v>43</v>
+      </c>
+      <c r="D415" t="s">
+        <v>98</v>
+      </c>
+      <c r="E415" s="1"/>
+    </row>
+    <row r="416" spans="1:14" ht="15">
+      <c r="A416" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B416">
+        <v>3</v>
+      </c>
+      <c r="C416">
+        <v>3</v>
+      </c>
+      <c r="D416">
+        <v>3</v>
+      </c>
+      <c r="E416" s="1"/>
+    </row>
+    <row r="417" spans="1:7" ht="15">
+      <c r="A417" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B417" s="3">
+        <v>17</v>
+      </c>
+      <c r="C417" s="6">
+        <v>53.5</v>
+      </c>
+      <c r="D417" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="E417" s="1"/>
+    </row>
+    <row r="418" spans="1:7" ht="15">
+      <c r="A418" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B418" s="3">
+        <v>1</v>
+      </c>
+      <c r="C418" s="6">
+        <v>6</v>
+      </c>
+      <c r="D418" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B419">
+        <f>(SQRT(B416-1))*B418</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="C419">
+        <f>(SQRT(C416-1))*C418</f>
+        <v>8.4852813742385713</v>
+      </c>
+      <c r="D419">
+        <f t="shared" ref="D419" si="38">(SQRT(D416-1))*D418</f>
+        <v>9.8994949366116654</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C420" s="6"/>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1</v>
+      </c>
+      <c r="C421" t="s">
+        <v>2</v>
+      </c>
+      <c r="D421" t="s">
+        <v>3</v>
+      </c>
+      <c r="E421" t="s">
+        <v>63</v>
+      </c>
+      <c r="F421" t="s">
+        <v>43</v>
+      </c>
+      <c r="G421" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="15">
+      <c r="A422" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B422">
+        <v>3</v>
+      </c>
+      <c r="C422">
+        <v>3</v>
+      </c>
+      <c r="D422">
+        <v>3</v>
+      </c>
+      <c r="E422">
+        <v>3</v>
+      </c>
+      <c r="F422">
+        <v>3</v>
+      </c>
+      <c r="G422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" ht="15">
+      <c r="A423" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B423" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="C423" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="D423" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="E423" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F423" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="G423" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" ht="15">
+      <c r="A424" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B424" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C424" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D424" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E424" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F424" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="G424" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B425">
+        <f>(SQRT(B422-1))*B424</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="C425">
+        <f>(SQRT(C422-1))*C424</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="D425">
+        <f t="shared" ref="D425:G425" si="39">(SQRT(D422-1))*D424</f>
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="E425">
+        <f>(SQRT(E422-1))*E424</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="F425">
+        <f>(SQRT(F422-1))*F424</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="G425">
+        <f t="shared" ref="G425" si="40">(SQRT(G422-1))*G424</f>
+        <v>0.42426406871192851</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B426" t="s">
+        <v>63</v>
+      </c>
+      <c r="C426" t="s">
+        <v>43</v>
+      </c>
+      <c r="D426" t="s">
+        <v>98</v>
+      </c>
+      <c r="E426" s="6"/>
+    </row>
+    <row r="427" spans="1:7" ht="15">
+      <c r="A427" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B427">
+        <v>3</v>
+      </c>
+      <c r="C427">
+        <v>3</v>
+      </c>
+      <c r="D427">
+        <v>3</v>
+      </c>
+      <c r="E427" s="1"/>
+    </row>
+    <row r="428" spans="1:7" ht="15">
+      <c r="A428" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B428" s="3">
+        <v>21</v>
+      </c>
+      <c r="C428" s="6">
+        <v>22</v>
+      </c>
+      <c r="D428" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="15">
+      <c r="A429" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B429" s="3">
+        <v>2</v>
+      </c>
+      <c r="C429" s="6">
+        <v>2</v>
+      </c>
+      <c r="D429" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B430">
+        <f>(SQRT(B427-1))*B429</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="C430">
+        <f>(SQRT(C427-1))*C429</f>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="D430">
+        <f t="shared" ref="D430" si="41">(SQRT(D427-1))*D429</f>
+        <v>2.8284271247461903</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="15">
+      <c r="A431" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B431" s="1"/>
+      <c r="C431" s="1"/>
+      <c r="D431" s="1"/>
+      <c r="E431" s="1"/>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1</v>
+      </c>
+      <c r="C432" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="15">
+      <c r="A433" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B433">
+        <v>5</v>
+      </c>
+      <c r="C433">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" ht="15">
+      <c r="A434" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B434" s="3">
+        <v>26.1</v>
+      </c>
+      <c r="C434" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" ht="15">
+      <c r="A435" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B435" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C435" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B436">
+        <f>(SQRT(B433-1))*B435</f>
+        <v>2.4</v>
+      </c>
+      <c r="C436">
+        <f t="shared" ref="C436" si="42">(SQRT(C433-1))*C435</f>
+        <v>2</v>
+      </c>
+      <c r="E436" s="6"/>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1</v>
+      </c>
+      <c r="C437" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="15">
+      <c r="A438" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B438">
+        <v>5</v>
+      </c>
+      <c r="C438">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" ht="15">
+      <c r="A439" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B439" s="3">
+        <v>9</v>
+      </c>
+      <c r="C439" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" ht="15">
+      <c r="A440" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B440" s="3">
+        <v>1</v>
+      </c>
+      <c r="C440" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B441">
+        <f>(SQRT(B438-1))*B440</f>
+        <v>2</v>
+      </c>
+      <c r="C441">
+        <f t="shared" ref="C441" si="43">(SQRT(C438-1))*C440</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B442" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1</v>
+      </c>
+      <c r="C443" t="s">
+        <v>3</v>
+      </c>
+      <c r="D443" t="s">
+        <v>63</v>
+      </c>
+      <c r="E443" t="s">
+        <v>98</v>
+      </c>
+      <c r="F443" t="s">
+        <v>41</v>
+      </c>
+      <c r="G443" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" ht="15">
+      <c r="A444" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+      <c r="E444">
+        <v>1</v>
+      </c>
+      <c r="F444">
+        <v>1</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" ht="15">
+      <c r="A445" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B445" s="3">
+        <v>23.3</v>
+      </c>
+      <c r="C445" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="D445">
+        <f>0.5+13.8+3.5</f>
+        <v>17.8</v>
+      </c>
+      <c r="E445">
+        <f>4.7+20.3+8.3</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F445">
+        <v>0.7</v>
+      </c>
+      <c r="G445">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" ht="15">
+      <c r="A446" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B446" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C446" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D446">
+        <f>0.1+0.8+0.2</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E446">
+        <f>0.9+1.2+0.4</f>
+        <v>2.5</v>
+      </c>
+      <c r="F446">
+        <v>0.2</v>
+      </c>
+      <c r="G446">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B447">
+        <f>(SQRT(B444-1))*B446</f>
+        <v>0</v>
+      </c>
+      <c r="C447">
+        <f t="shared" ref="C447:E447" si="44">(SQRT(C444-1))*C446</f>
+        <v>0</v>
+      </c>
+      <c r="D447">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="E447">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <f t="shared" ref="F447:G447" si="45">(SQRT(F444-1))*F446</f>
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1</v>
+      </c>
+      <c r="C448" t="s">
+        <v>3</v>
+      </c>
+      <c r="D448" t="s">
+        <v>41</v>
+      </c>
+      <c r="E448" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" ht="15">
+      <c r="A449" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" ht="15">
+      <c r="A450" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B450" s="3">
+        <v>17</v>
+      </c>
+      <c r="C450" s="2">
+        <v>50</v>
+      </c>
+      <c r="D450">
+        <v>0.1</v>
+      </c>
+      <c r="E450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" ht="15">
+      <c r="A451" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B451" s="3">
+        <v>2</v>
+      </c>
+      <c r="C451" s="2">
+        <v>5</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15">
+      <c r="A452" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B452">
+        <f>(SQRT(B449-1))*B451</f>
+        <v>0</v>
+      </c>
+      <c r="C452">
+        <f t="shared" ref="C452:G452" si="46">(SQRT(C449-1))*C451</f>
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15">
+      <c r="A453" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15">
+      <c r="A454" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B454" t="s">
+        <v>16</v>
+      </c>
+      <c r="C454" t="s">
+        <v>17</v>
+      </c>
+      <c r="D454" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" ht="15">
+      <c r="A455" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B455">
+        <v>3</v>
+      </c>
+      <c r="C455">
+        <v>3</v>
+      </c>
+      <c r="D455">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" ht="15">
+      <c r="A456" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B456" s="3">
+        <v>16</v>
+      </c>
+      <c r="C456" s="2">
+        <v>3</v>
+      </c>
+      <c r="D456" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15" ht="15">
+      <c r="A457" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B457" s="3">
+        <v>1</v>
+      </c>
+      <c r="C457" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D457" s="2">
+        <v>5</v>
+      </c>
+      <c r="E457" s="1"/>
+      <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+      <c r="H457" s="1"/>
+      <c r="I457" s="1"/>
+      <c r="J457" s="1"/>
+      <c r="K457" s="1"/>
+      <c r="L457" s="1"/>
+      <c r="M457" s="1"/>
+      <c r="N457" s="1"/>
+      <c r="O457" s="1"/>
+    </row>
+    <row r="458" spans="1:15" ht="15">
+      <c r="A458" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B458">
+        <f>(SQRT(B455-1))*B457</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="C458">
+        <f t="shared" ref="C458:D458" si="47">(SQRT(C455-1))*C457</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D458">
+        <f t="shared" si="47"/>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="E458" s="1"/>
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+      <c r="H458" s="1"/>
+      <c r="I458" s="1"/>
+      <c r="J458" s="1"/>
+      <c r="K458" s="1"/>
+      <c r="L458" s="1"/>
+      <c r="M458" s="1"/>
+      <c r="N458" s="1"/>
+      <c r="O458" s="1"/>
+    </row>
+    <row r="459" spans="1:15" ht="15">
+      <c r="A459" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
+      <c r="D459" s="1"/>
+      <c r="E459" s="1"/>
+      <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+      <c r="H459" s="1"/>
+      <c r="I459" s="1"/>
+      <c r="J459" s="1"/>
+      <c r="K459" s="1"/>
+      <c r="L459" s="1"/>
+      <c r="M459" s="1"/>
+      <c r="N459" s="1"/>
+      <c r="O459" s="1"/>
+    </row>
+    <row r="460" spans="1:15" ht="15">
+      <c r="A460" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15">
+      <c r="A461" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1</v>
+      </c>
+      <c r="C461" t="s">
+        <v>3</v>
+      </c>
+      <c r="D461" t="s">
+        <v>41</v>
+      </c>
+      <c r="E461" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G461" s="6"/>
+      <c r="H461" s="6"/>
+      <c r="I461" s="6"/>
+      <c r="J461" s="6"/>
+      <c r="K461" s="6"/>
+      <c r="L461" s="6"/>
+      <c r="M461" s="6"/>
+      <c r="O461" s="6"/>
+    </row>
+    <row r="462" spans="1:15" ht="15">
+      <c r="A462" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B462">
+        <v>10</v>
+      </c>
+      <c r="C462">
+        <v>10</v>
+      </c>
+      <c r="D462">
+        <v>10</v>
+      </c>
+      <c r="E462">
+        <v>10</v>
+      </c>
+      <c r="G462" s="6"/>
+      <c r="H462" s="6"/>
+      <c r="I462" s="6"/>
+      <c r="J462" s="6"/>
+      <c r="K462" s="6"/>
+      <c r="L462" s="6"/>
+      <c r="M462" s="6"/>
+      <c r="O462" s="6"/>
+    </row>
+    <row r="463" spans="1:15" ht="15">
+      <c r="A463" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B463" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="C463" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="D463" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E463" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G463" s="6"/>
+      <c r="H463" s="6"/>
+      <c r="I463" s="6"/>
+      <c r="J463" s="6"/>
+      <c r="K463" s="6"/>
+      <c r="L463" s="6"/>
+      <c r="M463" s="6"/>
+      <c r="O463" s="6"/>
+    </row>
+    <row r="464" spans="1:15" ht="15">
+      <c r="A464" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B464" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="C464" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D464" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E464" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B465">
+        <f>(SQRT(B462-1))*B464</f>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="C465">
+        <f t="shared" ref="C465:E465" si="48">(SQRT(C462-1))*C464</f>
+        <v>7.5</v>
+      </c>
+      <c r="D465">
+        <f>(SQRT(D462-1))*D464</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E465">
+        <f t="shared" si="48"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="15">
+      <c r="A466" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1</v>
+      </c>
+      <c r="C467" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" ht="15">
+      <c r="A468" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B468">
+        <v>6</v>
+      </c>
+      <c r="C468">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="15">
+      <c r="A469" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B469" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="C469" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="15">
+      <c r="A470" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B470" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C470" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B471">
+        <f>(SQRT(B468-1))*B470</f>
+        <v>9.1678787077491375</v>
+      </c>
+      <c r="C471">
+        <f t="shared" ref="C471" si="49">(SQRT(C468-1))*C470</f>
+        <v>11.403946685248927</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" ht="15">
+      <c r="A472" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1</v>
+      </c>
+      <c r="C473" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" ht="15">
+      <c r="A474" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B474">
+        <v>4</v>
+      </c>
+      <c r="C474">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" ht="15">
+      <c r="A475" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B475" s="3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="C475" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" ht="15">
+      <c r="A476" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B476" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="C476" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B477">
+        <f>(SQRT(B474-1))*B476</f>
+        <v>4.1569219381653051</v>
+      </c>
+      <c r="C477">
+        <f t="shared" ref="C477" si="50">(SQRT(C474-1))*C476</f>
+        <v>11.085125168440815</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="15">
+      <c r="A478" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1</v>
+      </c>
+      <c r="C479" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" ht="15">
+      <c r="A480" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B480">
+        <v>4</v>
+      </c>
+      <c r="C480">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="15">
+      <c r="A481" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B481" s="3">
+        <v>44.1</v>
+      </c>
+      <c r="C481" s="2">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="15">
+      <c r="A482" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B482" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="C482" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B483">
+        <f>(SQRT(B480-1))*B482</f>
+        <v>20.091789367798974</v>
+      </c>
+      <c r="C483">
+        <f t="shared" ref="C483" si="51">(SQRT(C480-1))*C482</f>
+        <v>12.124355652982141</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="15">
+      <c r="A484" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B485" t="s">
+        <v>41</v>
+      </c>
+      <c r="C485" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="15">
+      <c r="A486" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B486">
+        <v>10</v>
+      </c>
+      <c r="C486">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="15">
+      <c r="A487" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B487" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C487" s="2">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="15">
+      <c r="A488" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B488" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C488" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B489">
+        <f>(SQRT(B486-1))*B488</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="C489">
+        <f t="shared" ref="C489" si="52">(SQRT(C486-1))*C488</f>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="15">
+      <c r="A490" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B491" t="s">
+        <v>41</v>
+      </c>
+      <c r="C491" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="15">
+      <c r="A492" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B492">
+        <v>6</v>
+      </c>
+      <c r="C492">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="15">
+      <c r="A493" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B493" s="3">
+        <v>1</v>
+      </c>
+      <c r="C493" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="15">
+      <c r="A494" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B494" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C494" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B495">
+        <f>(SQRT(B492-1))*B494</f>
+        <v>0.89442719099991597</v>
+      </c>
+      <c r="C495">
+        <f t="shared" ref="C495" si="53">(SQRT(C492-1))*C494</f>
+        <v>1.7888543819998319</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" ht="15">
+      <c r="A496" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B497" t="s">
+        <v>41</v>
+      </c>
+      <c r="C497" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" ht="15">
+      <c r="A498" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B498">
+        <v>4</v>
+      </c>
+      <c r="C498">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="15">
+      <c r="A499" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B499" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C499" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" ht="15">
+      <c r="A500" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B500" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C500" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B501">
+        <f>(SQRT(B498-1))*B500</f>
+        <v>0.34641016151377546</v>
+      </c>
+      <c r="C501">
+        <f t="shared" ref="C501" si="54">(SQRT(C498-1))*C500</f>
+        <v>0.51961524227066314</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="20"/>
+    </row>
+    <row r="503" spans="1:3">
       <c r="A503" s="12"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3">
       <c r="A504" s="12"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="12"/>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="12"/>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="12"/>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" ht="15">
+      <c r="A505" s="3"/>
+    </row>
+    <row r="506" spans="1:3" ht="15">
+      <c r="A506" s="3"/>
+    </row>
+    <row r="507" spans="1:3" ht="15">
+      <c r="A507" s="3"/>
+    </row>
+    <row r="508" spans="1:3">
       <c r="A508" s="12"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="12"/>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="3"/>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3">
+      <c r="A509" s="2"/>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="12"/>
+    </row>
+    <row r="511" spans="1:3" ht="15">
       <c r="A511" s="3"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" ht="15">
       <c r="A512" s="3"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="12"/>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="2"/>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="12"/>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="3"/>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="3"/>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="3"/>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" ht="15">
+      <c r="A513" s="3"/>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="12"/>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="2"/>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="12"/>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="12"/>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="12"/>
+    </row>
+    <row r="519" spans="1:1">
       <c r="A519" s="12"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="2"/>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1">
+      <c r="A520" s="12"/>
+    </row>
+    <row r="521" spans="1:1">
       <c r="A521" s="12"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1">
       <c r="A522" s="12"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1">
       <c r="A523" s="12"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1">
       <c r="A524" s="12"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1">
       <c r="A525" s="12"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1">
       <c r="A526" s="12"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1">
       <c r="A527" s="12"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1">
       <c r="A528" s="12"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1">
       <c r="A529" s="12"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1">
       <c r="A530" s="12"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1">
       <c r="A531" s="12"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1">
       <c r="A532" s="12"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1">
       <c r="A533" s="12"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1">
       <c r="A534" s="12"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1">
       <c r="A535" s="12"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1">
       <c r="A536" s="12"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1">
       <c r="A537" s="12"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1">
       <c r="A538" s="12"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1">
       <c r="A539" s="12"/>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="12"/>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="12"/>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="12"/>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="12"/>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10292,52 +11655,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId6" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>93</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>85725</xdr:colOff>
+                <xdr:row>94</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1025" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10350,7 +11713,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10362,7 +11725,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
+++ b/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
@@ -288,9 +288,6 @@
     <t>F.Conrol</t>
   </si>
   <si>
-    <t>Kerns</t>
-  </si>
-  <si>
     <t>Huffman</t>
   </si>
   <si>
@@ -367,6 +364,9 @@
   </si>
   <si>
     <t>RiparianLowSeverity</t>
+  </si>
+  <si>
+    <t>Kerns+Thies+etal-2006</t>
   </si>
 </sst>
 </file>
@@ -521,15 +521,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>88446</xdr:colOff>
+          <xdr:colOff>83004</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>63954</xdr:rowOff>
+          <xdr:rowOff>69396</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>240846</xdr:colOff>
+          <xdr:colOff>302079</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>48986</xdr:rowOff>
+          <xdr:rowOff>108857</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -562,15 +562,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>88446</xdr:colOff>
+          <xdr:colOff>83004</xdr:colOff>
           <xdr:row>94</xdr:row>
-          <xdr:rowOff>63954</xdr:rowOff>
+          <xdr:rowOff>69396</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>240846</xdr:colOff>
+          <xdr:colOff>302079</xdr:colOff>
           <xdr:row>95</xdr:row>
-          <xdr:rowOff>48986</xdr:rowOff>
+          <xdr:rowOff>108857</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -891,8 +891,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AR539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A502" sqref="A502"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -903,12 +903,12 @@
     <col min="14" max="14" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15">
+    <row r="1" spans="1:44">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="15">
+    <row r="2" spans="1:44">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="1:44" ht="15">
+    <row r="4" spans="1:44">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15">
+    <row r="5" spans="1:44">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
     </row>
-    <row r="6" spans="1:44" ht="15">
+    <row r="6" spans="1:44">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
     </row>
-    <row r="8" spans="1:44" ht="15">
+    <row r="8" spans="1:44">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="210" spans="1:19">
       <c r="A210" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="211" spans="1:19">
@@ -5629,7 +5629,7 @@
         <v>43</v>
       </c>
       <c r="M211" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N211" t="s">
         <v>16</v>
@@ -5960,7 +5960,7 @@
         <v>43</v>
       </c>
       <c r="M217" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N217" t="s">
         <v>16</v>
@@ -7707,7 +7707,7 @@
     </row>
     <row r="283" spans="1:33">
       <c r="A283" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB283" s="9"/>
       <c r="AE283" s="9"/>
@@ -7819,7 +7819,7 @@
         <v>3</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="296" spans="1:33">
       <c r="A296" s="8" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
@@ -8274,7 +8274,7 @@
         <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E303">
         <v>1.7161999999999999</v>
@@ -8531,7 +8531,7 @@
     </row>
     <row r="310" spans="1:33">
       <c r="A310" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -9011,7 +9011,7 @@
     </row>
     <row r="324" spans="1:13">
       <c r="A324" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:13">
@@ -9141,12 +9141,12 @@
     </row>
     <row r="338" spans="1:7">
       <c r="A338" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -9344,7 +9344,7 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C353" s="11"/>
     </row>
@@ -9544,7 +9544,7 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
@@ -9611,7 +9611,7 @@
       <c r="I370" s="6"/>
       <c r="J370" s="2"/>
       <c r="M370" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="371" spans="1:13" ht="15">
@@ -9666,7 +9666,7 @@
     </row>
     <row r="374" spans="1:13" ht="15">
       <c r="A374" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B374" s="12"/>
       <c r="H374" s="6"/>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="397" spans="1:9">
       <c r="A397" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -10162,13 +10162,13 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C408" s="6"/>
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C409" s="6"/>
     </row>
@@ -10192,7 +10192,7 @@
         <v>43</v>
       </c>
       <c r="G410" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="411" spans="1:14" ht="15">
@@ -10277,7 +10277,7 @@
         <v>0.28284271247461906</v>
       </c>
       <c r="D414">
-        <f t="shared" ref="D414:G414" si="36">(SQRT(D411-1))*D413</f>
+        <f t="shared" ref="D414" si="36">(SQRT(D411-1))*D413</f>
         <v>0.28284271247461906</v>
       </c>
       <c r="E414">
@@ -10311,7 +10311,7 @@
         <v>43</v>
       </c>
       <c r="D415" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E415" s="1"/>
     </row>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C420" s="6"/>
     </row>
@@ -10402,7 +10402,7 @@
         <v>43</v>
       </c>
       <c r="G421" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="15">
@@ -10487,7 +10487,7 @@
         <v>0.28284271247461906</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:G425" si="39">(SQRT(D422-1))*D424</f>
+        <f t="shared" ref="D425" si="39">(SQRT(D422-1))*D424</f>
         <v>0.42426406871192851</v>
       </c>
       <c r="E425">
@@ -10514,7 +10514,7 @@
         <v>43</v>
       </c>
       <c r="D426" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E426" s="6"/>
     </row>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="431" spans="1:7" ht="15">
       <c r="A431" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -10704,10 +10704,10 @@
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B442" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -10724,7 +10724,7 @@
         <v>63</v>
       </c>
       <c r="E443" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F443" t="s">
         <v>41</v>
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="C452">
-        <f t="shared" ref="C452:G452" si="46">(SQRT(C449-1))*C451</f>
+        <f t="shared" ref="C452:E452" si="46">(SQRT(C449-1))*C451</f>
         <v>0</v>
       </c>
       <c r="D452">
@@ -10926,7 +10926,7 @@
     </row>
     <row r="453" spans="1:15">
       <c r="A453" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="454" spans="1:15">
@@ -11026,7 +11026,7 @@
     </row>
     <row r="459" spans="1:15" ht="15">
       <c r="A459" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -11045,7 +11045,7 @@
     </row>
     <row r="460" spans="1:15" ht="15">
       <c r="A460" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="461" spans="1:15">
@@ -11163,7 +11163,7 @@
     </row>
     <row r="466" spans="1:5" ht="15">
       <c r="A466" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11225,7 +11225,7 @@
     </row>
     <row r="472" spans="1:5" ht="15">
       <c r="A472" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11287,7 +11287,7 @@
     </row>
     <row r="478" spans="1:5" ht="15">
       <c r="A478" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11349,7 +11349,7 @@
     </row>
     <row r="484" spans="1:3" ht="15">
       <c r="A484" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -11411,7 +11411,7 @@
     </row>
     <row r="490" spans="1:3" ht="15">
       <c r="A490" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -11473,7 +11473,7 @@
     </row>
     <row r="496" spans="1:3" ht="15">
       <c r="A496" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -11655,52 +11655,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="Control 2"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
-                <xdr:row>94</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>95</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="Control 1"/>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
+++ b/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="285" windowWidth="8310" windowHeight="2505"/>
+    <workbookView xWindow="16335" yWindow="345" windowWidth="12330" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -489,6 +489,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,15 +522,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>83004</xdr:colOff>
-          <xdr:row>94</xdr:row>
-          <xdr:rowOff>69396</xdr:rowOff>
+          <xdr:colOff>69396</xdr:colOff>
+          <xdr:row>97</xdr:row>
+          <xdr:rowOff>81643</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>302079</xdr:colOff>
-          <xdr:row>95</xdr:row>
-          <xdr:rowOff>108857</xdr:rowOff>
+          <xdr:colOff>221796</xdr:colOff>
+          <xdr:row>98</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -562,15 +563,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>83004</xdr:colOff>
-          <xdr:row>94</xdr:row>
-          <xdr:rowOff>69396</xdr:rowOff>
+          <xdr:colOff>69396</xdr:colOff>
+          <xdr:row>97</xdr:row>
+          <xdr:rowOff>81643</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>302079</xdr:colOff>
-          <xdr:row>95</xdr:row>
-          <xdr:rowOff>108857</xdr:rowOff>
+          <xdr:colOff>221796</xdr:colOff>
+          <xdr:row>98</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -891,8 +892,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AR539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A297" sqref="A297"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D396" sqref="D396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1214,75 +1215,75 @@
         <v>0</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ref="B7:S7" si="0">AVERAGE(B4:B6)</f>
+        <f>AVERAGE(B4:B6)</f>
         <v>52.6</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(C4:C6)</f>
         <v>59.933333333333337</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D6)</f>
         <v>50.966666666666661</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E6)</f>
         <v>48.79999999999999</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F6)</f>
         <v>53.9</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G6)</f>
         <v>46.533333333333339</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H6)</f>
         <v>3.7000000000000006</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I4:I6)</f>
         <v>5.9666666666666659</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J4:J6)</f>
         <v>4.3666666666666663</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K4:K6)</f>
         <v>11.166666666666666</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L4:L6)</f>
         <v>12.533333333333333</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(M4:M6)</f>
         <v>9.7000000000000011</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(N4:N6)</f>
         <v>30.666666666666668</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(O4:O6)</f>
         <v>35.266666666666673</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(P4:P6)</f>
         <v>31.8</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(Q4:Q6)</f>
         <v>8.6333333333333346</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(R4:R6)</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(S4:S6)</f>
         <v>7.3666666666666671</v>
       </c>
       <c r="AQ7" s="3"/>
@@ -1476,75 +1477,75 @@
         <v>27</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" ref="B11:S11" si="1">AVERAGE(B8:B10)</f>
+        <f>AVERAGE(B8:B10)</f>
         <v>2.0666666666666669</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(C8:C10)</f>
         <v>4.0666666666666664</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D8:D10)</f>
         <v>5.3666666666666671</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E8:E10)</f>
         <v>1.1666666666666667</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F8:F10)</f>
         <v>2.9333333333333336</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G8:G10)</f>
         <v>4.1000000000000005</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H8:H10)</f>
         <v>0.9</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(I8:I10)</f>
         <v>1.1333333333333333</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(J8:J10)</f>
         <v>1.3666666666666665</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(K8:K10)</f>
         <v>1.4666666666666668</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(L8:L10)</f>
         <v>1</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(M8:M10)</f>
         <v>1.7</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(N8:N10)</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(O8:O10)</f>
         <v>2.0666666666666664</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(P8:P10)</f>
         <v>3.1999999999999997</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(Q8:Q10)</f>
         <v>0.93333333333333324</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(R8:R10)</f>
         <v>1.1666666666666667</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(S8:S10)</f>
         <v>0.76666666666666661</v>
       </c>
       <c r="AQ11" s="3"/>
@@ -1555,75 +1556,75 @@
         <v>25</v>
       </c>
       <c r="B12" s="6">
-        <f t="shared" ref="B12:S12" si="2">(SQRT(B3-1))*B11</f>
+        <f>(SQRT(B3-1))*B11</f>
         <v>2.9227080289043967</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(C3-1))*C11</f>
         <v>5.751135153650587</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(D3-1))*D11</f>
         <v>7.5896127847356114</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(E3-1))*E11</f>
         <v>1.649915822768611</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(F3-1))*F11</f>
         <v>4.1483597829610792</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(G3-1))*G11</f>
         <v>5.7982756057296907</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(H3-1))*H11</f>
         <v>1.2727922061357857</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(I3-1))*I11</f>
         <v>1.6027753706895078</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(J3-1))*J11</f>
         <v>1.9327585352432297</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(K3-1))*K11</f>
         <v>2.0741798914805396</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(L3-1))*L11</f>
         <v>1.4142135623730951</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(M3-1))*M11</f>
         <v>2.4041630560342617</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(N3-1))*N11</f>
         <v>1.3199326582148887</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(O3-1))*O11</f>
         <v>2.9227080289043963</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(P3-1))*P11</f>
         <v>4.5254833995939041</v>
       </c>
       <c r="Q12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(Q3-1))*Q11</f>
         <v>1.3199326582148887</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(R3-1))*R11</f>
         <v>1.649915822768611</v>
       </c>
       <c r="S12" s="6">
-        <f t="shared" si="2"/>
+        <f>(SQRT(S3-1))*S11</f>
         <v>1.0842303978193728</v>
       </c>
       <c r="AQ12" s="6"/>
@@ -2066,75 +2067,75 @@
         <v>0</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ref="B21:S21" si="3">AVERAGE(B18:B20)</f>
+        <f>AVERAGE(B18:B20)</f>
         <v>25.166666666666668</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(C18:C20)</f>
         <v>27.400000000000002</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(D18:D20)</f>
         <v>19.7</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(E18:E20)</f>
         <v>24.899999999999995</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(F18:F20)</f>
         <v>26.966666666666669</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(G18:G20)</f>
         <v>19.333333333333332</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(H18:H20)</f>
         <v>0.23333333333333331</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(I18:I20)</f>
         <v>0.46666666666666662</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(J18:J20)</f>
         <v>0.3666666666666667</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(K18:K20)</f>
         <v>2.7666666666666671</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(L18:L20)</f>
         <v>3</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(M18:M20)</f>
         <v>2.1333333333333333</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(N18:N20)</f>
         <v>10.6</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(O18:O20)</f>
         <v>11.300000000000002</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(P18:P20)</f>
         <v>8.6</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(Q18:Q20)</f>
         <v>10.5</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(R18:R20)</f>
         <v>12.033333333333333</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(S18:S20)</f>
         <v>8.25</v>
       </c>
     </row>
@@ -2320,75 +2321,75 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" ref="B25:S25" si="4">AVERAGE(B22:B24)</f>
+        <f>AVERAGE(B22:B24)</f>
         <v>2.5333333333333337</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(C22:C24)</f>
         <v>1.1333333333333331</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(D22:D24)</f>
         <v>1.5</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(E22:E24)</f>
         <v>2.5333333333333337</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(F22:F24)</f>
         <v>1.1333333333333335</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(G22:G24)</f>
         <v>1.3666666666666665</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(H22:H24)</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(I22:I24)</f>
         <v>0.23333333333333331</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(J22:J24)</f>
         <v>0.23333333333333331</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(K22:K24)</f>
         <v>0.3</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(L22:L24)</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(M22:M24)</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(N22:N24)</f>
         <v>1.8666666666666665</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(O22:O24)</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(P22:P24)</f>
         <v>1.0333333333333334</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(Q22:Q24)</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(R22:R24)</f>
         <v>0.9</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(S22:S24)</f>
         <v>0.6333333333333333</v>
       </c>
     </row>
@@ -2397,75 +2398,75 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <f t="shared" ref="B26:S26" si="5">(SQRT(B17-1))*B25</f>
+        <f>(SQRT(B17-1))*B25</f>
         <v>3.5826743580118414</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(C17-1))*C25</f>
         <v>1.6027753706895074</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(D17-1))*D25</f>
         <v>2.1213203435596428</v>
       </c>
       <c r="E26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(E17-1))*E25</f>
         <v>3.5826743580118414</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(F17-1))*F25</f>
         <v>1.602775370689508</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(G17-1))*G25</f>
         <v>1.9327585352432297</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(H17-1))*H25</f>
         <v>0.14142135623730953</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(I17-1))*I25</f>
         <v>0.32998316455372217</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(J17-1))*J25</f>
         <v>0.32998316455372217</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(K17-1))*K25</f>
         <v>0.42426406871192851</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(L17-1))*L25</f>
         <v>0.37712361663282534</v>
       </c>
       <c r="M26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(M17-1))*M25</f>
         <v>0.14142135623730953</v>
       </c>
       <c r="N26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(N17-1))*N25</f>
         <v>2.6398653164297774</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(O17-1))*O25</f>
         <v>0.56568542494923801</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(P17-1))*P25</f>
         <v>1.4613540144521984</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(Q17-1))*Q25</f>
         <v>1.5556349186104048</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(R17-1))*R25</f>
         <v>1.2727922061357857</v>
       </c>
       <c r="S26" s="6">
-        <f t="shared" si="5"/>
+        <f>(SQRT(S17-1))*S25</f>
         <v>0.89566858950296024</v>
       </c>
     </row>
@@ -2706,27 +2707,27 @@
         <v>25</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:G35" si="6">(SQRT(B32-1))*B34</f>
+        <f t="shared" ref="B35:G35" si="0">(SQRT(B32-1))*B34</f>
         <v>0.62225396744416184</v>
       </c>
       <c r="C35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1.2586500705120547</v>
       </c>
       <c r="D35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1.2586500705120547</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.94328044610285455</v>
       </c>
       <c r="F35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1.2586500705120547</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1.8809040379562167</v>
       </c>
     </row>
@@ -2995,59 +2996,59 @@
         <v>3.1112698372208096</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:P44" si="7">(SQRT(C41-1))*C43</f>
+        <f t="shared" ref="C44:P44" si="1">(SQRT(C41-1))*C43</f>
         <v>4.3840620433565949</v>
       </c>
       <c r="D44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.98994949366116658</v>
       </c>
       <c r="E44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.98994949366116658</v>
       </c>
       <c r="F44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1.9798989873223332</v>
       </c>
       <c r="G44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.98994949366116658</v>
       </c>
       <c r="H44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.28284271247461906</v>
       </c>
       <c r="I44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1.8384776310850237</v>
       </c>
       <c r="J44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.18384776310850237</v>
       </c>
       <c r="K44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>3.9597979746446663</v>
       </c>
       <c r="L44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>6.0811183182043091</v>
       </c>
       <c r="M44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>1.8384776310850237</v>
       </c>
       <c r="N44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>5.656854249492381E-2</v>
       </c>
       <c r="O44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.22627416997969524</v>
       </c>
       <c r="P44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0.18384776310850237</v>
       </c>
     </row>
@@ -3244,27 +3245,27 @@
         <v>25</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52:G52" si="8">(SQRT(B49-1))*B51</f>
+        <f t="shared" ref="B52:G52" si="2">(SQRT(B49-1))*B51</f>
         <v>0.56568542494923812</v>
       </c>
       <c r="C52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.84852813742385702</v>
       </c>
       <c r="D52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.56568542494923812</v>
       </c>
       <c r="E52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>4.2426406871192854E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>9.8994949366116664E-2</v>
       </c>
       <c r="G52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>7.0710678118654766E-2</v>
       </c>
     </row>
@@ -3647,27 +3648,27 @@
         <v>25</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:G80" si="9">(SQRT(B77-1))*B79</f>
+        <f t="shared" ref="B80:G80" si="3">(SQRT(B77-1))*B79</f>
         <v>5.1429563482495162</v>
       </c>
       <c r="C80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5.5425625842204074</v>
       </c>
       <c r="D80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>3.1304951684997055</v>
       </c>
       <c r="E80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>5.8889727457341827</v>
       </c>
       <c r="F80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>9.8386991009990759</v>
       </c>
       <c r="G80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>10.392304845413264</v>
       </c>
       <c r="I80" s="1"/>
@@ -5447,55 +5448,55 @@
         <v>2.598076211353316</v>
       </c>
       <c r="C206">
-        <f t="shared" ref="C206:O206" si="10">(SQRT(C203-1))*C205</f>
+        <f t="shared" ref="C206:O206" si="4">(SQRT(C203-1))*C205</f>
         <v>0.69282032302755092</v>
       </c>
       <c r="D206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>2.4248711305964279</v>
       </c>
       <c r="E206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.17320508075688773</v>
       </c>
       <c r="F206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.17320508075688773</v>
       </c>
       <c r="G206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.51961524227066314</v>
       </c>
       <c r="H206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>1.7320508075688772</v>
       </c>
       <c r="I206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.8660254037844386</v>
       </c>
       <c r="J206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.34641016151377546</v>
       </c>
       <c r="K206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.17320508075688773</v>
       </c>
       <c r="L206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>2.0784609690826525</v>
       </c>
       <c r="M206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>1.0392304845413263</v>
       </c>
       <c r="N206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.69282032302755092</v>
       </c>
       <c r="O206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0.8660254037844386</v>
       </c>
     </row>
@@ -5861,47 +5862,47 @@
         <v>19.456618411224497</v>
       </c>
       <c r="F215">
-        <f t="shared" ref="F215:P215" si="11">(SQRT(F212-1))*F214</f>
+        <f t="shared" ref="F215:P215" si="5">(SQRT(F212-1))*F214</f>
         <v>11.333137253205752</v>
       </c>
       <c r="G215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.5840716885526085</v>
       </c>
       <c r="H215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>5.3851648071345036E-2</v>
       </c>
       <c r="I215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.2449979983983987E-2</v>
       </c>
       <c r="J215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>5.5677643628300216E-2</v>
       </c>
       <c r="K215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>4.6312417341356733</v>
       </c>
       <c r="L215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6.2449979983983987E-2</v>
       </c>
       <c r="M215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>5.5677643628300216E-2</v>
       </c>
       <c r="N215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>9.7283092056122484</v>
       </c>
       <c r="O215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>7.4101282040191458</v>
       </c>
       <c r="P215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>3.3307656777383787</v>
       </c>
       <c r="Q215">
@@ -6183,71 +6184,71 @@
         <v>4.4858422843430414</v>
       </c>
       <c r="C221">
-        <f t="shared" ref="C221:S221" si="12">(SQRT(C218-1))*C220</f>
+        <f t="shared" ref="C221:S221" si="6">(SQRT(C218-1))*C220</f>
         <v>3.0538040212168167</v>
       </c>
       <c r="D221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4.838387231299289</v>
       </c>
       <c r="E221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2.8436596139481956</v>
       </c>
       <c r="F221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1.6563815985454562</v>
       </c>
       <c r="G221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2.943467343117637</v>
       </c>
       <c r="H221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>5.3851648071345036E-2</v>
       </c>
       <c r="I221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>6.2449979983983987E-2</v>
       </c>
       <c r="J221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>5.5677643628300216E-2</v>
       </c>
       <c r="K221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2.2402285597679534</v>
       </c>
       <c r="L221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0.22481992794234232</v>
       </c>
       <c r="M221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0.60131855118564237</v>
       </c>
       <c r="N221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>3.7416573867739417E-2</v>
       </c>
       <c r="O221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4.358898943540674E-2</v>
       </c>
       <c r="P221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>3.8729833462074169E-2</v>
       </c>
       <c r="Q221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0.2731409892344977</v>
       </c>
       <c r="R221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4.358898943540674E-2</v>
       </c>
       <c r="S221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>3.8729833462074169E-2</v>
       </c>
     </row>
@@ -6752,27 +6753,27 @@
         <v>22.074924563804537</v>
       </c>
       <c r="D260">
-        <f t="shared" ref="D260:I260" si="13">(SQRT(D257-1))*D259</f>
+        <f t="shared" ref="D260:I260" si="7">(SQRT(D257-1))*D259</f>
         <v>7.534102157025746</v>
       </c>
       <c r="E260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.3950997288745199</v>
       </c>
       <c r="F260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>22.602306471077238</v>
       </c>
       <c r="G260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>19.412136788295612</v>
       </c>
       <c r="H260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>14.465476141489432</v>
       </c>
       <c r="I260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>13.311179511974137</v>
       </c>
     </row>
@@ -6955,51 +6956,51 @@
         <v>0</v>
       </c>
       <c r="B267">
-        <f t="shared" ref="B267:M267" si="14">AVERAGE(B265:B266)</f>
+        <f t="shared" ref="B267:M267" si="8">AVERAGE(B265:B266)</f>
         <v>23.265306122448976</v>
       </c>
       <c r="C267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2.2448979591836733</v>
       </c>
       <c r="D267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>10.408163265306122</v>
       </c>
       <c r="E267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>3.6400000000000019</v>
       </c>
       <c r="F267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2.1350000000000007</v>
       </c>
       <c r="G267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2.7300000000000013</v>
       </c>
       <c r="H267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.58499999999999885</v>
       </c>
       <c r="I267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.29999999999999938</v>
       </c>
       <c r="J267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.44999999999999907</v>
       </c>
       <c r="K267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>10.25</v>
       </c>
       <c r="L267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>15.499999999999998</v>
       </c>
       <c r="M267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>7.1249999999999982</v>
       </c>
     </row>
@@ -7090,51 +7091,51 @@
         <v>27</v>
       </c>
       <c r="B270">
-        <f t="shared" ref="B270:M270" si="15">AVERAGE(B268:B269)</f>
+        <f t="shared" ref="B270:M270" si="9">AVERAGE(B268:B269)</f>
         <v>3.8775510204081631</v>
       </c>
       <c r="C270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.40816326530612246</v>
       </c>
       <c r="D270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>5.3061224489795915</v>
       </c>
       <c r="E270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.70000000000000029</v>
       </c>
       <c r="F270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.59500000000000031</v>
       </c>
       <c r="G270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.56000000000000028</v>
       </c>
       <c r="H270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.13499999999999973</v>
       </c>
       <c r="I270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.19499999999999962</v>
       </c>
       <c r="J270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.13499999999999973</v>
       </c>
       <c r="K270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.875</v>
       </c>
       <c r="L270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1.4999999999999998</v>
       </c>
       <c r="M270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -7143,51 +7144,51 @@
         <v>25</v>
       </c>
       <c r="B271">
-        <f t="shared" ref="B271:M271" si="16">(SQRT(B264-1))*B270</f>
+        <f t="shared" ref="B271:M271" si="10">(SQRT(B264-1))*B270</f>
         <v>5.4836852418548583</v>
       </c>
       <c r="C271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.57723002545840618</v>
       </c>
       <c r="D271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>7.5039903309592795</v>
       </c>
       <c r="E271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.98994949366116702</v>
       </c>
       <c r="F271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.84145706961199207</v>
       </c>
       <c r="G271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.79195959492893364</v>
       </c>
       <c r="H271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.19091883092036746</v>
       </c>
       <c r="I271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.275771644662753</v>
       </c>
       <c r="J271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0.19091883092036746</v>
       </c>
       <c r="K271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1.2374368670764582</v>
       </c>
       <c r="L271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2.1213203435596424</v>
       </c>
       <c r="M271">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1.4142135623730949</v>
       </c>
     </row>
@@ -7410,51 +7411,51 @@
         <v>0</v>
       </c>
       <c r="B277">
-        <f t="shared" ref="B277:M277" si="17">AVERAGE(B275:B276)</f>
+        <f t="shared" ref="B277:M277" si="11">AVERAGE(B275:B276)</f>
         <v>12.625</v>
       </c>
       <c r="C277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7.625</v>
       </c>
       <c r="D277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>3.125</v>
       </c>
       <c r="E277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>9.25</v>
       </c>
       <c r="F277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>5.75</v>
       </c>
       <c r="G277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>10.75</v>
       </c>
       <c r="H277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0.99000000000000021</v>
       </c>
       <c r="I277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>1.2600000000000005</v>
       </c>
       <c r="J277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>1.7100000000000006</v>
       </c>
       <c r="K277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>10.199999999999999</v>
       </c>
       <c r="L277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>16.399999999999999</v>
       </c>
       <c r="M277">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>12.4</v>
       </c>
       <c r="Y277" s="12"/>
@@ -7572,51 +7573,51 @@
         <v>27</v>
       </c>
       <c r="B280">
-        <f t="shared" ref="B280:M281" si="18">AVERAGE(B278:B279)</f>
+        <f t="shared" ref="B280:M281" si="12">AVERAGE(B278:B279)</f>
         <v>3.3749999999999996</v>
       </c>
       <c r="C280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="D280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="E280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2.25</v>
       </c>
       <c r="F280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.1249999999999998</v>
       </c>
       <c r="G280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2.25</v>
       </c>
       <c r="H280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.33000000000000013</v>
       </c>
       <c r="I280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.36000000000000015</v>
       </c>
       <c r="J280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.42000000000000015</v>
       </c>
       <c r="K280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.6</v>
       </c>
       <c r="L280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="M280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.8</v>
       </c>
       <c r="Y280" s="12"/>
@@ -7634,51 +7635,51 @@
         <v>25</v>
       </c>
       <c r="B281">
-        <f t="shared" ref="B281:M281" si="19">(SQRT(B274-1))*B280</f>
+        <f t="shared" ref="B281:M281" si="13">(SQRT(B274-1))*B280</f>
         <v>4.7729707730091953</v>
       </c>
       <c r="C281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>4.2426406871192857</v>
       </c>
       <c r="D281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>3.5355339059327378</v>
       </c>
       <c r="E281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>3.1819805153394642</v>
       </c>
       <c r="F281">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.3124999999999998</v>
       </c>
       <c r="G281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>3.1819805153394642</v>
       </c>
       <c r="H281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0.4666904755831216</v>
       </c>
       <c r="I281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0.50911688245431452</v>
       </c>
       <c r="J281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>0.59396969619670015</v>
       </c>
       <c r="K281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>2.2627416997969525</v>
       </c>
       <c r="L281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>3.1112698372208096</v>
       </c>
       <c r="M281">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>2.5455844122715714</v>
       </c>
       <c r="Y281" s="12"/>
@@ -8195,27 +8196,27 @@
         <v>2.7506442902854813</v>
       </c>
       <c r="D301">
-        <f t="shared" ref="D301:I301" si="20">(SQRT(D298-1))*D300</f>
+        <f t="shared" ref="D301:I301" si="14">(SQRT(D298-1))*D300</f>
         <v>0.78589739564398609</v>
       </c>
       <c r="E301">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1.4408136749055085</v>
       </c>
       <c r="F301">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0.52393224481034817</v>
       </c>
       <c r="G301">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0.65491530657195229</v>
       </c>
       <c r="H301">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>2.8816273520470852</v>
       </c>
       <c r="I301">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>2.7506442902854813</v>
       </c>
       <c r="L301" s="2"/>
@@ -8453,27 +8454,27 @@
         <v>3.0126104138086891</v>
       </c>
       <c r="D307">
-        <f t="shared" ref="D307:I307" si="21">(SQRT(D304-1))*D306</f>
+        <f t="shared" ref="D307:I307" si="15">(SQRT(D304-1))*D306</f>
         <v>0.13098306176160404</v>
       </c>
       <c r="E307">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.78589836833355642</v>
       </c>
       <c r="F307">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.13098306176160404</v>
       </c>
       <c r="G307">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.3224410269525935</v>
       </c>
       <c r="H307">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.488678166762273</v>
       </c>
       <c r="I307">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.0126104138086891</v>
       </c>
       <c r="J307" s="2"/>
@@ -8729,47 +8730,47 @@
         <v>4.643274706497559</v>
       </c>
       <c r="C315">
-        <f t="shared" ref="C315:M315" si="22">(SQRT(C312-1))*C314</f>
+        <f t="shared" ref="C315:M315" si="16">(SQRT(C312-1))*C314</f>
         <v>3.9799497484264794</v>
       </c>
       <c r="D315">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>4.643274706497559</v>
       </c>
       <c r="E315">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>3.3166247903553998</v>
       </c>
       <c r="F315">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>3.9799497484264794</v>
       </c>
       <c r="G315">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>4.643274706497559</v>
       </c>
       <c r="H315">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1.3266499161421601</v>
       </c>
       <c r="I315">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1.9899748742132397</v>
       </c>
       <c r="J315">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1.3266499161421601</v>
       </c>
       <c r="K315">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.33166247903554003</v>
       </c>
       <c r="L315">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.66332495807108005</v>
       </c>
       <c r="M315">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0.66332495807108005</v>
       </c>
     </row>
@@ -8954,47 +8955,47 @@
         <v>2.6532998322843202</v>
       </c>
       <c r="C322">
-        <f t="shared" ref="C322:M322" si="23">(SQRT(C319-1))*C321</f>
+        <f t="shared" ref="C322:M322" si="17">(SQRT(C319-1))*C321</f>
         <v>1.9899748742132397</v>
       </c>
       <c r="D322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>1.3266499161421601</v>
       </c>
       <c r="E322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.33166247903554003</v>
       </c>
       <c r="F322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.33166247903554003</v>
       </c>
       <c r="G322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.33166247903554003</v>
       </c>
       <c r="H322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>2.3216373532487795</v>
       </c>
       <c r="I322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>1.3266499161421601</v>
       </c>
       <c r="J322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0.99498743710661985</v>
       </c>
       <c r="K322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>3.3166247903553998E-2</v>
       </c>
       <c r="L322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>3.3166247903553998E-2</v>
       </c>
       <c r="M322">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>3.3166247903553998E-2</v>
       </c>
     </row>
@@ -9067,7 +9068,7 @@
         <v>0.2449489742783178</v>
       </c>
       <c r="C329">
-        <f t="shared" ref="C329" si="24">(SQRT(C326-1))*C328</f>
+        <f t="shared" ref="C329" si="18">(SQRT(C326-1))*C328</f>
         <v>2.4494897427831779</v>
       </c>
     </row>
@@ -9132,7 +9133,7 @@
         <v>1.2247448713915889</v>
       </c>
       <c r="C336">
-        <f t="shared" ref="C336" si="25">(SQRT(C333-1))*C335</f>
+        <f t="shared" ref="C336" si="19">(SQRT(C333-1))*C335</f>
         <v>19.595917942265423</v>
       </c>
     </row>
@@ -9445,27 +9446,27 @@
         <v>25</v>
       </c>
       <c r="B358">
-        <f t="shared" ref="B358:G358" si="26">(SQRT(B355-1))*B357</f>
+        <f t="shared" ref="B358:G358" si="20">(SQRT(B355-1))*B357</f>
         <v>3.5355339059327378</v>
       </c>
       <c r="C358">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>2.8284271247461903</v>
       </c>
       <c r="D358">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="E358">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>1.4142135623730951</v>
       </c>
       <c r="F358">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="G358">
-        <f t="shared" si="26"/>
+        <f t="shared" si="20"/>
         <v>0.42426406871192851</v>
       </c>
     </row>
@@ -9649,11 +9650,11 @@
         <v>10.748023074035522</v>
       </c>
       <c r="D372">
-        <f t="shared" ref="D372:E372" si="27">(SQRT(D369-1))*D371</f>
+        <f t="shared" ref="D372:E372" si="21">(SQRT(D369-1))*D371</f>
         <v>12.303657992645928</v>
       </c>
       <c r="E372">
-        <f t="shared" si="27"/>
+        <f t="shared" si="21"/>
         <v>6.2225396744416193</v>
       </c>
       <c r="J372" s="2"/>
@@ -9748,15 +9749,15 @@
         <v>0</v>
       </c>
       <c r="B380" s="3">
-        <f t="shared" ref="B380:D380" si="28">AVERAGE(B377:B379)</f>
+        <f t="shared" ref="B380:D380" si="22">AVERAGE(B377:B379)</f>
         <v>3.72</v>
       </c>
       <c r="C380" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>4.376666666666666</v>
       </c>
       <c r="D380" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="22"/>
         <v>5.9866666666666672</v>
       </c>
     </row>
@@ -9807,15 +9808,15 @@
         <v>27</v>
       </c>
       <c r="B384" s="3">
-        <f t="shared" ref="B384:D384" si="29">AVERAGE(B381:B383)</f>
+        <f t="shared" ref="B384:D384" si="23">AVERAGE(B381:B383)</f>
         <v>0.89666666666666661</v>
       </c>
       <c r="C384" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1.3566666666666667</v>
       </c>
       <c r="D384" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="23"/>
         <v>1.1333333333333335</v>
       </c>
     </row>
@@ -9824,15 +9825,15 @@
         <v>25</v>
       </c>
       <c r="B385" s="6">
-        <f t="shared" ref="B385:D385" si="30">(SQRT(B376-1))*B384</f>
+        <f t="shared" ref="B385:D385" si="24">(SQRT(B376-1))*B384</f>
         <v>1.2680781609278753</v>
       </c>
       <c r="C385" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>1.9186163996194991</v>
       </c>
       <c r="D385" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="24"/>
         <v>1.602775370689508</v>
       </c>
     </row>
@@ -9913,15 +9914,15 @@
         <v>0</v>
       </c>
       <c r="B391" s="3">
-        <f t="shared" ref="B391:D391" si="31">AVERAGE(B388:B390)</f>
+        <f t="shared" ref="B391:D391" si="25">AVERAGE(B388:B390)</f>
         <v>0.25333333333333335</v>
       </c>
       <c r="C391" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0.37666666666666665</v>
       </c>
       <c r="D391" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="25"/>
         <v>0.46333333333333337</v>
       </c>
       <c r="E391" s="2"/>
@@ -9974,15 +9975,15 @@
         <v>27</v>
       </c>
       <c r="B395" s="3">
-        <f t="shared" ref="B395:D395" si="32">AVERAGE(B392:B394)</f>
+        <f t="shared" ref="B395:D395" si="26">AVERAGE(B392:B394)</f>
         <v>0.10333333333333333</v>
       </c>
       <c r="C395" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>0.22333333333333336</v>
       </c>
       <c r="D395" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="26"/>
         <v>0.18666666666666668</v>
       </c>
       <c r="I395" s="1"/>
@@ -9992,15 +9993,15 @@
         <v>25</v>
       </c>
       <c r="B396" s="6">
-        <f t="shared" ref="B396:D396" si="33">(SQRT(B387-1))*B395</f>
+        <f t="shared" ref="B396:D396" si="27">(SQRT(B387-1))*B395</f>
         <v>0.14613540144521983</v>
       </c>
       <c r="C396" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.31584102892999127</v>
       </c>
       <c r="D396" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>0.26398653164297775</v>
       </c>
     </row>
@@ -10044,7 +10045,7 @@
       <c r="A400" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400" s="22">
         <v>1.367</v>
       </c>
       <c r="C400" s="6">
@@ -10059,7 +10060,7 @@
       <c r="A401" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401" s="22">
         <v>0.36599999999999999</v>
       </c>
       <c r="C401" s="6">
@@ -10083,7 +10084,7 @@
         <v>2.0264577469071492</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402" si="34">(SQRT(D399-1))*D401</f>
+        <f t="shared" ref="D402" si="28">(SQRT(D399-1))*D401</f>
         <v>2.0762071187624804</v>
       </c>
     </row>
@@ -10119,7 +10120,7 @@
       <c r="A405" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B405" s="3">
+      <c r="B405" s="22">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="C405" s="6">
@@ -10133,7 +10134,7 @@
       <c r="A406" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B406" s="3">
+      <c r="B406" s="22">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="C406" s="6">
@@ -10156,7 +10157,7 @@
         <v>0.13929824119492681</v>
       </c>
       <c r="D407">
-        <f t="shared" ref="D407" si="35">(SQRT(D404-1))*D406</f>
+        <f t="shared" ref="D407" si="29">(SQRT(D404-1))*D406</f>
         <v>0.16914786430812537</v>
       </c>
     </row>
@@ -10231,7 +10232,7 @@
       <c r="D412" s="2">
         <v>11.6</v>
       </c>
-      <c r="E412" s="3">
+      <c r="E412" s="22">
         <v>3.3</v>
       </c>
       <c r="F412" s="6">
@@ -10254,7 +10255,7 @@
       <c r="D413" s="2">
         <v>0.2</v>
       </c>
-      <c r="E413" s="3">
+      <c r="E413" s="22">
         <v>0.2</v>
       </c>
       <c r="F413" s="6">
@@ -10277,7 +10278,7 @@
         <v>0.28284271247461906</v>
       </c>
       <c r="D414">
-        <f t="shared" ref="D414" si="36">(SQRT(D411-1))*D413</f>
+        <f t="shared" ref="D414" si="30">(SQRT(D411-1))*D413</f>
         <v>0.28284271247461906</v>
       </c>
       <c r="E414">
@@ -10289,7 +10290,7 @@
         <v>0.28284271247461906</v>
       </c>
       <c r="G414">
-        <f t="shared" ref="G414" si="37">(SQRT(G411-1))*G413</f>
+        <f t="shared" ref="G414" si="31">(SQRT(G411-1))*G413</f>
         <v>0.56568542494923812</v>
       </c>
       <c r="H414" s="6"/>
@@ -10334,7 +10335,7 @@
       <c r="A417" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B417" s="22">
         <v>17</v>
       </c>
       <c r="C417" s="6">
@@ -10349,7 +10350,7 @@
       <c r="A418" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B418" s="3">
+      <c r="B418" s="22">
         <v>1</v>
       </c>
       <c r="C418" s="6">
@@ -10372,7 +10373,7 @@
         <v>8.4852813742385713</v>
       </c>
       <c r="D419">
-        <f t="shared" ref="D419" si="38">(SQRT(D416-1))*D418</f>
+        <f t="shared" ref="D419" si="32">(SQRT(D416-1))*D418</f>
         <v>9.8994949366116654</v>
       </c>
     </row>
@@ -10432,7 +10433,7 @@
       <c r="A423" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B423" s="3">
+      <c r="B423" s="22">
         <v>3.5</v>
       </c>
       <c r="C423" s="6">
@@ -10441,7 +10442,7 @@
       <c r="D423" s="2">
         <v>5.7</v>
       </c>
-      <c r="E423" s="3">
+      <c r="E423" s="22">
         <v>1.6</v>
       </c>
       <c r="F423" s="6">
@@ -10455,7 +10456,7 @@
       <c r="A424" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B424" s="3">
+      <c r="B424" s="22">
         <v>0.2</v>
       </c>
       <c r="C424" s="6">
@@ -10464,7 +10465,7 @@
       <c r="D424" s="2">
         <v>0.3</v>
       </c>
-      <c r="E424" s="3">
+      <c r="E424" s="22">
         <v>0.2</v>
       </c>
       <c r="F424" s="6">
@@ -10487,7 +10488,7 @@
         <v>0.28284271247461906</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425" si="39">(SQRT(D422-1))*D424</f>
+        <f t="shared" ref="D425" si="33">(SQRT(D422-1))*D424</f>
         <v>0.42426406871192851</v>
       </c>
       <c r="E425">
@@ -10499,7 +10500,7 @@
         <v>0.28284271247461906</v>
       </c>
       <c r="G425">
-        <f t="shared" ref="G425" si="40">(SQRT(G422-1))*G424</f>
+        <f t="shared" ref="G425" si="34">(SQRT(G422-1))*G424</f>
         <v>0.42426406871192851</v>
       </c>
     </row>
@@ -10537,7 +10538,7 @@
       <c r="A428" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B428" s="3">
+      <c r="B428" s="22">
         <v>21</v>
       </c>
       <c r="C428" s="6">
@@ -10551,7 +10552,7 @@
       <c r="A429" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B429" s="3">
+      <c r="B429" s="22">
         <v>2</v>
       </c>
       <c r="C429" s="6">
@@ -10574,7 +10575,7 @@
         <v>2.8284271247461903</v>
       </c>
       <c r="D430">
-        <f t="shared" ref="D430" si="41">(SQRT(D427-1))*D429</f>
+        <f t="shared" ref="D430" si="35">(SQRT(D427-1))*D429</f>
         <v>2.8284271247461903</v>
       </c>
     </row>
@@ -10602,7 +10603,7 @@
       <c r="A433" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="19">
         <v>5</v>
       </c>
       <c r="C433">
@@ -10613,7 +10614,7 @@
       <c r="A434" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B434" s="3">
+      <c r="B434" s="22">
         <v>26.1</v>
       </c>
       <c r="C434" s="2">
@@ -10624,7 +10625,7 @@
       <c r="A435" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B435" s="3">
+      <c r="B435" s="22">
         <v>1.2</v>
       </c>
       <c r="C435" s="2">
@@ -10640,7 +10641,7 @@
         <v>2.4</v>
       </c>
       <c r="C436">
-        <f t="shared" ref="C436" si="42">(SQRT(C433-1))*C435</f>
+        <f t="shared" ref="C436" si="36">(SQRT(C433-1))*C435</f>
         <v>2</v>
       </c>
       <c r="E436" s="6"/>
@@ -10671,7 +10672,7 @@
       <c r="A439" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B439" s="3">
+      <c r="B439" s="22">
         <v>9</v>
       </c>
       <c r="C439" s="2">
@@ -10682,7 +10683,7 @@
       <c r="A440" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B440" s="3">
+      <c r="B440" s="22">
         <v>1</v>
       </c>
       <c r="C440" s="2">
@@ -10698,7 +10699,7 @@
         <v>2</v>
       </c>
       <c r="C441">
-        <f t="shared" ref="C441" si="43">(SQRT(C438-1))*C440</f>
+        <f t="shared" ref="C441" si="37">(SQRT(C438-1))*C440</f>
         <v>2</v>
       </c>
     </row>
@@ -10815,23 +10816,23 @@
         <v>0</v>
       </c>
       <c r="C447">
-        <f t="shared" ref="C447:E447" si="44">(SQRT(C444-1))*C446</f>
+        <f t="shared" ref="C447:E447" si="38">(SQRT(C444-1))*C446</f>
         <v>0</v>
       </c>
       <c r="D447">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="44"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F447">
-        <f t="shared" ref="F447:G447" si="45">(SQRT(F444-1))*F446</f>
+        <f t="shared" ref="F447:G447" si="39">(SQRT(F444-1))*F446</f>
         <v>0</v>
       </c>
       <c r="G447">
-        <f t="shared" si="45"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -10912,15 +10913,15 @@
         <v>0</v>
       </c>
       <c r="C452">
-        <f t="shared" ref="C452:E452" si="46">(SQRT(C449-1))*C451</f>
+        <f t="shared" ref="C452:E452" si="40">(SQRT(C449-1))*C451</f>
         <v>0</v>
       </c>
       <c r="D452">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="46"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -11005,11 +11006,11 @@
         <v>1.4142135623730951</v>
       </c>
       <c r="C458">
-        <f t="shared" ref="C458:D458" si="47">(SQRT(C455-1))*C457</f>
+        <f t="shared" ref="C458:D458" si="41">(SQRT(C455-1))*C457</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D458">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>7.0710678118654755</v>
       </c>
       <c r="E458" s="1"/>
@@ -11102,13 +11103,13 @@
       <c r="A463" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B463" s="3">
+      <c r="B463" s="22">
         <v>19.7</v>
       </c>
       <c r="C463" s="2">
         <v>15.6</v>
       </c>
-      <c r="D463" s="3">
+      <c r="D463" s="22">
         <v>0.1</v>
       </c>
       <c r="E463" s="2">
@@ -11127,13 +11128,13 @@
       <c r="A464" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B464" s="3">
+      <c r="B464" s="22">
         <v>2.6</v>
       </c>
       <c r="C464" s="2">
         <v>2.5</v>
       </c>
-      <c r="D464" s="3">
+      <c r="D464" s="22">
         <v>0.1</v>
       </c>
       <c r="E464" s="2">
@@ -11149,7 +11150,7 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="C465">
-        <f t="shared" ref="C465:E465" si="48">(SQRT(C462-1))*C464</f>
+        <f t="shared" ref="C465:E465" si="42">(SQRT(C462-1))*C464</f>
         <v>7.5</v>
       </c>
       <c r="D465">
@@ -11157,7 +11158,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="E465">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -11192,7 +11193,7 @@
       <c r="A469" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B469" s="3">
+      <c r="B469" s="22">
         <v>23.6</v>
       </c>
       <c r="C469" s="2">
@@ -11203,7 +11204,7 @@
       <c r="A470" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B470" s="3">
+      <c r="B470" s="22">
         <v>4.0999999999999996</v>
       </c>
       <c r="C470" s="2">
@@ -11219,7 +11220,7 @@
         <v>9.1678787077491375</v>
       </c>
       <c r="C471">
-        <f t="shared" ref="C471" si="49">(SQRT(C468-1))*C470</f>
+        <f t="shared" ref="C471" si="43">(SQRT(C468-1))*C470</f>
         <v>11.403946685248927</v>
       </c>
     </row>
@@ -11254,7 +11255,7 @@
       <c r="A475" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B475" s="3">
+      <c r="B475" s="22">
         <v>17.600000000000001</v>
       </c>
       <c r="C475" s="2">
@@ -11265,7 +11266,7 @@
       <c r="A476" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B476" s="3">
+      <c r="B476" s="22">
         <v>2.4</v>
       </c>
       <c r="C476" s="2">
@@ -11281,7 +11282,7 @@
         <v>4.1569219381653051</v>
       </c>
       <c r="C477">
-        <f t="shared" ref="C477" si="50">(SQRT(C474-1))*C476</f>
+        <f t="shared" ref="C477" si="44">(SQRT(C474-1))*C476</f>
         <v>11.085125168440815</v>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       <c r="A481" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B481" s="3">
+      <c r="B481" s="22">
         <v>44.1</v>
       </c>
       <c r="C481" s="2">
@@ -11327,7 +11328,7 @@
       <c r="A482" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B482" s="3">
+      <c r="B482" s="22">
         <v>11.6</v>
       </c>
       <c r="C482" s="2">
@@ -11343,7 +11344,7 @@
         <v>20.091789367798974</v>
       </c>
       <c r="C483">
-        <f t="shared" ref="C483" si="51">(SQRT(C480-1))*C482</f>
+        <f t="shared" ref="C483" si="45">(SQRT(C480-1))*C482</f>
         <v>12.124355652982141</v>
       </c>
     </row>
@@ -11378,7 +11379,7 @@
       <c r="A487" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B487" s="3">
+      <c r="B487" s="22">
         <v>1.5</v>
       </c>
       <c r="C487" s="2">
@@ -11389,7 +11390,7 @@
       <c r="A488" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B488" s="3">
+      <c r="B488" s="22">
         <v>0.3</v>
       </c>
       <c r="C488" s="2">
@@ -11405,7 +11406,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="C489">
-        <f t="shared" ref="C489" si="52">(SQRT(C486-1))*C488</f>
+        <f t="shared" ref="C489" si="46">(SQRT(C486-1))*C488</f>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -11440,7 +11441,7 @@
       <c r="A493" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B493" s="3">
+      <c r="B493" s="22">
         <v>1</v>
       </c>
       <c r="C493" s="2">
@@ -11451,7 +11452,7 @@
       <c r="A494" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B494" s="3">
+      <c r="B494" s="22">
         <v>0.4</v>
       </c>
       <c r="C494" s="2">
@@ -11467,7 +11468,7 @@
         <v>0.89442719099991597</v>
       </c>
       <c r="C495">
-        <f t="shared" ref="C495" si="53">(SQRT(C492-1))*C494</f>
+        <f t="shared" ref="C495" si="47">(SQRT(C492-1))*C494</f>
         <v>1.7888543819998319</v>
       </c>
     </row>
@@ -11502,7 +11503,7 @@
       <c r="A499" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B499" s="3">
+      <c r="B499" s="22">
         <v>0.2</v>
       </c>
       <c r="C499" s="2">
@@ -11513,7 +11514,7 @@
       <c r="A500" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B500" s="3">
+      <c r="B500" s="22">
         <v>0.2</v>
       </c>
       <c r="C500" s="2">
@@ -11529,7 +11530,7 @@
         <v>0.34641016151377546</v>
       </c>
       <c r="C501">
-        <f t="shared" ref="C501" si="54">(SQRT(C498-1))*C500</f>
+        <f t="shared" ref="C501" si="48">(SQRT(C498-1))*C500</f>
         <v>0.51961524227066314</v>
       </c>
     </row>
@@ -11655,52 +11656,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId6" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>95</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>98</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1025" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
+++ b/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="16335" yWindow="345" windowWidth="12330" windowHeight="10425"/>
+    <workbookView xWindow="4065" yWindow="-60" windowWidth="22050" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="117">
   <si>
     <t>mean</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Is this T.Burn or T.Thin?</t>
   </si>
   <si>
-    <t>Shive</t>
-  </si>
-  <si>
     <t>Dodson+Fiedler-2006</t>
   </si>
   <si>
@@ -368,12 +365,15 @@
   <si>
     <t>Kerns+Thies+etal-2006</t>
   </si>
+  <si>
+    <t>Shive+Sieg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +401,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -466,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -490,6 +499,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,9 +512,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -522,15 +532,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>69396</xdr:colOff>
-          <xdr:row>97</xdr:row>
-          <xdr:rowOff>81643</xdr:rowOff>
+          <xdr:colOff>54429</xdr:colOff>
+          <xdr:row>99</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>221796</xdr:colOff>
-          <xdr:row>98</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>273504</xdr:colOff>
+          <xdr:row>100</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -563,15 +573,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>69396</xdr:colOff>
-          <xdr:row>97</xdr:row>
-          <xdr:rowOff>81643</xdr:rowOff>
+          <xdr:colOff>54429</xdr:colOff>
+          <xdr:row>99</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>221796</xdr:colOff>
-          <xdr:row>98</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:colOff>273504</xdr:colOff>
+          <xdr:row>100</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -892,11 +902,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AR539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D396" sqref="D396"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A262" sqref="A262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
@@ -904,12 +914,12 @@
     <col min="14" max="14" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -968,7 +978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15">
+    <row r="3" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -1029,7 +1039,7 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1159,7 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1210,86 +1220,86 @@
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
     </row>
-    <row r="7" spans="1:44" ht="15">
+    <row r="7" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3">
-        <f>AVERAGE(B4:B6)</f>
+        <f t="shared" ref="B7:S7" si="0">AVERAGE(B4:B6)</f>
         <v>52.6</v>
       </c>
       <c r="C7" s="3">
-        <f>AVERAGE(C4:C6)</f>
+        <f t="shared" si="0"/>
         <v>59.933333333333337</v>
       </c>
       <c r="D7" s="3">
-        <f>AVERAGE(D4:D6)</f>
+        <f t="shared" si="0"/>
         <v>50.966666666666661</v>
       </c>
       <c r="E7" s="3">
-        <f>AVERAGE(E4:E6)</f>
+        <f t="shared" si="0"/>
         <v>48.79999999999999</v>
       </c>
       <c r="F7" s="3">
-        <f>AVERAGE(F4:F6)</f>
+        <f t="shared" si="0"/>
         <v>53.9</v>
       </c>
       <c r="G7" s="3">
-        <f>AVERAGE(G4:G6)</f>
+        <f t="shared" si="0"/>
         <v>46.533333333333339</v>
       </c>
       <c r="H7" s="3">
-        <f>AVERAGE(H4:H6)</f>
+        <f t="shared" si="0"/>
         <v>3.7000000000000006</v>
       </c>
       <c r="I7" s="3">
-        <f>AVERAGE(I4:I6)</f>
+        <f t="shared" si="0"/>
         <v>5.9666666666666659</v>
       </c>
       <c r="J7" s="3">
-        <f>AVERAGE(J4:J6)</f>
+        <f t="shared" si="0"/>
         <v>4.3666666666666663</v>
       </c>
       <c r="K7" s="3">
-        <f>AVERAGE(K4:K6)</f>
+        <f t="shared" si="0"/>
         <v>11.166666666666666</v>
       </c>
       <c r="L7" s="3">
-        <f>AVERAGE(L4:L6)</f>
+        <f t="shared" si="0"/>
         <v>12.533333333333333</v>
       </c>
       <c r="M7" s="3">
-        <f>AVERAGE(M4:M6)</f>
+        <f t="shared" si="0"/>
         <v>9.7000000000000011</v>
       </c>
       <c r="N7" s="3">
-        <f>AVERAGE(N4:N6)</f>
+        <f t="shared" si="0"/>
         <v>30.666666666666668</v>
       </c>
       <c r="O7" s="3">
-        <f>AVERAGE(O4:O6)</f>
+        <f t="shared" si="0"/>
         <v>35.266666666666673</v>
       </c>
       <c r="P7" s="3">
-        <f>AVERAGE(P4:P6)</f>
+        <f t="shared" si="0"/>
         <v>31.8</v>
       </c>
       <c r="Q7" s="3">
-        <f>AVERAGE(Q4:Q6)</f>
+        <f t="shared" si="0"/>
         <v>8.6333333333333346</v>
       </c>
       <c r="R7" s="3">
-        <f>AVERAGE(R4:R6)</f>
+        <f t="shared" si="0"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="S7" s="3">
-        <f>AVERAGE(S4:S6)</f>
+        <f t="shared" si="0"/>
         <v>7.3666666666666671</v>
       </c>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1350,7 +1360,7 @@
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1411,7 +1421,7 @@
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1472,165 +1482,165 @@
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
     </row>
-    <row r="11" spans="1:44" ht="15">
+    <row r="11" spans="1:44" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="3">
-        <f>AVERAGE(B8:B10)</f>
+        <f t="shared" ref="B11:S11" si="1">AVERAGE(B8:B10)</f>
         <v>2.0666666666666669</v>
       </c>
       <c r="C11" s="3">
-        <f>AVERAGE(C8:C10)</f>
+        <f t="shared" si="1"/>
         <v>4.0666666666666664</v>
       </c>
       <c r="D11" s="3">
-        <f>AVERAGE(D8:D10)</f>
+        <f t="shared" si="1"/>
         <v>5.3666666666666671</v>
       </c>
       <c r="E11" s="3">
-        <f>AVERAGE(E8:E10)</f>
+        <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="F11" s="3">
-        <f>AVERAGE(F8:F10)</f>
+        <f t="shared" si="1"/>
         <v>2.9333333333333336</v>
       </c>
       <c r="G11" s="3">
-        <f>AVERAGE(G8:G10)</f>
+        <f t="shared" si="1"/>
         <v>4.1000000000000005</v>
       </c>
       <c r="H11" s="3">
-        <f>AVERAGE(H8:H10)</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="I11" s="3">
-        <f>AVERAGE(I8:I10)</f>
+        <f t="shared" si="1"/>
         <v>1.1333333333333333</v>
       </c>
       <c r="J11" s="3">
-        <f>AVERAGE(J8:J10)</f>
+        <f t="shared" si="1"/>
         <v>1.3666666666666665</v>
       </c>
       <c r="K11" s="3">
-        <f>AVERAGE(K8:K10)</f>
+        <f t="shared" si="1"/>
         <v>1.4666666666666668</v>
       </c>
       <c r="L11" s="3">
-        <f>AVERAGE(L8:L10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M11" s="3">
-        <f>AVERAGE(M8:M10)</f>
+        <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
       <c r="N11" s="3">
-        <f>AVERAGE(N8:N10)</f>
+        <f t="shared" si="1"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="O11" s="3">
-        <f>AVERAGE(O8:O10)</f>
+        <f t="shared" si="1"/>
         <v>2.0666666666666664</v>
       </c>
       <c r="P11" s="3">
-        <f>AVERAGE(P8:P10)</f>
+        <f t="shared" si="1"/>
         <v>3.1999999999999997</v>
       </c>
       <c r="Q11" s="3">
-        <f>AVERAGE(Q8:Q10)</f>
+        <f t="shared" si="1"/>
         <v>0.93333333333333324</v>
       </c>
       <c r="R11" s="3">
-        <f>AVERAGE(R8:R10)</f>
+        <f t="shared" si="1"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="S11" s="3">
-        <f>AVERAGE(S8:S10)</f>
+        <f t="shared" si="1"/>
         <v>0.76666666666666661</v>
       </c>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="6">
-        <f>(SQRT(B3-1))*B11</f>
+        <f t="shared" ref="B12:S12" si="2">(SQRT(B3-1))*B11</f>
         <v>2.9227080289043967</v>
       </c>
       <c r="C12" s="6">
-        <f>(SQRT(C3-1))*C11</f>
+        <f t="shared" si="2"/>
         <v>5.751135153650587</v>
       </c>
       <c r="D12" s="6">
-        <f>(SQRT(D3-1))*D11</f>
+        <f t="shared" si="2"/>
         <v>7.5896127847356114</v>
       </c>
       <c r="E12" s="6">
-        <f>(SQRT(E3-1))*E11</f>
+        <f t="shared" si="2"/>
         <v>1.649915822768611</v>
       </c>
       <c r="F12" s="6">
-        <f>(SQRT(F3-1))*F11</f>
+        <f t="shared" si="2"/>
         <v>4.1483597829610792</v>
       </c>
       <c r="G12" s="6">
-        <f>(SQRT(G3-1))*G11</f>
+        <f t="shared" si="2"/>
         <v>5.7982756057296907</v>
       </c>
       <c r="H12" s="6">
-        <f>(SQRT(H3-1))*H11</f>
+        <f t="shared" si="2"/>
         <v>1.2727922061357857</v>
       </c>
       <c r="I12" s="6">
-        <f>(SQRT(I3-1))*I11</f>
+        <f t="shared" si="2"/>
         <v>1.6027753706895078</v>
       </c>
       <c r="J12" s="6">
-        <f>(SQRT(J3-1))*J11</f>
+        <f t="shared" si="2"/>
         <v>1.9327585352432297</v>
       </c>
       <c r="K12" s="6">
-        <f>(SQRT(K3-1))*K11</f>
+        <f t="shared" si="2"/>
         <v>2.0741798914805396</v>
       </c>
       <c r="L12" s="6">
-        <f>(SQRT(L3-1))*L11</f>
+        <f t="shared" si="2"/>
         <v>1.4142135623730951</v>
       </c>
       <c r="M12" s="6">
-        <f>(SQRT(M3-1))*M11</f>
+        <f t="shared" si="2"/>
         <v>2.4041630560342617</v>
       </c>
       <c r="N12" s="6">
-        <f>(SQRT(N3-1))*N11</f>
+        <f t="shared" si="2"/>
         <v>1.3199326582148887</v>
       </c>
       <c r="O12" s="6">
-        <f>(SQRT(O3-1))*O11</f>
+        <f t="shared" si="2"/>
         <v>2.9227080289043963</v>
       </c>
       <c r="P12" s="6">
-        <f>(SQRT(P3-1))*P11</f>
+        <f t="shared" si="2"/>
         <v>4.5254833995939041</v>
       </c>
       <c r="Q12" s="6">
-        <f>(SQRT(Q3-1))*Q11</f>
+        <f t="shared" si="2"/>
         <v>1.3199326582148887</v>
       </c>
       <c r="R12" s="6">
-        <f>(SQRT(R3-1))*R11</f>
+        <f t="shared" si="2"/>
         <v>1.649915822768611</v>
       </c>
       <c r="S12" s="6">
-        <f>(SQRT(S3-1))*S11</f>
+        <f t="shared" si="2"/>
         <v>1.0842303978193728</v>
       </c>
       <c r="AQ12" s="6"/>
       <c r="AR12" s="6"/>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1677,7 +1687,7 @@
       </c>
       <c r="AR13" s="6"/>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -1724,7 +1734,7 @@
       </c>
       <c r="AR14" s="6"/>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -1767,7 +1777,7 @@
       </c>
       <c r="AR15" s="6"/>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1826,7 +1836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15">
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1885,7 +1895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1944,7 +1954,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2003,7 +2013,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2062,84 +2072,84 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15">
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="3">
-        <f>AVERAGE(B18:B20)</f>
+        <f t="shared" ref="B21:S21" si="3">AVERAGE(B18:B20)</f>
         <v>25.166666666666668</v>
       </c>
       <c r="C21" s="3">
-        <f>AVERAGE(C18:C20)</f>
+        <f t="shared" si="3"/>
         <v>27.400000000000002</v>
       </c>
       <c r="D21" s="3">
-        <f>AVERAGE(D18:D20)</f>
+        <f t="shared" si="3"/>
         <v>19.7</v>
       </c>
       <c r="E21" s="3">
-        <f>AVERAGE(E18:E20)</f>
+        <f t="shared" si="3"/>
         <v>24.899999999999995</v>
       </c>
       <c r="F21" s="3">
-        <f>AVERAGE(F18:F20)</f>
+        <f t="shared" si="3"/>
         <v>26.966666666666669</v>
       </c>
       <c r="G21" s="3">
-        <f>AVERAGE(G18:G20)</f>
+        <f t="shared" si="3"/>
         <v>19.333333333333332</v>
       </c>
       <c r="H21" s="3">
-        <f>AVERAGE(H18:H20)</f>
+        <f t="shared" si="3"/>
         <v>0.23333333333333331</v>
       </c>
       <c r="I21" s="3">
-        <f>AVERAGE(I18:I20)</f>
+        <f t="shared" si="3"/>
         <v>0.46666666666666662</v>
       </c>
       <c r="J21" s="3">
-        <f>AVERAGE(J18:J20)</f>
+        <f t="shared" si="3"/>
         <v>0.3666666666666667</v>
       </c>
       <c r="K21" s="3">
-        <f>AVERAGE(K18:K20)</f>
+        <f t="shared" si="3"/>
         <v>2.7666666666666671</v>
       </c>
       <c r="L21" s="3">
-        <f>AVERAGE(L18:L20)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="M21" s="3">
-        <f>AVERAGE(M18:M20)</f>
+        <f t="shared" si="3"/>
         <v>2.1333333333333333</v>
       </c>
       <c r="N21" s="3">
-        <f>AVERAGE(N18:N20)</f>
+        <f t="shared" si="3"/>
         <v>10.6</v>
       </c>
       <c r="O21" s="3">
-        <f>AVERAGE(O18:O20)</f>
+        <f t="shared" si="3"/>
         <v>11.300000000000002</v>
       </c>
       <c r="P21" s="3">
-        <f>AVERAGE(P18:P20)</f>
+        <f t="shared" si="3"/>
         <v>8.6</v>
       </c>
       <c r="Q21" s="3">
-        <f>AVERAGE(Q18:Q20)</f>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
       <c r="R21" s="3">
-        <f>AVERAGE(R18:R20)</f>
+        <f t="shared" si="3"/>
         <v>12.033333333333333</v>
       </c>
       <c r="S21" s="3">
-        <f>AVERAGE(S18:S20)</f>
+        <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -2198,7 +2208,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -2257,7 +2267,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -2316,161 +2326,161 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15">
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <f>AVERAGE(B22:B24)</f>
+        <f t="shared" ref="B25:S25" si="4">AVERAGE(B22:B24)</f>
         <v>2.5333333333333337</v>
       </c>
       <c r="C25" s="3">
-        <f>AVERAGE(C22:C24)</f>
+        <f t="shared" si="4"/>
         <v>1.1333333333333331</v>
       </c>
       <c r="D25" s="3">
-        <f>AVERAGE(D22:D24)</f>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="E25" s="3">
-        <f>AVERAGE(E22:E24)</f>
+        <f t="shared" si="4"/>
         <v>2.5333333333333337</v>
       </c>
       <c r="F25" s="3">
-        <f>AVERAGE(F22:F24)</f>
+        <f t="shared" si="4"/>
         <v>1.1333333333333335</v>
       </c>
       <c r="G25" s="3">
-        <f>AVERAGE(G22:G24)</f>
+        <f t="shared" si="4"/>
         <v>1.3666666666666665</v>
       </c>
       <c r="H25" s="3">
-        <f>AVERAGE(H22:H24)</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="I25" s="3">
-        <f>AVERAGE(I22:I24)</f>
+        <f t="shared" si="4"/>
         <v>0.23333333333333331</v>
       </c>
       <c r="J25" s="3">
-        <f>AVERAGE(J22:J24)</f>
+        <f t="shared" si="4"/>
         <v>0.23333333333333331</v>
       </c>
       <c r="K25" s="3">
-        <f>AVERAGE(K22:K24)</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="L25" s="3">
-        <f>AVERAGE(L22:L24)</f>
+        <f t="shared" si="4"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="M25" s="3">
-        <f>AVERAGE(M22:M24)</f>
+        <f t="shared" si="4"/>
         <v>0.10000000000000002</v>
       </c>
       <c r="N25" s="3">
-        <f>AVERAGE(N22:N24)</f>
+        <f t="shared" si="4"/>
         <v>1.8666666666666665</v>
       </c>
       <c r="O25" s="3">
-        <f>AVERAGE(O22:O24)</f>
+        <f t="shared" si="4"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="P25" s="3">
-        <f>AVERAGE(P22:P24)</f>
+        <f t="shared" si="4"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="Q25" s="3">
-        <f>AVERAGE(Q22:Q24)</f>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="R25" s="3">
-        <f>AVERAGE(R22:R24)</f>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="S25" s="3">
-        <f>AVERAGE(S22:S24)</f>
+        <f t="shared" si="4"/>
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <f>(SQRT(B17-1))*B25</f>
+        <f t="shared" ref="B26:S26" si="5">(SQRT(B17-1))*B25</f>
         <v>3.5826743580118414</v>
       </c>
       <c r="C26" s="6">
-        <f>(SQRT(C17-1))*C25</f>
+        <f t="shared" si="5"/>
         <v>1.6027753706895074</v>
       </c>
       <c r="D26" s="6">
-        <f>(SQRT(D17-1))*D25</f>
+        <f t="shared" si="5"/>
         <v>2.1213203435596428</v>
       </c>
       <c r="E26" s="6">
-        <f>(SQRT(E17-1))*E25</f>
+        <f t="shared" si="5"/>
         <v>3.5826743580118414</v>
       </c>
       <c r="F26" s="6">
-        <f>(SQRT(F17-1))*F25</f>
+        <f t="shared" si="5"/>
         <v>1.602775370689508</v>
       </c>
       <c r="G26" s="6">
-        <f>(SQRT(G17-1))*G25</f>
+        <f t="shared" si="5"/>
         <v>1.9327585352432297</v>
       </c>
       <c r="H26" s="6">
-        <f>(SQRT(H17-1))*H25</f>
+        <f t="shared" si="5"/>
         <v>0.14142135623730953</v>
       </c>
       <c r="I26" s="6">
-        <f>(SQRT(I17-1))*I25</f>
+        <f t="shared" si="5"/>
         <v>0.32998316455372217</v>
       </c>
       <c r="J26" s="6">
-        <f>(SQRT(J17-1))*J25</f>
+        <f t="shared" si="5"/>
         <v>0.32998316455372217</v>
       </c>
       <c r="K26" s="6">
-        <f>(SQRT(K17-1))*K25</f>
+        <f t="shared" si="5"/>
         <v>0.42426406871192851</v>
       </c>
       <c r="L26" s="6">
-        <f>(SQRT(L17-1))*L25</f>
+        <f t="shared" si="5"/>
         <v>0.37712361663282534</v>
       </c>
       <c r="M26" s="6">
-        <f>(SQRT(M17-1))*M25</f>
+        <f t="shared" si="5"/>
         <v>0.14142135623730953</v>
       </c>
       <c r="N26" s="6">
-        <f>(SQRT(N17-1))*N25</f>
+        <f t="shared" si="5"/>
         <v>2.6398653164297774</v>
       </c>
       <c r="O26" s="6">
-        <f>(SQRT(O17-1))*O25</f>
+        <f t="shared" si="5"/>
         <v>0.56568542494923801</v>
       </c>
       <c r="P26" s="6">
-        <f>(SQRT(P17-1))*P25</f>
+        <f t="shared" si="5"/>
         <v>1.4613540144521984</v>
       </c>
       <c r="Q26" s="6">
-        <f>(SQRT(Q17-1))*Q25</f>
+        <f t="shared" si="5"/>
         <v>1.5556349186104048</v>
       </c>
       <c r="R26" s="6">
-        <f>(SQRT(R17-1))*R25</f>
+        <f t="shared" si="5"/>
         <v>1.2727922061357857</v>
       </c>
       <c r="S26" s="6">
-        <f>(SQRT(S17-1))*S25</f>
+        <f t="shared" si="5"/>
         <v>0.89566858950296024</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2517,7 +2527,7 @@
         <v>-1.7726</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -2564,7 +2574,7 @@
         <v>-3.6613000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -2605,12 +2615,12 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -2633,7 +2643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15">
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
@@ -2656,7 +2666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -2679,7 +2689,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>27</v>
       </c>
@@ -2702,36 +2712,36 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35:G35" si="0">(SQRT(B32-1))*B34</f>
+        <f t="shared" ref="B35:G35" si="6">(SQRT(B32-1))*B34</f>
         <v>0.62225396744416184</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.2586500705120547</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.2586500705120547</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0.94328044610285455</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.2586500705120547</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1.8809040379562167</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>31</v>
       </c>
@@ -2748,7 +2758,7 @@
         <v>2.4195000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -2765,7 +2775,7 @@
         <v>0.31359999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
@@ -2782,12 +2792,12 @@
         <v>4.5255000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>26</v>
       </c>
@@ -2887,7 +2897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -2937,7 +2947,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>27</v>
       </c>
@@ -2987,7 +2997,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>25</v>
       </c>
@@ -2996,63 +3006,63 @@
         <v>3.1112698372208096</v>
       </c>
       <c r="C44">
-        <f t="shared" ref="C44:P44" si="1">(SQRT(C41-1))*C43</f>
+        <f t="shared" ref="C44:P44" si="7">(SQRT(C41-1))*C43</f>
         <v>4.3840620433565949</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.98994949366116658</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.98994949366116658</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.9798989873223332</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.98994949366116658</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.28284271247461906</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.8384776310850237</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.18384776310850237</v>
       </c>
       <c r="K44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.9597979746446663</v>
       </c>
       <c r="L44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.0811183182043091</v>
       </c>
       <c r="M44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.8384776310850237</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.656854249492381E-2</v>
       </c>
       <c r="O44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.22627416997969524</v>
       </c>
       <c r="P44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.18384776310850237</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>31</v>
       </c>
@@ -3084,7 +3094,7 @@
         <v>0.50090000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>39</v>
       </c>
@@ -3116,7 +3126,7 @@
         <v>-0.1285</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>40</v>
       </c>
@@ -3148,7 +3158,7 @@
         <v>1.1304000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>32</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15">
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>26</v>
       </c>
@@ -3194,7 +3204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15">
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +3227,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15">
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>27</v>
       </c>
@@ -3240,36 +3250,36 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52:G52" si="2">(SQRT(B49-1))*B51</f>
+        <f t="shared" ref="B52:G52" si="8">(SQRT(B49-1))*B51</f>
         <v>0.56568542494923812</v>
       </c>
       <c r="C52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.84852813742385702</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.56568542494923812</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.2426406871192854E-2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>9.8994949366116664E-2</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>7.0710678118654766E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>31</v>
       </c>
@@ -3286,7 +3296,7 @@
         <v>0.33379999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>39</v>
       </c>
@@ -3303,7 +3313,7 @@
         <v>-0.29020000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -3320,12 +3330,12 @@
         <v>0.95789999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3339,7 +3349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15">
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -3353,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15">
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3377,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15">
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>27</v>
       </c>
@@ -3381,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>25</v>
       </c>
@@ -3398,7 +3408,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>31</v>
       </c>
@@ -3409,7 +3419,7 @@
         <v>-0.1026</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>39</v>
       </c>
@@ -3420,7 +3430,7 @@
         <v>-0.7228</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>40</v>
       </c>
@@ -3431,12 +3441,12 @@
         <v>0.51759999999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>32</v>
       </c>
@@ -3450,7 +3460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>26</v>
       </c>
@@ -3464,7 +3474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>0</v>
       </c>
@@ -3478,7 +3488,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>27</v>
       </c>
@@ -3492,7 +3502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>25</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>4.2426406871192857</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>31</v>
       </c>
@@ -3520,7 +3530,7 @@
         <v>0.62350000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>39</v>
       </c>
@@ -3531,7 +3541,7 @@
         <v>-4.5499999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>40</v>
       </c>
@@ -3542,15 +3552,15 @@
         <v>1.2925</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>32</v>
       </c>
@@ -3573,7 +3583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>26</v>
       </c>
@@ -3596,7 +3606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>0</v>
       </c>
@@ -3620,7 +3630,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>27</v>
       </c>
@@ -3643,37 +3653,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:G80" si="3">(SQRT(B77-1))*B79</f>
+        <f t="shared" ref="B80:G80" si="9">(SQRT(B77-1))*B79</f>
         <v>5.1429563482495162</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.5425625842204074</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3.1304951684997055</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>5.8889727457341827</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.8386991009990759</v>
       </c>
       <c r="G80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10.392304845413264</v>
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>31</v>
       </c>
@@ -3687,7 +3697,7 @@
         <v>-0.15989999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>39</v>
       </c>
@@ -3701,7 +3711,7 @@
         <v>-1.6592</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>40</v>
       </c>
@@ -3715,12 +3725,12 @@
         <v>1.3393999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>32</v>
       </c>
@@ -3734,7 +3744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15">
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>26</v>
       </c>
@@ -3748,7 +3758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>19</v>
       </c>
@@ -3762,7 +3772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>20</v>
       </c>
@@ -3776,7 +3786,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
@@ -3793,7 +3803,7 @@
         <v>35.15</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>49</v>
       </c>
@@ -3807,7 +3817,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>50</v>
       </c>
@@ -3821,7 +3831,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15">
+    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>27</v>
       </c>
@@ -3838,7 +3848,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>25</v>
       </c>
@@ -3855,7 +3865,7 @@
         <v>1.9091883092036785</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>31</v>
       </c>
@@ -3866,7 +3876,7 @@
         <v>0.69769999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>39</v>
       </c>
@@ -3877,7 +3887,7 @@
         <v>5.9299999999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>40</v>
       </c>
@@ -3888,12 +3898,12 @@
         <v>1.3360000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>30</v>
       </c>
@@ -3907,7 +3917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15">
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>26</v>
       </c>
@@ -3921,7 +3931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15">
+    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>0</v>
       </c>
@@ -3935,7 +3945,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15">
+    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>27</v>
       </c>
@@ -3949,7 +3959,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>25</v>
       </c>
@@ -3966,7 +3976,7 @@
         <v>19.179155351578967</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>31</v>
       </c>
@@ -3977,7 +3987,7 @@
         <v>9.8100000000000007E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>39</v>
       </c>
@@ -3988,7 +3998,7 @@
         <v>-0.70250000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>40</v>
       </c>
@@ -3999,105 +4009,134 @@
         <v>0.89880000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15">
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="23">
         <v>5</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="23">
         <v>5</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="6"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" ht="15">
+      <c r="F108" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="6">
+        <v>5</v>
+      </c>
+      <c r="H108" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="11">
         <v>3.6590909090909123</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="11">
         <v>2.3863636363636385</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" ht="15">
+      <c r="F109" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="H109" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="11">
         <v>3.1818181818181848</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="11">
         <v>3.0227272727272751</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" ht="15">
+      <c r="F110" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G110" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="11">
         <v>4.9318181818181861</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="11">
         <v>4.7727272727272769</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" ht="15">
+      <c r="F111" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111">
+        <f>(SQRT(G108-1))*G110</f>
+        <v>2.6</v>
+      </c>
+      <c r="H111">
+        <f>(SQRT(H108-1))*H110</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="11">
         <v>4.1363636363636402</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="11">
         <v>4.9318181818181861</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-    </row>
-    <row r="113" spans="1:7" ht="15">
+    </row>
+    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="11">
         <v>6.0454545454545503</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="11">
         <v>8.9090909090909172</v>
       </c>
       <c r="D113" s="6"/>
@@ -4105,216 +4144,216 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" ht="15">
+    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="11">
         <v>2.2272727272727293</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="11">
         <v>3.9772727272727311</v>
       </c>
       <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="11">
         <v>2.2272727272727293</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="11">
         <v>4.9318181818181861</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="11">
         <v>2.7045454545454568</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="11">
         <v>5.2500000000000044</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:7" ht="15">
+    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="23">
         <v>3.639204545454549</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="23">
         <v>4.7727272727272778</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="11">
         <v>1.9090909090909107</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="11">
         <v>1.272727272727274</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="11">
         <v>1.9090909090909107</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="11">
         <v>1.1136363636363646</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="11">
         <v>2.2272727272727293</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="11">
         <v>1.272727272727274</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="11">
         <v>2.5454545454545481</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="11">
         <v>1.272727272727274</v>
       </c>
       <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-    </row>
-    <row r="122" spans="1:7">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="11">
         <v>2.5454545454545481</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="11">
         <v>1.9090909090909107</v>
       </c>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="11">
         <v>1.5909090909090924</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="11">
         <v>1.1136363636363646</v>
       </c>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="11">
         <v>1.9090909090909107</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="11">
         <v>1.272727272727274</v>
       </c>
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="11">
         <v>1.7500000000000018</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="11">
         <v>1.272727272727274</v>
       </c>
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="1:7" ht="15">
+    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="23">
         <f>AVERAGE(B118:B125)</f>
         <v>2.0482954545454564</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="23">
         <f>AVERAGE(C118:C125)</f>
         <v>1.3125000000000011</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="11">
         <f>(SQRT(B108-1))*B126</f>
         <v>4.0965909090909127</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="11">
         <f>(SQRT(C108-1))*C126</f>
         <v>2.6250000000000022</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C128">
+      <c r="B128" s="11"/>
+      <c r="C128" s="11">
         <v>0.32840000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C129">
+      <c r="B129" s="11"/>
+      <c r="C129" s="11">
         <v>-0.91949999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C130">
+      <c r="B130" s="11"/>
+      <c r="C130" s="11">
         <v>1.5764</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -4325,7 +4364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>26</v>
       </c>
@@ -4336,7 +4375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>0</v>
       </c>
@@ -4347,7 +4386,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>27</v>
       </c>
@@ -4358,7 +4397,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>25</v>
       </c>
@@ -4371,7 +4410,7 @@
         <v>3.5355339059327378</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>31</v>
       </c>
@@ -4379,7 +4418,7 @@
         <v>1.0607</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>39</v>
       </c>
@@ -4387,7 +4426,7 @@
         <v>-0.64849999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>40</v>
       </c>
@@ -4396,7 +4435,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>66</v>
       </c>
@@ -4407,7 +4446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>26</v>
       </c>
@@ -4419,7 +4458,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>19</v>
       </c>
@@ -4431,7 +4470,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>20</v>
       </c>
@@ -4443,7 +4482,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>21</v>
       </c>
@@ -4454,7 +4493,7 @@
         <v>24.375</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="15">
+    <row r="145" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -4467,7 +4506,7 @@
         <v>23.125</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>49</v>
       </c>
@@ -4478,7 +4517,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>50</v>
       </c>
@@ -4489,7 +4528,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>67</v>
       </c>
@@ -4500,7 +4539,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="15">
+    <row r="149" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>27</v>
       </c>
@@ -4513,7 +4552,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>25</v>
       </c>
@@ -4526,7 +4565,7 @@
         <v>3.5355339059327378</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="15">
+    <row r="151" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>31</v>
       </c>
@@ -4536,7 +4575,7 @@
       </c>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>39</v>
       </c>
@@ -4544,7 +4583,7 @@
         <v>-1.7195</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>40</v>
       </c>
@@ -4552,7 +4591,7 @@
         <v>1.4838</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>84</v>
       </c>
@@ -4563,7 +4602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="15">
+    <row r="155" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>26</v>
       </c>
@@ -4574,7 +4613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="15">
+    <row r="156" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>0</v>
       </c>
@@ -4585,7 +4624,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="15">
+    <row r="157" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>27</v>
       </c>
@@ -4596,7 +4635,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>25</v>
       </c>
@@ -4609,13 +4648,17 @@
         <v>2.6516504294495533</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C159" s="6"/>
-    </row>
-    <row r="160" spans="1:14">
+      <c r="E159" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>68</v>
       </c>
@@ -4628,10 +4671,9 @@
       <c r="D160" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E160" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F160" s="6"/>
+      <c r="E160" s="1">
+        <v>3</v>
+      </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
@@ -4641,7 +4683,7 @@
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
     </row>
-    <row r="161" spans="1:5" ht="15">
+    <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>26</v>
       </c>
@@ -4655,10 +4697,10 @@
         <v>3</v>
       </c>
       <c r="E161" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>0</v>
       </c>
@@ -4672,10 +4714,10 @@
         <v>0.2</v>
       </c>
       <c r="E162" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>27</v>
       </c>
@@ -4688,11 +4730,12 @@
       <c r="D163" s="1">
         <v>0.4</v>
       </c>
-      <c r="E163" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="E163">
+        <f>(SQRT(E160-1))*E162</f>
+        <v>0.56568542494923812</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>25</v>
       </c>
@@ -4709,11 +4752,10 @@
         <v>0.56568542494923812</v>
       </c>
       <c r="E164">
-        <f>(SQRT(E161-1))*E163</f>
-        <v>0.56568542494923812</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>0.70709999999999995</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>31</v>
       </c>
@@ -4721,10 +4763,10 @@
         <v>0.88390000000000002</v>
       </c>
       <c r="E165">
-        <v>0.70709999999999995</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>-0.94240000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>39</v>
       </c>
@@ -4732,21 +4774,21 @@
         <v>-0.79269999999999996</v>
       </c>
       <c r="E166">
-        <v>-0.94240000000000002</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>2.3567</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C167">
         <v>2.5605000000000002</v>
       </c>
-      <c r="E167">
-        <v>2.3567</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="E167" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>71</v>
       </c>
@@ -4759,11 +4801,11 @@
       <c r="D168" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E168" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="15">
+      <c r="E168" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>26</v>
       </c>
@@ -4776,11 +4818,11 @@
       <c r="D169" s="1">
         <v>3</v>
       </c>
-      <c r="E169" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="E169" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>19</v>
       </c>
@@ -4794,10 +4836,10 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="E170" s="6">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>20</v>
       </c>
@@ -4811,10 +4853,10 @@
         <v>4.5</v>
       </c>
       <c r="E171" s="6">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>21</v>
       </c>
@@ -4827,11 +4869,12 @@
       <c r="D172">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E172" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="15">
+      <c r="E172" s="1">
+        <f>AVERAGE(E169:E171)</f>
+        <v>5.6333333333333329</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>0</v>
       </c>
@@ -4847,12 +4890,11 @@
         <f>AVERAGE(D170:D172)</f>
         <v>4.5</v>
       </c>
-      <c r="E173" s="1">
-        <f>AVERAGE(E170:E172)</f>
-        <v>5.6333333333333329</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="E173">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>49</v>
       </c>
@@ -4869,7 +4911,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>50</v>
       </c>
@@ -4886,7 +4928,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>67</v>
       </c>
@@ -4899,11 +4941,12 @@
       <c r="D176">
         <v>1.8</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="1">
+        <f>AVERAGE(E173:E175)</f>
         <v>1.8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15">
+    <row r="177" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>27</v>
       </c>
@@ -4919,12 +4962,12 @@
         <f>AVERAGE(D174:D176)</f>
         <v>1.7666666666666666</v>
       </c>
-      <c r="E177" s="1">
-        <f>AVERAGE(E174:E176)</f>
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="E177">
+        <f>(SQRT(E168-1))*E176</f>
+        <v>2.5455844122715714</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>25</v>
       </c>
@@ -4941,11 +4984,10 @@
         <v>2.4984439601924682</v>
       </c>
       <c r="E178">
-        <f>(SQRT(E169-1))*E177</f>
-        <v>2.5455844122715714</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>31</v>
       </c>
@@ -4953,10 +4995,10 @@
         <v>0.19170000000000001</v>
       </c>
       <c r="E179">
-        <v>0.44800000000000001</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>-1.1721999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>39</v>
       </c>
@@ -4964,21 +5006,21 @@
         <v>-1.4121999999999999</v>
       </c>
       <c r="E180">
-        <v>-1.1721999999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>2.0682999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C181">
         <v>1.7957000000000001</v>
       </c>
-      <c r="E181">
-        <v>2.0682999999999998</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="E181" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>85</v>
       </c>
@@ -4991,11 +5033,11 @@
       <c r="D182" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E182" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15">
+      <c r="E182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>26</v>
       </c>
@@ -5009,10 +5051,10 @@
         <v>3</v>
       </c>
       <c r="E183">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>0</v>
       </c>
@@ -5026,10 +5068,10 @@
         <v>1.4</v>
       </c>
       <c r="E184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>27</v>
       </c>
@@ -5043,10 +5085,11 @@
         <v>0.6</v>
       </c>
       <c r="E185">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <f>(SQRT(E182-1))*E184</f>
+        <v>0.84852813742385702</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>25</v>
       </c>
@@ -5062,22 +5105,18 @@
         <f>(SQRT(D183-1))*D185</f>
         <v>0.84852813742385702</v>
       </c>
-      <c r="E186">
-        <f>(SQRT(E183-1))*E185</f>
-        <v>0.84852813742385702</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
         <v>30</v>
       </c>
@@ -5091,7 +5130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15">
+    <row r="190" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>26</v>
       </c>
@@ -5105,7 +5144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>78</v>
       </c>
@@ -5119,7 +5158,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>19</v>
       </c>
@@ -5132,8 +5171,9 @@
       <c r="D192">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" ht="15">
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>0</v>
       </c>
@@ -5149,9 +5189,8 @@
         <f>AVERAGE(D191:D192)</f>
         <v>6.5500000000000007</v>
       </c>
-      <c r="E193" s="1"/>
-    </row>
-    <row r="194" spans="1:15">
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>74</v>
       </c>
@@ -5165,7 +5204,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
         <v>49</v>
       </c>
@@ -5179,7 +5218,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15">
+    <row r="196" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>27</v>
       </c>
@@ -5196,7 +5235,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>25</v>
       </c>
@@ -5213,7 +5252,7 @@
         <v>2.6870057685088806</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>31</v>
       </c>
@@ -5224,7 +5263,7 @@
         <v>1.1671</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="9" t="s">
         <v>39</v>
       </c>
@@ -5235,7 +5274,7 @@
         <v>0.30149999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>40</v>
       </c>
@@ -5246,12 +5285,18 @@
         <v>2.0327000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="202" spans="1:15">
+      <c r="E201" t="s">
+        <v>5</v>
+      </c>
+      <c r="F201" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>32</v>
       </c>
@@ -5264,11 +5309,11 @@
       <c r="D202" t="s">
         <v>4</v>
       </c>
-      <c r="E202" t="s">
-        <v>5</v>
-      </c>
-      <c r="F202" t="s">
-        <v>41</v>
+      <c r="E202" s="1">
+        <v>4</v>
+      </c>
+      <c r="F202" s="1">
+        <v>4</v>
       </c>
       <c r="G202" t="s">
         <v>8</v>
@@ -5298,7 +5343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="15">
+    <row r="203" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>26</v>
       </c>
@@ -5312,10 +5357,10 @@
         <v>4</v>
       </c>
       <c r="E203" s="1">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="F203" s="1">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="G203" s="1">
         <v>4</v>
@@ -5345,7 +5390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15">
+    <row r="204" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>0</v>
       </c>
@@ -5359,10 +5404,10 @@
         <v>4</v>
       </c>
       <c r="E204" s="1">
-        <v>6.2</v>
+        <v>0.1</v>
       </c>
       <c r="F204" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G204" s="1">
         <v>0.8</v>
@@ -5392,7 +5437,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="15">
+    <row r="205" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>27</v>
       </c>
@@ -5405,11 +5450,13 @@
       <c r="D205" s="1">
         <v>1.4</v>
       </c>
-      <c r="E205" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F205" s="1">
-        <v>0.1</v>
+      <c r="E205">
+        <f t="shared" ref="C205:O206" si="10">(SQRT(E202-1))*E204</f>
+        <v>0.17320508075688773</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="10"/>
+        <v>0.17320508075688773</v>
       </c>
       <c r="G205" s="1">
         <v>0.3</v>
@@ -5439,7 +5486,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>25</v>
       </c>
@@ -5448,59 +5495,54 @@
         <v>2.598076211353316</v>
       </c>
       <c r="C206">
-        <f t="shared" ref="C206:O206" si="4">(SQRT(C203-1))*C205</f>
+        <f t="shared" si="10"/>
         <v>0.69282032302755092</v>
       </c>
       <c r="D206">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2.4248711305964279</v>
       </c>
-      <c r="E206">
-        <f t="shared" si="4"/>
+      <c r="E206" s="6">
+        <v>2.2166999999999999</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="10"/>
+        <v>0.51961524227066314</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="10"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="10"/>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="10"/>
+        <v>0.34641016151377546</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="10"/>
         <v>0.17320508075688773</v>
       </c>
-      <c r="F206">
-        <f t="shared" si="4"/>
-        <v>0.17320508075688773</v>
-      </c>
-      <c r="G206">
-        <f t="shared" si="4"/>
-        <v>0.51961524227066314</v>
-      </c>
-      <c r="H206">
-        <f t="shared" si="4"/>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="I206">
-        <f t="shared" si="4"/>
+      <c r="L206">
+        <f t="shared" si="10"/>
+        <v>2.0784609690826525</v>
+      </c>
+      <c r="M206">
+        <f t="shared" si="10"/>
+        <v>1.0392304845413263</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="10"/>
+        <v>0.69282032302755092</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="10"/>
         <v>0.8660254037844386</v>
       </c>
-      <c r="J206">
-        <f t="shared" si="4"/>
-        <v>0.34641016151377546</v>
-      </c>
-      <c r="K206">
-        <f t="shared" si="4"/>
-        <v>0.17320508075688773</v>
-      </c>
-      <c r="L206">
-        <f t="shared" si="4"/>
-        <v>2.0784609690826525</v>
-      </c>
-      <c r="M206">
-        <f t="shared" si="4"/>
-        <v>1.0392304845413263</v>
-      </c>
-      <c r="N206">
-        <f t="shared" si="4"/>
-        <v>0.69282032302755092</v>
-      </c>
-      <c r="O206">
-        <f t="shared" si="4"/>
-        <v>0.8660254037844386</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15">
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>31</v>
       </c>
@@ -5508,7 +5550,7 @@
         <v>2.8239999999999998</v>
       </c>
       <c r="E207" s="6">
-        <v>2.2166999999999999</v>
+        <v>0.45590000000000003</v>
       </c>
       <c r="G207" s="6">
         <v>2.6833</v>
@@ -5529,7 +5571,7 @@
         <v>1.3251999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>39</v>
       </c>
@@ -5537,7 +5579,7 @@
         <v>0.86560000000000004</v>
       </c>
       <c r="E208" s="6">
-        <v>0.45590000000000003</v>
+        <v>3.9775</v>
       </c>
       <c r="G208" s="6">
         <v>0.77290000000000003</v>
@@ -5558,15 +5600,12 @@
         <v>-0.20530000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C209">
         <v>4.7824999999999998</v>
-      </c>
-      <c r="E209" s="6">
-        <v>3.9775</v>
       </c>
       <c r="G209" s="6">
         <v>4.5936000000000003</v>
@@ -5587,12 +5626,18 @@
         <v>2.8557000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="211" spans="1:19">
+      <c r="E210" t="s">
+        <v>4</v>
+      </c>
+      <c r="F210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="17" t="s">
         <v>30</v>
       </c>
@@ -5605,11 +5650,11 @@
       <c r="D211" t="s">
         <v>3</v>
       </c>
-      <c r="E211" t="s">
-        <v>4</v>
-      </c>
-      <c r="F211" t="s">
-        <v>5</v>
+      <c r="E211">
+        <v>15</v>
+      </c>
+      <c r="F211">
+        <v>20</v>
       </c>
       <c r="G211" t="s">
         <v>6</v>
@@ -5651,7 +5696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="17" t="s">
         <v>26</v>
       </c>
@@ -5665,10 +5710,10 @@
         <v>32</v>
       </c>
       <c r="E212">
-        <v>15</v>
+        <v>40.5</v>
       </c>
       <c r="F212">
-        <v>20</v>
+        <v>42.2</v>
       </c>
       <c r="G212">
         <v>16</v>
@@ -5710,7 +5755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>0</v>
       </c>
@@ -5727,10 +5772,10 @@
         <v>34.832999999999998</v>
       </c>
       <c r="E213">
-        <v>40.5</v>
+        <v>5.2</v>
       </c>
       <c r="F213">
-        <v>42.2</v>
+        <v>2.6</v>
       </c>
       <c r="G213">
         <v>34.5</v>
@@ -5778,7 +5823,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -5795,10 +5840,12 @@
         <v>1.74</v>
       </c>
       <c r="E214">
-        <v>5.2</v>
+        <f>(SQRT(E211-1))*E213</f>
+        <v>19.456618411224497</v>
       </c>
       <c r="F214">
-        <v>2.6</v>
+        <f t="shared" ref="F214:P215" si="11">(SQRT(F211-1))*F213</f>
+        <v>11.333137253205752</v>
       </c>
       <c r="G214">
         <v>1.7</v>
@@ -5841,7 +5888,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>25</v>
       </c>
@@ -5857,52 +5904,44 @@
         <f>(SQRT(D212-1))*D214</f>
         <v>9.6879099913242381</v>
       </c>
-      <c r="E215">
-        <f>(SQRT(E212-1))*E214</f>
-        <v>19.456618411224497</v>
-      </c>
-      <c r="F215">
-        <f t="shared" ref="F215:P215" si="5">(SQRT(F212-1))*F214</f>
-        <v>11.333137253205752</v>
-      </c>
       <c r="G215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.5840716885526085</v>
       </c>
       <c r="H215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.3851648071345036E-2</v>
       </c>
       <c r="I215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.2449979983983987E-2</v>
       </c>
       <c r="J215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.5677643628300216E-2</v>
       </c>
       <c r="K215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.6312417341356733</v>
       </c>
       <c r="L215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.2449979983983987E-2</v>
       </c>
       <c r="M215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.5677643628300216E-2</v>
       </c>
       <c r="N215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9.7283092056122484</v>
       </c>
       <c r="O215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7.4101282040191458</v>
       </c>
       <c r="P215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.3307656777383787</v>
       </c>
       <c r="Q215">
@@ -5918,12 +5957,18 @@
         <v>0.15491933384829668</v>
       </c>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="217" spans="1:19">
+      <c r="E216" t="s">
+        <v>4</v>
+      </c>
+      <c r="F216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="9" t="s">
         <v>32</v>
       </c>
@@ -5936,11 +5981,11 @@
       <c r="D217" t="s">
         <v>3</v>
       </c>
-      <c r="E217" t="s">
-        <v>4</v>
-      </c>
-      <c r="F217" t="s">
-        <v>5</v>
+      <c r="E217">
+        <v>15</v>
+      </c>
+      <c r="F217">
+        <v>20</v>
       </c>
       <c r="G217" t="s">
         <v>6</v>
@@ -5982,7 +6027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>26</v>
       </c>
@@ -5996,10 +6041,10 @@
         <v>32</v>
       </c>
       <c r="E218">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F218">
-        <v>20</v>
+        <v>18.12</v>
       </c>
       <c r="G218">
         <v>16</v>
@@ -6041,7 +6086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>0</v>
       </c>
@@ -6058,10 +6103,10 @@
         <v>18.605999999999998</v>
       </c>
       <c r="E219">
-        <v>17</v>
+        <v>0.76</v>
       </c>
       <c r="F219">
-        <v>18.12</v>
+        <v>0.38</v>
       </c>
       <c r="G219">
         <v>17.7</v>
@@ -6110,7 +6155,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>27</v>
       </c>
@@ -6127,10 +6172,12 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="E220">
-        <v>0.76</v>
+        <f t="shared" ref="C220:S221" si="12">(SQRT(E217-1))*E219</f>
+        <v>2.8436596139481956</v>
       </c>
       <c r="F220">
-        <v>0.38</v>
+        <f t="shared" si="12"/>
+        <v>1.6563815985454562</v>
       </c>
       <c r="G220">
         <v>0.76</v>
@@ -6175,7 +6222,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>25</v>
       </c>
@@ -6184,85 +6231,77 @@
         <v>4.4858422843430414</v>
       </c>
       <c r="C221">
-        <f t="shared" ref="C221:S221" si="6">(SQRT(C218-1))*C220</f>
+        <f t="shared" si="12"/>
         <v>3.0538040212168167</v>
       </c>
       <c r="D221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.838387231299289</v>
       </c>
-      <c r="E221">
-        <f t="shared" si="6"/>
-        <v>2.8436596139481956</v>
-      </c>
-      <c r="F221">
-        <f t="shared" si="6"/>
-        <v>1.6563815985454562</v>
-      </c>
       <c r="G221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.943467343117637</v>
       </c>
       <c r="H221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.3851648071345036E-2</v>
       </c>
       <c r="I221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>6.2449979983983987E-2</v>
       </c>
       <c r="J221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.5677643628300216E-2</v>
       </c>
       <c r="K221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2.2402285597679534</v>
       </c>
       <c r="L221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.22481992794234232</v>
       </c>
       <c r="M221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.60131855118564237</v>
       </c>
       <c r="N221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.7416573867739417E-2</v>
       </c>
       <c r="O221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.358898943540674E-2</v>
       </c>
       <c r="P221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.8729833462074169E-2</v>
       </c>
       <c r="Q221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>0.2731409892344977</v>
       </c>
       <c r="R221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.358898943540674E-2</v>
       </c>
       <c r="S221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.8729833462074169E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>32</v>
       </c>
@@ -6273,7 +6312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15">
+    <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>26</v>
       </c>
@@ -6284,7 +6323,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15">
+    <row r="226" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>0</v>
       </c>
@@ -6295,7 +6334,7 @@
         <v>2.4725274725274726</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15">
+    <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>27</v>
       </c>
@@ -6308,7 +6347,7 @@
         <v>0.13186813186813201</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>25</v>
       </c>
@@ -6321,12 +6360,12 @@
         <v>2.8709724470871119</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>30</v>
       </c>
@@ -6337,7 +6376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15">
+    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>26</v>
       </c>
@@ -6348,7 +6387,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15">
+    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>0</v>
       </c>
@@ -6359,7 +6398,7 @@
         <v>1.846153846153846</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15">
+    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>27</v>
       </c>
@@ -6372,7 +6411,7 @@
         <v>0.2142857142857145</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>25</v>
       </c>
@@ -6385,17 +6424,17 @@
         <v>4.6653302265165557</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>30</v>
       </c>
@@ -6409,7 +6448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>26</v>
       </c>
@@ -6423,7 +6462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>0</v>
       </c>
@@ -6437,7 +6476,7 @@
         <v>18.780487804878053</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>27</v>
       </c>
@@ -6454,7 +6493,7 @@
         <v>1.2804878048780499</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="9" t="s">
         <v>25</v>
       </c>
@@ -6471,12 +6510,12 @@
         <v>4.2468975974063081</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
         <v>32</v>
       </c>
@@ -6490,7 +6529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="9" t="s">
         <v>26</v>
       </c>
@@ -6504,7 +6543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="9" t="s">
         <v>0</v>
       </c>
@@ -6518,7 +6557,7 @@
         <v>23.902439024390244</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
         <v>27</v>
       </c>
@@ -6535,7 +6574,7 @@
         <v>0.85365853658536495</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="9" t="s">
         <v>25</v>
       </c>
@@ -6552,17 +6591,17 @@
         <v>2.8312650649375333</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>32</v>
       </c>
@@ -6573,7 +6612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>26</v>
       </c>
@@ -6584,7 +6623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>0</v>
       </c>
@@ -6595,7 +6634,7 @@
         <v>6.3559322033898304</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>27</v>
       </c>
@@ -6606,7 +6645,7 @@
         <v>1.6949152542372881</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>25</v>
       </c>
@@ -6619,12 +6658,18 @@
         <v>10.027253869660365</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>30</v>
       </c>
@@ -6637,11 +6682,11 @@
       <c r="D256" t="s">
         <v>13</v>
       </c>
-      <c r="E256" t="s">
-        <v>14</v>
-      </c>
-      <c r="F256" t="s">
-        <v>10</v>
+      <c r="E256">
+        <v>36</v>
+      </c>
+      <c r="F256">
+        <v>94</v>
       </c>
       <c r="G256" t="s">
         <v>11</v>
@@ -6653,7 +6698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:33" ht="15">
+    <row r="257" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>26</v>
       </c>
@@ -6667,10 +6712,10 @@
         <v>94</v>
       </c>
       <c r="E257">
-        <v>36</v>
+        <v>-0.15625</v>
       </c>
       <c r="F257">
-        <v>94</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="G257">
         <v>36</v>
@@ -6682,7 +6727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:33" ht="15">
+    <row r="258" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>0</v>
       </c>
@@ -6696,10 +6741,10 @@
         <v>-0.15625</v>
       </c>
       <c r="E258">
-        <v>-0.15625</v>
+        <v>1.25</v>
       </c>
       <c r="F258">
-        <v>1.4062499999999998</v>
+        <v>2.34375</v>
       </c>
       <c r="G258">
         <v>3.75</v>
@@ -6711,7 +6756,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="259" spans="1:33" ht="15">
+    <row r="259" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>27</v>
       </c>
@@ -6725,10 +6770,12 @@
         <v>0.78125</v>
       </c>
       <c r="E259">
-        <v>1.25</v>
+        <f t="shared" ref="D259:I260" si="13">(SQRT(E256-1))*E258</f>
+        <v>7.3950997288745199</v>
       </c>
       <c r="F259">
-        <v>2.34375</v>
+        <f t="shared" si="13"/>
+        <v>22.602306471077238</v>
       </c>
       <c r="G259">
         <v>3.2812499999999996</v>
@@ -6740,7 +6787,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="260" spans="1:33">
+    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>25</v>
       </c>
@@ -6753,41 +6800,39 @@
         <v>22.074924563804537</v>
       </c>
       <c r="D260">
-        <f t="shared" ref="D260:I260" si="7">(SQRT(D257-1))*D259</f>
+        <f t="shared" si="13"/>
         <v>7.534102157025746</v>
       </c>
-      <c r="E260">
-        <f t="shared" si="7"/>
-        <v>7.3950997288745199</v>
-      </c>
-      <c r="F260">
-        <f t="shared" si="7"/>
-        <v>22.602306471077238</v>
-      </c>
       <c r="G260">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>19.412136788295612</v>
       </c>
       <c r="H260">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>14.465476141489432</v>
       </c>
       <c r="I260">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>13.311179511974137</v>
       </c>
     </row>
-    <row r="261" spans="1:33">
+    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:33">
+    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A262" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="263" spans="1:33">
+      <c r="E262" t="s">
+        <v>89</v>
+      </c>
+      <c r="F262" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A263" s="9" t="s">
         <v>87</v>
       </c>
@@ -6800,11 +6845,11 @@
       <c r="D263" t="s">
         <v>3</v>
       </c>
-      <c r="E263" t="s">
-        <v>89</v>
-      </c>
-      <c r="F263" t="s">
-        <v>14</v>
+      <c r="E263">
+        <v>3</v>
+      </c>
+      <c r="F263">
+        <v>3</v>
       </c>
       <c r="G263" t="s">
         <v>15</v>
@@ -6828,7 +6873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:33">
+    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A264" s="9" t="s">
         <v>26</v>
       </c>
@@ -6842,10 +6887,10 @@
         <v>3</v>
       </c>
       <c r="E264">
-        <v>3</v>
+        <v>3.5000000000000018</v>
       </c>
       <c r="F264">
-        <v>3</v>
+        <v>2.3100000000000009</v>
       </c>
       <c r="G264">
         <v>3</v>
@@ -6869,7 +6914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:33">
+    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A265" s="9" t="s">
         <v>19</v>
       </c>
@@ -6883,10 +6928,10 @@
         <v>11.428571428571427</v>
       </c>
       <c r="E265">
-        <v>3.5000000000000018</v>
+        <v>3.780000000000002</v>
       </c>
       <c r="F265">
-        <v>2.3100000000000009</v>
+        <v>1.9600000000000009</v>
       </c>
       <c r="G265">
         <v>2.100000000000001</v>
@@ -6910,7 +6955,7 @@
         <v>4.7499999999999991</v>
       </c>
     </row>
-    <row r="266" spans="1:33">
+    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A266" s="9" t="s">
         <v>21</v>
       </c>
@@ -6924,10 +6969,12 @@
         <v>9.3877551020408152</v>
       </c>
       <c r="E266">
-        <v>3.780000000000002</v>
+        <f t="shared" ref="B266:M267" si="14">AVERAGE(E264:E265)</f>
+        <v>3.6400000000000019</v>
       </c>
       <c r="F266">
-        <v>1.9600000000000009</v>
+        <f t="shared" si="14"/>
+        <v>2.1350000000000007</v>
       </c>
       <c r="G266">
         <v>3.3600000000000012</v>
@@ -6951,60 +6998,58 @@
         <v>9.4999999999999982</v>
       </c>
     </row>
-    <row r="267" spans="1:33">
+    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A267" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B267">
-        <f t="shared" ref="B267:M267" si="8">AVERAGE(B265:B266)</f>
+        <f t="shared" si="14"/>
         <v>23.265306122448976</v>
       </c>
       <c r="C267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.2448979591836733</v>
       </c>
       <c r="D267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>10.408163265306122</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
-        <v>3.6400000000000019</v>
+        <v>0.70000000000000029</v>
       </c>
       <c r="F267">
-        <f t="shared" si="8"/>
-        <v>2.1350000000000007</v>
+        <v>0.63000000000000034</v>
       </c>
       <c r="G267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.7300000000000013</v>
       </c>
       <c r="H267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.58499999999999885</v>
       </c>
       <c r="I267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.29999999999999938</v>
       </c>
       <c r="J267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.44999999999999907</v>
       </c>
       <c r="K267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>10.25</v>
       </c>
       <c r="L267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>15.499999999999998</v>
       </c>
       <c r="M267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7.1249999999999982</v>
       </c>
     </row>
-    <row r="268" spans="1:33">
+    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>49</v>
       </c>
@@ -7021,7 +7066,7 @@
         <v>0.70000000000000029</v>
       </c>
       <c r="F268">
-        <v>0.63000000000000034</v>
+        <v>0.56000000000000028</v>
       </c>
       <c r="G268">
         <v>0.42000000000000015</v>
@@ -7045,7 +7090,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="269" spans="1:33">
+    <row r="269" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>67</v>
       </c>
@@ -7059,10 +7104,12 @@
         <v>5.3061224489795915</v>
       </c>
       <c r="E269">
+        <f t="shared" ref="B269:M270" si="15">AVERAGE(E267:E268)</f>
         <v>0.70000000000000029</v>
       </c>
       <c r="F269">
-        <v>0.56000000000000028</v>
+        <f t="shared" si="15"/>
+        <v>0.59500000000000031</v>
       </c>
       <c r="G269">
         <v>0.70000000000000029</v>
@@ -7086,115 +7133,113 @@
         <v>1.4999999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:33">
+    <row r="270" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A270" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B270">
-        <f t="shared" ref="B270:M270" si="9">AVERAGE(B268:B269)</f>
+        <f t="shared" si="15"/>
         <v>3.8775510204081631</v>
       </c>
       <c r="C270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.40816326530612246</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.3061224489795915</v>
       </c>
       <c r="E270">
-        <f t="shared" si="9"/>
-        <v>0.70000000000000029</v>
+        <f t="shared" ref="B270:M271" si="16">(SQRT(E263-1))*E269</f>
+        <v>0.98994949366116702</v>
       </c>
       <c r="F270">
-        <f t="shared" si="9"/>
-        <v>0.59500000000000031</v>
+        <f t="shared" si="16"/>
+        <v>0.84145706961199207</v>
       </c>
       <c r="G270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.56000000000000028</v>
       </c>
       <c r="H270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.13499999999999973</v>
       </c>
       <c r="I270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.19499999999999962</v>
       </c>
       <c r="J270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.13499999999999973</v>
       </c>
       <c r="K270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.875</v>
       </c>
       <c r="L270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.4999999999999998</v>
       </c>
       <c r="M270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="271" spans="1:33">
+    <row r="271" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A271" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B271">
-        <f t="shared" ref="B271:M271" si="10">(SQRT(B264-1))*B270</f>
+        <f t="shared" si="16"/>
         <v>5.4836852418548583</v>
       </c>
       <c r="C271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.57723002545840618</v>
       </c>
       <c r="D271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7.5039903309592795</v>
       </c>
-      <c r="E271">
-        <f t="shared" si="10"/>
-        <v>0.98994949366116702</v>
-      </c>
-      <c r="F271">
-        <f t="shared" si="10"/>
-        <v>0.84145706961199207</v>
-      </c>
       <c r="G271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.79195959492893364</v>
       </c>
       <c r="H271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.19091883092036746</v>
       </c>
       <c r="I271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.275771644662753</v>
       </c>
       <c r="J271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.19091883092036746</v>
       </c>
       <c r="K271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.2374368670764582</v>
       </c>
       <c r="L271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2.1213203435596424</v>
       </c>
       <c r="M271">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="272" spans="1:33">
+    <row r="272" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A272" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="E272" t="s">
+        <v>89</v>
+      </c>
+      <c r="F272" t="s">
+        <v>14</v>
       </c>
       <c r="Y272" s="12"/>
       <c r="Z272" s="12"/>
@@ -7206,7 +7251,7 @@
       <c r="AF272" s="12"/>
       <c r="AG272" s="12"/>
     </row>
-    <row r="273" spans="1:33">
+    <row r="273" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A273" s="9" t="s">
         <v>88</v>
       </c>
@@ -7219,11 +7264,11 @@
       <c r="D273" t="s">
         <v>3</v>
       </c>
-      <c r="E273" t="s">
-        <v>89</v>
-      </c>
-      <c r="F273" t="s">
-        <v>14</v>
+      <c r="E273">
+        <v>3</v>
+      </c>
+      <c r="F273">
+        <v>3</v>
       </c>
       <c r="G273" t="s">
         <v>15</v>
@@ -7256,7 +7301,7 @@
       <c r="AF273" s="12"/>
       <c r="AG273" s="12"/>
     </row>
-    <row r="274" spans="1:33">
+    <row r="274" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
         <v>26</v>
       </c>
@@ -7270,10 +7315,10 @@
         <v>3</v>
       </c>
       <c r="E274">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F274">
-        <v>3</v>
+        <v>3.4999999999999996</v>
       </c>
       <c r="G274">
         <v>3</v>
@@ -7306,7 +7351,7 @@
       <c r="AF274" s="12"/>
       <c r="AG274" s="12"/>
     </row>
-    <row r="275" spans="1:33">
+    <row r="275" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A275" s="9" t="s">
         <v>19</v>
       </c>
@@ -7320,10 +7365,10 @@
         <v>5.25</v>
       </c>
       <c r="E275">
+        <v>10.5</v>
+      </c>
+      <c r="F275">
         <v>8</v>
-      </c>
-      <c r="F275">
-        <v>3.4999999999999996</v>
       </c>
       <c r="G275">
         <v>4.7499999999999991</v>
@@ -7356,7 +7401,7 @@
       <c r="AF275" s="12"/>
       <c r="AG275" s="12"/>
     </row>
-    <row r="276" spans="1:33">
+    <row r="276" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
         <v>21</v>
       </c>
@@ -7370,10 +7415,12 @@
         <v>1</v>
       </c>
       <c r="E276">
-        <v>10.5</v>
+        <f t="shared" ref="B276:M277" si="17">AVERAGE(E274:E275)</f>
+        <v>9.25</v>
       </c>
       <c r="F276">
-        <v>8</v>
+        <f t="shared" si="17"/>
+        <v>5.75</v>
       </c>
       <c r="G276">
         <v>16.75</v>
@@ -7406,56 +7453,54 @@
       <c r="AF276" s="12"/>
       <c r="AG276" s="12"/>
     </row>
-    <row r="277" spans="1:33">
+    <row r="277" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A277" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B277">
-        <f t="shared" ref="B277:M277" si="11">AVERAGE(B275:B276)</f>
+        <f t="shared" si="17"/>
         <v>12.625</v>
       </c>
       <c r="C277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>7.625</v>
       </c>
       <c r="D277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.125</v>
       </c>
       <c r="E277">
-        <f t="shared" si="11"/>
-        <v>9.25</v>
+        <v>2</v>
       </c>
       <c r="F277">
-        <f t="shared" si="11"/>
-        <v>5.75</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="G277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>10.75</v>
       </c>
       <c r="H277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.99000000000000021</v>
       </c>
       <c r="I277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.2600000000000005</v>
       </c>
       <c r="J277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.7100000000000006</v>
       </c>
       <c r="K277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>10.199999999999999</v>
       </c>
       <c r="L277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>16.399999999999999</v>
       </c>
       <c r="M277">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>12.4</v>
       </c>
       <c r="Y277" s="12"/>
@@ -7468,7 +7513,7 @@
       <c r="AF277" s="12"/>
       <c r="AG277" s="12"/>
     </row>
-    <row r="278" spans="1:33">
+    <row r="278" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A278" s="9" t="s">
         <v>49</v>
       </c>
@@ -7482,10 +7527,10 @@
         <v>4.5</v>
       </c>
       <c r="E278">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F278">
-        <v>0.74999999999999989</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="G278">
         <v>0.74999999999999989</v>
@@ -7518,7 +7563,7 @@
       <c r="AF278" s="12"/>
       <c r="AG278" s="12"/>
     </row>
-    <row r="279" spans="1:33">
+    <row r="279" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A279" s="9" t="s">
         <v>67</v>
       </c>
@@ -7532,10 +7577,12 @@
         <v>0.5</v>
       </c>
       <c r="E279">
-        <v>2.5</v>
+        <f t="shared" ref="B279:M280" si="18">AVERAGE(E277:E278)</f>
+        <v>2.25</v>
       </c>
       <c r="F279">
-        <v>1.4999999999999998</v>
+        <f t="shared" si="18"/>
+        <v>1.1249999999999998</v>
       </c>
       <c r="G279">
         <v>3.75</v>
@@ -7568,56 +7615,56 @@
       <c r="AF279" s="12"/>
       <c r="AG279" s="12"/>
     </row>
-    <row r="280" spans="1:33">
+    <row r="280" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A280" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B280">
-        <f t="shared" ref="B280:M281" si="12">AVERAGE(B278:B279)</f>
+        <f t="shared" si="18"/>
         <v>3.3749999999999996</v>
       </c>
       <c r="C280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="D280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="E280">
-        <f t="shared" si="12"/>
+        <f>(SQRT(E273-1))*E279</f>
+        <v>3.1819805153394642</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="18"/>
+        <v>1.3124999999999998</v>
+      </c>
+      <c r="G280">
+        <f t="shared" si="18"/>
         <v>2.25</v>
       </c>
-      <c r="F280">
-        <f t="shared" si="12"/>
-        <v>1.1249999999999998</v>
-      </c>
-      <c r="G280">
-        <f t="shared" si="12"/>
-        <v>2.25</v>
-      </c>
       <c r="H280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.33000000000000013</v>
       </c>
       <c r="I280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.36000000000000015</v>
       </c>
       <c r="J280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.42000000000000015</v>
       </c>
       <c r="K280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.6</v>
       </c>
       <c r="L280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="M280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1.8</v>
       </c>
       <c r="Y280" s="12"/>
@@ -7630,56 +7677,48 @@
       <c r="AF280" s="12"/>
       <c r="AG280" s="12"/>
     </row>
-    <row r="281" spans="1:33">
+    <row r="281" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A281" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B281">
-        <f t="shared" ref="B281:M281" si="13">(SQRT(B274-1))*B280</f>
+        <f>(SQRT(B274-1))*B280</f>
         <v>4.7729707730091953</v>
       </c>
       <c r="C281">
-        <f t="shared" si="13"/>
+        <f>(SQRT(C274-1))*C280</f>
         <v>4.2426406871192857</v>
       </c>
       <c r="D281">
-        <f t="shared" si="13"/>
+        <f>(SQRT(D274-1))*D280</f>
         <v>3.5355339059327378</v>
       </c>
-      <c r="E281">
-        <f t="shared" si="13"/>
+      <c r="G281">
+        <f t="shared" ref="G281:M281" si="19">(SQRT(G274-1))*G280</f>
         <v>3.1819805153394642</v>
       </c>
-      <c r="F281">
-        <f t="shared" si="12"/>
-        <v>1.3124999999999998</v>
-      </c>
-      <c r="G281">
-        <f t="shared" si="13"/>
-        <v>3.1819805153394642</v>
-      </c>
       <c r="H281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.4666904755831216</v>
       </c>
       <c r="I281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.50911688245431452</v>
       </c>
       <c r="J281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.59396969619670015</v>
       </c>
       <c r="K281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.2627416997969525</v>
       </c>
       <c r="L281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3.1112698372208096</v>
       </c>
       <c r="M281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2.5455844122715714</v>
       </c>
       <c r="Y281" s="12"/>
@@ -7692,7 +7731,7 @@
       <c r="AF281" s="12"/>
       <c r="AG281" s="12"/>
     </row>
-    <row r="282" spans="1:33">
+    <row r="282" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A282" s="9" t="s">
         <v>31</v>
       </c>
@@ -7706,14 +7745,14 @@
       <c r="AF282" s="12"/>
       <c r="AG282" s="12"/>
     </row>
-    <row r="283" spans="1:33">
+    <row r="283" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>98</v>
       </c>
       <c r="AB283" s="9"/>
       <c r="AE283" s="9"/>
     </row>
-    <row r="284" spans="1:33">
+    <row r="284" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>32</v>
       </c>
@@ -7726,7 +7765,7 @@
       <c r="AB284" s="9"/>
       <c r="AE284" s="9"/>
     </row>
-    <row r="285" spans="1:33" ht="15">
+    <row r="285" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>26</v>
       </c>
@@ -7737,7 +7776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:33" ht="15">
+    <row r="286" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>0</v>
       </c>
@@ -7747,8 +7786,10 @@
       <c r="C286">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="287" spans="1:33" ht="15">
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>27</v>
       </c>
@@ -7759,8 +7800,6 @@
         <v>1.8</v>
       </c>
       <c r="D287" s="1"/>
-      <c r="E287" s="1"/>
-      <c r="F287" s="1"/>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
@@ -7775,7 +7814,7 @@
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
     </row>
-    <row r="288" spans="1:33">
+    <row r="288" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>25</v>
       </c>
@@ -7787,8 +7826,10 @@
         <f>(SQRT(C285-1))*C287</f>
         <v>7.8460180983732135</v>
       </c>
-    </row>
-    <row r="289" spans="1:33">
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+    </row>
+    <row r="289" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
         <v>31</v>
       </c>
@@ -7809,7 +7850,7 @@
       <c r="R289" s="2"/>
       <c r="S289" s="2"/>
     </row>
-    <row r="290" spans="1:33">
+    <row r="290" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>30</v>
       </c>
@@ -7822,8 +7863,8 @@
       <c r="D290" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E290" s="2"/>
-      <c r="F290" s="2"/>
+      <c r="E290" s="3"/>
+      <c r="F290" s="3"/>
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
@@ -7838,7 +7879,7 @@
       <c r="R290" s="2"/>
       <c r="S290" s="2"/>
     </row>
-    <row r="291" spans="1:33" ht="15">
+    <row r="291" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>26</v>
       </c>
@@ -7849,8 +7890,8 @@
         <v>20</v>
       </c>
       <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
-      <c r="F291" s="3"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
@@ -7865,7 +7906,7 @@
       <c r="R291" s="3"/>
       <c r="S291" s="3"/>
     </row>
-    <row r="292" spans="1:33" ht="15">
+    <row r="292" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>0</v>
       </c>
@@ -7892,7 +7933,7 @@
       <c r="R292" s="2"/>
       <c r="S292" s="2"/>
     </row>
-    <row r="293" spans="1:33" ht="15">
+    <row r="293" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>27</v>
       </c>
@@ -7919,7 +7960,7 @@
       <c r="R293" s="2"/>
       <c r="S293" s="2"/>
     </row>
-    <row r="294" spans="1:33">
+    <row r="294" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>25</v>
       </c>
@@ -7932,8 +7973,8 @@
         <v>9.1536877814354156</v>
       </c>
       <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
@@ -7948,7 +7989,7 @@
       <c r="R294" s="2"/>
       <c r="S294" s="2"/>
     </row>
-    <row r="295" spans="1:33" ht="15">
+    <row r="295" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>31</v>
       </c>
@@ -7956,8 +7997,8 @@
         <v>1.3067</v>
       </c>
       <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
-      <c r="F295" s="3"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
@@ -7972,14 +8013,18 @@
       <c r="R295" s="3"/>
       <c r="S295" s="3"/>
     </row>
-    <row r="296" spans="1:33">
+    <row r="296" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A296" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
-      <c r="E296" s="6"/>
-      <c r="F296" s="6"/>
+      <c r="E296" t="s">
+        <v>6</v>
+      </c>
+      <c r="F296" t="s">
+        <v>41</v>
+      </c>
       <c r="G296" s="6"/>
       <c r="H296" s="6"/>
       <c r="K296" s="6"/>
@@ -8001,7 +8046,7 @@
       <c r="AF296" s="12"/>
       <c r="AG296" s="12"/>
     </row>
-    <row r="297" spans="1:33">
+    <row r="297" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>32</v>
       </c>
@@ -8014,11 +8059,11 @@
       <c r="D297" t="s">
         <v>4</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E297">
         <v>6</v>
       </c>
-      <c r="F297" t="s">
-        <v>41</v>
+      <c r="F297">
+        <v>6</v>
       </c>
       <c r="G297" t="s">
         <v>9</v>
@@ -8048,7 +8093,7 @@
       <c r="AF297" s="12"/>
       <c r="AG297" s="12"/>
     </row>
-    <row r="298" spans="1:33" ht="15">
+    <row r="298" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>26</v>
       </c>
@@ -8062,10 +8107,10 @@
         <v>6</v>
       </c>
       <c r="E298">
-        <v>6</v>
-      </c>
-      <c r="F298">
-        <v>6</v>
+        <v>4.6276149999999996</v>
+      </c>
+      <c r="F298" s="6">
+        <v>0.41004184100000002</v>
       </c>
       <c r="G298">
         <v>6</v>
@@ -8095,7 +8140,7 @@
       <c r="AF298" s="12"/>
       <c r="AG298" s="12"/>
     </row>
-    <row r="299" spans="1:33" ht="15">
+    <row r="299" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>0</v>
       </c>
@@ -8108,11 +8153,11 @@
       <c r="D299">
         <v>2.635983264</v>
       </c>
-      <c r="E299">
-        <v>4.6276149999999996</v>
+      <c r="E299" s="1">
+        <v>0.64435146399999998</v>
       </c>
       <c r="F299" s="6">
-        <v>0.41004184100000002</v>
+        <v>0.23430962299999999</v>
       </c>
       <c r="G299" s="6">
         <v>1.9330543929999999</v>
@@ -8141,7 +8186,7 @@
       <c r="AF299" s="12"/>
       <c r="AG299" s="12"/>
     </row>
-    <row r="300" spans="1:33" ht="15">
+    <row r="300" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>27</v>
       </c>
@@ -8154,11 +8199,13 @@
       <c r="D300" s="1">
         <v>0.351464</v>
       </c>
-      <c r="E300" s="1">
-        <v>0.64435146399999998</v>
-      </c>
-      <c r="F300" s="6">
-        <v>0.23430962299999999</v>
+      <c r="E300">
+        <f t="shared" ref="D300:I301" si="20">(SQRT(E297-1))*E299</f>
+        <v>1.4408136749055085</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="20"/>
+        <v>0.52393224481034817</v>
       </c>
       <c r="G300" s="6">
         <v>0.29288702900000002</v>
@@ -8183,7 +8230,7 @@
       <c r="AF300" s="12"/>
       <c r="AG300" s="12"/>
     </row>
-    <row r="301" spans="1:33" ht="15">
+    <row r="301" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>25</v>
       </c>
@@ -8196,27 +8243,22 @@
         <v>2.7506442902854813</v>
       </c>
       <c r="D301">
-        <f t="shared" ref="D301:I301" si="14">(SQRT(D298-1))*D300</f>
+        <f t="shared" si="20"/>
         <v>0.78589739564398609</v>
       </c>
       <c r="E301">
-        <f t="shared" si="14"/>
-        <v>1.4408136749055085</v>
-      </c>
-      <c r="F301">
-        <f t="shared" si="14"/>
-        <v>0.52393224481034817</v>
+        <v>4.1120999999999999</v>
       </c>
       <c r="G301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.65491530657195229</v>
       </c>
       <c r="H301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2.8816273520470852</v>
       </c>
       <c r="I301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>2.7506442902854813</v>
       </c>
       <c r="L301" s="2"/>
@@ -8235,7 +8277,7 @@
       <c r="AF301" s="12"/>
       <c r="AG301" s="12"/>
     </row>
-    <row r="302" spans="1:33">
+    <row r="302" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
         <v>31</v>
       </c>
@@ -8243,7 +8285,7 @@
         <v>-0.3327</v>
       </c>
       <c r="E302">
-        <v>4.1120999999999999</v>
+        <v>1.7161999999999999</v>
       </c>
       <c r="G302">
         <v>2.5680999999999998</v>
@@ -8267,7 +8309,7 @@
       <c r="AF302" s="12"/>
       <c r="AG302" s="12"/>
     </row>
-    <row r="303" spans="1:33" ht="15">
+    <row r="303" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>30</v>
       </c>
@@ -8278,7 +8320,10 @@
         <v>94</v>
       </c>
       <c r="E303">
-        <v>1.7161999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="F303">
+        <v>6</v>
       </c>
       <c r="H303" t="s">
         <v>1</v>
@@ -8306,7 +8351,7 @@
       <c r="AF303" s="12"/>
       <c r="AG303" s="12"/>
     </row>
-    <row r="304" spans="1:33" ht="15">
+    <row r="304" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>26</v>
       </c>
@@ -8319,11 +8364,11 @@
       <c r="D304">
         <v>6</v>
       </c>
-      <c r="E304">
-        <v>6</v>
-      </c>
-      <c r="F304">
-        <v>6</v>
+      <c r="E304" s="2">
+        <v>0.82008368200000004</v>
+      </c>
+      <c r="F304" s="3">
+        <v>0.175732218</v>
       </c>
       <c r="G304">
         <v>6</v>
@@ -8354,7 +8399,7 @@
       <c r="AF304" s="12"/>
       <c r="AG304" s="12"/>
     </row>
-    <row r="305" spans="1:33" ht="15">
+    <row r="305" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>0</v>
       </c>
@@ -8368,10 +8413,10 @@
         <v>0.29288702900000002</v>
       </c>
       <c r="E305" s="2">
-        <v>0.82008368200000004</v>
+        <v>0.35146443500000002</v>
       </c>
       <c r="F305" s="3">
-        <v>0.175732218</v>
+        <v>5.8577405999999999E-2</v>
       </c>
       <c r="G305" s="2">
         <v>3.1631799159999998</v>
@@ -8402,7 +8447,7 @@
       <c r="AF305" s="12"/>
       <c r="AG305" s="12"/>
     </row>
-    <row r="306" spans="1:33" ht="15">
+    <row r="306" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>27</v>
       </c>
@@ -8415,11 +8460,13 @@
       <c r="D306" s="2">
         <v>5.8577405999999999E-2</v>
       </c>
-      <c r="E306" s="2">
-        <v>0.35146443500000002</v>
-      </c>
-      <c r="F306" s="3">
-        <v>5.8577405999999999E-2</v>
+      <c r="E306">
+        <f t="shared" ref="D306:I307" si="21">(SQRT(E303-1))*E305</f>
+        <v>0.78589836833355642</v>
+      </c>
+      <c r="F306">
+        <f t="shared" si="21"/>
+        <v>0.13098306176160404</v>
       </c>
       <c r="G306" s="2">
         <v>1.9330543929999999</v>
@@ -8441,7 +8488,7 @@
       <c r="R306" s="2"/>
       <c r="S306" s="2"/>
     </row>
-    <row r="307" spans="1:33" ht="15">
+    <row r="307" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>25</v>
       </c>
@@ -8454,27 +8501,22 @@
         <v>3.0126104138086891</v>
       </c>
       <c r="D307">
-        <f t="shared" ref="D307:I307" si="15">(SQRT(D304-1))*D306</f>
+        <f t="shared" si="21"/>
         <v>0.13098306176160404</v>
       </c>
       <c r="E307">
-        <f t="shared" si="15"/>
-        <v>0.78589836833355642</v>
-      </c>
-      <c r="F307">
-        <f t="shared" si="15"/>
-        <v>0.13098306176160404</v>
+        <v>0.93579999999999997</v>
       </c>
       <c r="G307">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>4.3224410269525935</v>
       </c>
       <c r="H307">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>2.488678166762273</v>
       </c>
       <c r="I307">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>3.0126104138086891</v>
       </c>
       <c r="J307" s="2"/>
@@ -8488,15 +8530,12 @@
       <c r="R307" s="2"/>
       <c r="S307" s="2"/>
     </row>
-    <row r="308" spans="1:33" ht="15">
+    <row r="308" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C308">
         <v>2.12E-2</v>
-      </c>
-      <c r="E308">
-        <v>0.93579999999999997</v>
       </c>
       <c r="G308">
         <v>0.97699999999999998</v>
@@ -8515,8 +8554,10 @@
       <c r="R308" s="3"/>
       <c r="S308" s="3"/>
     </row>
-    <row r="309" spans="1:33" ht="15">
+    <row r="309" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
+      <c r="E309" s="6"/>
+      <c r="F309" s="6"/>
       <c r="H309" s="6"/>
       <c r="I309" s="6"/>
       <c r="J309" s="6"/>
@@ -8530,14 +8571,18 @@
       <c r="R309" s="6"/>
       <c r="S309" s="6"/>
     </row>
-    <row r="310" spans="1:33">
+    <row r="310" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
-      <c r="E310" s="6"/>
-      <c r="F310" s="6"/>
+      <c r="E310" t="s">
+        <v>13</v>
+      </c>
+      <c r="F310" t="s">
+        <v>14</v>
+      </c>
       <c r="G310" s="6"/>
       <c r="H310" s="6"/>
       <c r="I310" s="6"/>
@@ -8552,7 +8597,7 @@
       <c r="R310" s="6"/>
       <c r="S310" s="6"/>
     </row>
-    <row r="311" spans="1:33">
+    <row r="311" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A311" s="8" t="s">
         <v>32</v>
       </c>
@@ -8565,11 +8610,11 @@
       <c r="D311" t="s">
         <v>6</v>
       </c>
-      <c r="E311" t="s">
-        <v>13</v>
-      </c>
-      <c r="F311" t="s">
-        <v>14</v>
+      <c r="E311">
+        <v>12</v>
+      </c>
+      <c r="F311">
+        <v>12</v>
       </c>
       <c r="G311" t="s">
         <v>15</v>
@@ -8596,7 +8641,7 @@
       <c r="R311" s="6"/>
       <c r="S311" s="6"/>
     </row>
-    <row r="312" spans="1:33" ht="15">
+    <row r="312" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>26</v>
       </c>
@@ -8610,10 +8655,10 @@
         <v>12</v>
       </c>
       <c r="E312">
-        <v>12</v>
+        <v>12.6</v>
       </c>
       <c r="F312">
-        <v>12</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G312">
         <v>12</v>
@@ -8639,7 +8684,7 @@
       <c r="R312" s="6"/>
       <c r="S312" s="6"/>
     </row>
-    <row r="313" spans="1:33" ht="15">
+    <row r="313" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>0</v>
       </c>
@@ -8653,10 +8698,10 @@
         <v>25.3</v>
       </c>
       <c r="E313">
-        <v>12.6</v>
+        <v>1</v>
       </c>
       <c r="F313">
-        <v>10.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G313">
         <v>11.6</v>
@@ -8680,7 +8725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="314" spans="1:33" ht="15">
+    <row r="314" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>27</v>
       </c>
@@ -8694,10 +8739,12 @@
         <v>1.4</v>
       </c>
       <c r="E314">
-        <v>1</v>
+        <f t="shared" ref="C314:M315" si="22">(SQRT(E311-1))*E313</f>
+        <v>3.3166247903553998</v>
       </c>
       <c r="F314">
-        <v>1.2</v>
+        <f t="shared" si="22"/>
+        <v>3.9799497484264794</v>
       </c>
       <c r="G314">
         <v>1.4</v>
@@ -8721,7 +8768,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="315" spans="1:33">
+    <row r="315" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A315" s="9" t="s">
         <v>25</v>
       </c>
@@ -8730,59 +8777,57 @@
         <v>4.643274706497559</v>
       </c>
       <c r="C315">
-        <f t="shared" ref="C315:M315" si="16">(SQRT(C312-1))*C314</f>
+        <f t="shared" si="22"/>
         <v>3.9799497484264794</v>
       </c>
       <c r="D315">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4.643274706497559</v>
       </c>
-      <c r="E315">
-        <f t="shared" si="16"/>
-        <v>3.3166247903553998</v>
-      </c>
-      <c r="F315">
-        <f t="shared" si="16"/>
-        <v>3.9799497484264794</v>
-      </c>
       <c r="G315">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>4.643274706497559</v>
       </c>
       <c r="H315">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.3266499161421601</v>
       </c>
       <c r="I315">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.9899748742132397</v>
       </c>
       <c r="J315">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1.3266499161421601</v>
       </c>
       <c r="K315">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.33166247903554003</v>
       </c>
       <c r="L315">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.66332495807108005</v>
       </c>
       <c r="M315">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0.66332495807108005</v>
       </c>
     </row>
-    <row r="316" spans="1:33">
+    <row r="316" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A316" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:33">
+    <row r="317" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A317" s="8"/>
-    </row>
-    <row r="318" spans="1:33">
+      <c r="E317" t="s">
+        <v>13</v>
+      </c>
+      <c r="F317" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A318" s="8" t="s">
         <v>30</v>
       </c>
@@ -8795,11 +8840,11 @@
       <c r="D318" t="s">
         <v>6</v>
       </c>
-      <c r="E318" t="s">
-        <v>13</v>
-      </c>
-      <c r="F318" t="s">
-        <v>14</v>
+      <c r="E318">
+        <v>12</v>
+      </c>
+      <c r="F318">
+        <v>12</v>
       </c>
       <c r="G318" t="s">
         <v>15</v>
@@ -8823,7 +8868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:33" ht="15">
+    <row r="319" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>26</v>
       </c>
@@ -8837,10 +8882,10 @@
         <v>12</v>
       </c>
       <c r="E319">
-        <v>12</v>
+        <v>0.6</v>
       </c>
       <c r="F319">
-        <v>12</v>
+        <v>0.4</v>
       </c>
       <c r="G319">
         <v>12</v>
@@ -8864,7 +8909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:33" ht="15">
+    <row r="320" spans="1:33" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>0</v>
       </c>
@@ -8878,10 +8923,10 @@
         <v>3.3</v>
       </c>
       <c r="E320">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="F320">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G320">
         <v>0.4</v>
@@ -8905,7 +8950,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15">
+    <row r="321" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>27</v>
       </c>
@@ -8919,10 +8964,12 @@
         <v>0.4</v>
       </c>
       <c r="E321">
-        <v>0.1</v>
+        <f t="shared" ref="C321:M322" si="23">(SQRT(E318-1))*E320</f>
+        <v>0.33166247903554003</v>
       </c>
       <c r="F321">
-        <v>0.1</v>
+        <f t="shared" si="23"/>
+        <v>0.33166247903554003</v>
       </c>
       <c r="G321">
         <v>0.1</v>
@@ -8946,7 +8993,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" s="9" t="s">
         <v>25</v>
       </c>
@@ -8955,51 +9002,43 @@
         <v>2.6532998322843202</v>
       </c>
       <c r="C322">
-        <f t="shared" ref="C322:M322" si="17">(SQRT(C319-1))*C321</f>
+        <f t="shared" si="23"/>
         <v>1.9899748742132397</v>
       </c>
       <c r="D322">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.3266499161421601</v>
       </c>
-      <c r="E322">
-        <f t="shared" si="17"/>
+      <c r="G322">
+        <f t="shared" si="23"/>
         <v>0.33166247903554003</v>
       </c>
-      <c r="F322">
-        <f t="shared" si="17"/>
-        <v>0.33166247903554003</v>
-      </c>
-      <c r="G322">
-        <f t="shared" si="17"/>
-        <v>0.33166247903554003</v>
-      </c>
       <c r="H322">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>2.3216373532487795</v>
       </c>
       <c r="I322">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.3266499161421601</v>
       </c>
       <c r="J322">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.99498743710661985</v>
       </c>
       <c r="K322">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3.3166247903553998E-2</v>
       </c>
       <c r="L322">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3.3166247903553998E-2</v>
       </c>
       <c r="M322">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>3.3166247903553998E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="8" t="s">
         <v>31</v>
       </c>
@@ -9010,147 +9049,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
-      <c r="A324" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13">
-      <c r="A325" s="8" t="s">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A324" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B324" s="11"/>
+      <c r="C324" s="11"/>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A325" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15">
-      <c r="A326" s="10" t="s">
+    <row r="326" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A326" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="11">
         <v>7</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15">
-      <c r="A327" s="10" t="s">
+    <row r="327" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A327" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="11">
         <v>6.2</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="15">
-      <c r="A328" s="10" t="s">
+    <row r="328" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A328" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="11">
         <v>0.1</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
-      <c r="A329" s="9" t="s">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A329" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="11">
         <f>(SQRT(B326-1))*B328</f>
         <v>0.2449489742783178</v>
       </c>
-      <c r="C329">
-        <f t="shared" ref="C329" si="18">(SQRT(C326-1))*C328</f>
+      <c r="C329" s="11">
+        <f>(SQRT(C326-1))*C328</f>
         <v>2.4494897427831779</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
-      <c r="A330" s="8" t="s">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A330" s="25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="331" spans="1:13">
-      <c r="A331" s="8"/>
-    </row>
-    <row r="332" spans="1:13">
-      <c r="A332" s="8" t="s">
+      <c r="B330" s="11"/>
+      <c r="C330" s="11"/>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A331" s="25"/>
+      <c r="B331" s="11"/>
+      <c r="C331" s="11"/>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A332" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="15">
-      <c r="A333" s="10" t="s">
+    <row r="333" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A333" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="11">
         <v>7</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="15">
-      <c r="A334" s="10" t="s">
+    <row r="334" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A334" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="11">
         <v>6</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="15">
-      <c r="A335" s="10" t="s">
+    <row r="335" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A335" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="11">
         <v>0.5</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
-      <c r="A336" s="9" t="s">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A336" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="11">
         <f>(SQRT(B333-1))*B335</f>
         <v>1.2247448713915889</v>
       </c>
-      <c r="C336">
-        <f t="shared" ref="C336" si="19">(SQRT(C333-1))*C335</f>
+      <c r="C336" s="11">
+        <f>(SQRT(C333-1))*C335</f>
         <v>19.595917942265423</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" s="8"/>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="E339" t="s">
+        <v>12</v>
+      </c>
+      <c r="F339" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" s="8" t="s">
         <v>30</v>
       </c>
@@ -9163,17 +9214,17 @@
       <c r="D340" t="s">
         <v>10</v>
       </c>
-      <c r="E340" t="s">
-        <v>12</v>
-      </c>
-      <c r="F340" t="s">
-        <v>13</v>
+      <c r="E340">
+        <v>3</v>
+      </c>
+      <c r="F340">
+        <v>3</v>
       </c>
       <c r="G340" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="15">
+    <row r="341" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>26</v>
       </c>
@@ -9187,16 +9238,16 @@
         <v>3</v>
       </c>
       <c r="E341">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="F341">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G341">
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="15">
+    <row r="342" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
         <v>0</v>
       </c>
@@ -9210,16 +9261,16 @@
         <v>4.5</v>
       </c>
       <c r="E342">
-        <v>6.5</v>
+        <v>0.5</v>
       </c>
       <c r="F342">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="G342">
         <v>0.65</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="15">
+    <row r="343" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
         <v>27</v>
       </c>
@@ -9233,16 +9284,18 @@
         <v>0.7</v>
       </c>
       <c r="E343">
-        <v>0.5</v>
+        <f>(SQRT(E340-1))*D343</f>
+        <v>0.98994949366116658</v>
       </c>
       <c r="F343">
-        <v>0.1</v>
+        <f>(SQRT(F340-1))*G343</f>
+        <v>7.0710678118654766E-2</v>
       </c>
       <c r="G343">
         <v>0.05</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
         <v>25</v>
       </c>
@@ -9255,31 +9308,23 @@
         <v>0.70710678118654757</v>
       </c>
       <c r="D344">
-        <f>(SQRT(D341-1))*E343</f>
+        <f>(SQRT(D341-1))*E342</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="E344">
-        <f>(SQRT(E341-1))*D343</f>
-        <v>0.98994949366116658</v>
-      </c>
-      <c r="F344">
-        <f>(SQRT(F341-1))*G343</f>
-        <v>7.0710678118654766E-2</v>
-      </c>
       <c r="G344">
-        <f>(SQRT(G341-1))*F343</f>
+        <f>(SQRT(G341-1))*F342</f>
         <v>0.14142135623730953</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="15">
+    <row r="346" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="10"/>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" s="8" t="s">
         <v>32</v>
       </c>
@@ -9290,7 +9335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="15">
+    <row r="348" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
         <v>26</v>
       </c>
@@ -9301,7 +9346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="15">
+    <row r="349" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
         <v>0</v>
       </c>
@@ -9312,7 +9357,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="15">
+    <row r="350" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
         <v>27</v>
       </c>
@@ -9323,7 +9368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="9" t="s">
         <v>25</v>
       </c>
@@ -9336,20 +9381,26 @@
         <v>42.426406871192853</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C353" s="11"/>
-    </row>
-    <row r="354" spans="1:10">
+      <c r="E353" t="s">
+        <v>12</v>
+      </c>
+      <c r="F353" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="s">
         <v>30</v>
       </c>
@@ -9362,17 +9413,17 @@
       <c r="D354" t="s">
         <v>10</v>
       </c>
-      <c r="E354" t="s">
-        <v>12</v>
-      </c>
-      <c r="F354" t="s">
-        <v>13</v>
+      <c r="E354">
+        <v>3</v>
+      </c>
+      <c r="F354">
+        <v>3</v>
       </c>
       <c r="G354" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="15">
+    <row r="355" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
         <v>26</v>
       </c>
@@ -9386,16 +9437,16 @@
         <v>3</v>
       </c>
       <c r="E355">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F355">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G355">
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="15">
+    <row r="356" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
         <v>0</v>
       </c>
@@ -9409,16 +9460,16 @@
         <v>5</v>
       </c>
       <c r="E356">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F356">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G356">
         <v>1.5</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="15">
+    <row r="357" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
         <v>27</v>
       </c>
@@ -9432,53 +9483,47 @@
         <v>0.5</v>
       </c>
       <c r="E357">
-        <v>1</v>
+        <f t="shared" ref="B357:G358" si="24">(SQRT(E354-1))*E356</f>
+        <v>1.4142135623730951</v>
       </c>
       <c r="F357">
-        <v>0.5</v>
+        <f t="shared" si="24"/>
+        <v>0.70710678118654757</v>
       </c>
       <c r="G357">
         <v>0.3</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B358">
-        <f t="shared" ref="B358:G358" si="20">(SQRT(B355-1))*B357</f>
+        <f t="shared" si="24"/>
         <v>3.5355339059327378</v>
       </c>
       <c r="C358">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2.8284271247461903</v>
       </c>
       <c r="D358">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.70710678118654757</v>
       </c>
-      <c r="E358">
-        <f t="shared" si="20"/>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="F358">
-        <f t="shared" si="20"/>
-        <v>0.70710678118654757</v>
-      </c>
       <c r="G358">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.42426406871192851</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="15">
+    <row r="360" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="10"/>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="s">
         <v>32</v>
       </c>
@@ -9489,7 +9534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="15">
+    <row r="362" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
         <v>26</v>
       </c>
@@ -9500,7 +9545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="15">
+    <row r="363" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
         <v>0</v>
       </c>
@@ -9511,7 +9556,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="15">
+    <row r="364" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
         <v>27</v>
       </c>
@@ -9522,7 +9567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="9" t="s">
         <v>25</v>
       </c>
@@ -9534,27 +9579,30 @@
         <f>(SQRT(C362-1))*C364</f>
         <v>70.710678118654755</v>
       </c>
-    </row>
-    <row r="366" spans="1:10">
+      <c r="E365" s="6"/>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B366" s="11"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
-    </row>
-    <row r="367" spans="1:10">
+      <c r="F366" s="6"/>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
-      <c r="E367" s="6"/>
-      <c r="F367" s="6"/>
+      <c r="E367" t="s">
+        <v>14</v>
+      </c>
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>30</v>
       </c>
@@ -9567,12 +9615,12 @@
       <c r="D368" t="s">
         <v>89</v>
       </c>
-      <c r="E368" t="s">
-        <v>14</v>
+      <c r="E368">
+        <v>3</v>
       </c>
       <c r="J368" s="2"/>
     </row>
-    <row r="369" spans="1:13" ht="15">
+    <row r="369" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>26</v>
       </c>
@@ -9585,12 +9633,13 @@
       <c r="D369">
         <v>3</v>
       </c>
-      <c r="E369">
-        <v>3</v>
-      </c>
+      <c r="E369" s="2">
+        <v>11</v>
+      </c>
+      <c r="F369" s="3"/>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:13" ht="15">
+    <row r="370" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>0</v>
       </c>
@@ -9604,7 +9653,7 @@
         <v>9</v>
       </c>
       <c r="E370" s="2">
-        <v>11</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F370" s="3"/>
       <c r="G370" s="2"/>
@@ -9612,10 +9661,10 @@
       <c r="I370" s="6"/>
       <c r="J370" s="2"/>
       <c r="M370" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" ht="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>27</v>
       </c>
@@ -9628,16 +9677,16 @@
       <c r="D371" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E371" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F371" s="3"/>
+      <c r="E371">
+        <f>(SQRT(E368-1))*E370</f>
+        <v>6.2225396744416193</v>
+      </c>
       <c r="G371" s="2"/>
       <c r="H371" s="3"/>
       <c r="I371" s="6"/>
       <c r="J371" s="2"/>
     </row>
-    <row r="372" spans="1:13">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" s="4" t="s">
         <v>25</v>
       </c>
@@ -9650,31 +9699,27 @@
         <v>10.748023074035522</v>
       </c>
       <c r="D372">
-        <f t="shared" ref="D372:E372" si="21">(SQRT(D369-1))*D371</f>
+        <f>(SQRT(D369-1))*D371</f>
         <v>12.303657992645928</v>
       </c>
-      <c r="E372">
-        <f t="shared" si="21"/>
-        <v>6.2225396744416193</v>
-      </c>
       <c r="J372" s="2"/>
     </row>
-    <row r="373" spans="1:13" ht="15">
+    <row r="373" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:13" ht="15">
+    <row r="374" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B374" s="12"/>
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
     </row>
-    <row r="375" spans="1:13">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" s="4" t="s">
         <v>32</v>
       </c>
@@ -9688,7 +9733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="15">
+    <row r="376" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>26</v>
       </c>
@@ -9702,7 +9747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:13">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" s="4" t="s">
         <v>19</v>
       </c>
@@ -9716,7 +9761,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="378" spans="1:13">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" s="5" t="s">
         <v>20</v>
       </c>
@@ -9730,7 +9775,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="379" spans="1:13">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" s="5" t="s">
         <v>21</v>
       </c>
@@ -9744,24 +9789,24 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="15">
+    <row r="380" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B380" s="3">
-        <f t="shared" ref="B380:D380" si="22">AVERAGE(B377:B379)</f>
+        <f>AVERAGE(B377:B379)</f>
         <v>3.72</v>
       </c>
       <c r="C380" s="3">
-        <f t="shared" si="22"/>
+        <f>AVERAGE(C377:C379)</f>
         <v>4.376666666666666</v>
       </c>
       <c r="D380" s="3">
-        <f t="shared" si="22"/>
+        <f>AVERAGE(D377:D379)</f>
         <v>5.9866666666666672</v>
       </c>
     </row>
-    <row r="381" spans="1:13">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
         <v>22</v>
       </c>
@@ -9775,7 +9820,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:13">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
         <v>23</v>
       </c>
@@ -9789,7 +9834,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="383" spans="1:13">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
         <v>24</v>
       </c>
@@ -9803,41 +9848,41 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="15">
+    <row r="384" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B384" s="3">
-        <f t="shared" ref="B384:D384" si="23">AVERAGE(B381:B383)</f>
+        <f>AVERAGE(B381:B383)</f>
         <v>0.89666666666666661</v>
       </c>
       <c r="C384" s="3">
-        <f t="shared" si="23"/>
+        <f>AVERAGE(C381:C383)</f>
         <v>1.3566666666666667</v>
       </c>
       <c r="D384" s="3">
-        <f t="shared" si="23"/>
+        <f>AVERAGE(D381:D383)</f>
         <v>1.1333333333333335</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B385" s="6">
-        <f t="shared" ref="B385:D385" si="24">(SQRT(B376-1))*B384</f>
+        <f>(SQRT(B376-1))*B384</f>
         <v>1.2680781609278753</v>
       </c>
       <c r="C385" s="6">
-        <f t="shared" si="24"/>
+        <f>(SQRT(C376-1))*C384</f>
         <v>1.9186163996194991</v>
       </c>
       <c r="D385" s="6">
-        <f t="shared" si="24"/>
+        <f>(SQRT(D376-1))*D384</f>
         <v>1.602775370689508</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" s="4" t="s">
         <v>30</v>
       </c>
@@ -9851,7 +9896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="15">
+    <row r="387" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="7" t="s">
         <v>26</v>
       </c>
@@ -9865,7 +9910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" s="4" t="s">
         <v>19</v>
       </c>
@@ -9879,7 +9924,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>20</v>
       </c>
@@ -9892,8 +9937,10 @@
       <c r="D389" s="2">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" ht="15">
+      <c r="E389" s="2"/>
+      <c r="F389" s="3"/>
+    </row>
+    <row r="390" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>21</v>
       </c>
@@ -9909,26 +9956,24 @@
       <c r="E390" s="2"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="1:9" ht="15">
+    <row r="391" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B391" s="3">
-        <f t="shared" ref="B391:D391" si="25">AVERAGE(B388:B390)</f>
+        <f>AVERAGE(B388:B390)</f>
         <v>0.25333333333333335</v>
       </c>
       <c r="C391" s="3">
-        <f t="shared" si="25"/>
+        <f>AVERAGE(C388:C390)</f>
         <v>0.37666666666666665</v>
       </c>
       <c r="D391" s="3">
-        <f t="shared" si="25"/>
+        <f>AVERAGE(D388:D390)</f>
         <v>0.46333333333333337</v>
       </c>
-      <c r="E391" s="2"/>
-      <c r="F391" s="3"/>
-    </row>
-    <row r="392" spans="1:9">
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" s="5" t="s">
         <v>22</v>
       </c>
@@ -9942,7 +9987,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="5" t="s">
         <v>23</v>
       </c>
@@ -9956,7 +10001,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="5" t="s">
         <v>24</v>
       </c>
@@ -9970,47 +10015,49 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="15">
+    <row r="395" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B395" s="3">
-        <f t="shared" ref="B395:D395" si="26">AVERAGE(B392:B394)</f>
+        <f>AVERAGE(B392:B394)</f>
         <v>0.10333333333333333</v>
       </c>
       <c r="C395" s="3">
-        <f t="shared" si="26"/>
+        <f>AVERAGE(C392:C394)</f>
         <v>0.22333333333333336</v>
       </c>
       <c r="D395" s="3">
-        <f t="shared" si="26"/>
+        <f>AVERAGE(D392:D394)</f>
         <v>0.18666666666666668</v>
       </c>
       <c r="I395" s="1"/>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B396" s="6">
-        <f t="shared" ref="B396:D396" si="27">(SQRT(B387-1))*B395</f>
+        <f>(SQRT(B387-1))*B395</f>
         <v>0.14613540144521983</v>
       </c>
       <c r="C396" s="6">
-        <f t="shared" si="27"/>
+        <f>(SQRT(C387-1))*C395</f>
         <v>0.31584102892999127</v>
       </c>
       <c r="D396" s="6">
-        <f t="shared" si="27"/>
+        <f>(SQRT(D387-1))*D395</f>
         <v>0.26398653164297775</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="E397" s="19"/>
+      <c r="F397" s="19"/>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" s="4" t="s">
         <v>32</v>
       </c>
@@ -10023,11 +10070,9 @@
       <c r="D398" t="s">
         <v>9</v>
       </c>
-      <c r="E398" s="19"/>
-      <c r="F398" s="19"/>
       <c r="G398" s="19"/>
     </row>
-    <row r="399" spans="1:9" ht="15">
+    <row r="399" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="7" t="s">
         <v>26</v>
       </c>
@@ -10040,8 +10085,9 @@
       <c r="D399">
         <v>12</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" ht="15">
+      <c r="E399" s="2"/>
+    </row>
+    <row r="400" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>0</v>
       </c>
@@ -10056,7 +10102,7 @@
       </c>
       <c r="E400" s="2"/>
     </row>
-    <row r="401" spans="1:14" ht="15">
+    <row r="401" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>27</v>
       </c>
@@ -10069,9 +10115,8 @@
       <c r="D401" s="2">
         <v>0.626</v>
       </c>
-      <c r="E401" s="2"/>
-    </row>
-    <row r="402" spans="1:14">
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" s="4" t="s">
         <v>25</v>
       </c>
@@ -10084,11 +10129,11 @@
         <v>2.0264577469071492</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402" si="28">(SQRT(D399-1))*D401</f>
+        <f>(SQRT(D399-1))*D401</f>
         <v>2.0762071187624804</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" s="4" t="s">
         <v>30</v>
       </c>
@@ -10102,7 +10147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:14" ht="15">
+    <row r="404" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>26</v>
       </c>
@@ -10116,7 +10161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:14" ht="15">
+    <row r="405" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>0</v>
       </c>
@@ -10130,7 +10175,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:14" ht="15">
+    <row r="406" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>27</v>
       </c>
@@ -10144,7 +10189,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" s="4" t="s">
         <v>25</v>
       </c>
@@ -10157,23 +10202,29 @@
         <v>0.13929824119492681</v>
       </c>
       <c r="D407">
-        <f t="shared" ref="D407" si="29">(SQRT(D404-1))*D406</f>
+        <f>(SQRT(D404-1))*D406</f>
         <v>0.16914786430812537</v>
       </c>
     </row>
-    <row r="408" spans="1:14">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C408" s="6"/>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A409" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C408" s="6"/>
-    </row>
-    <row r="409" spans="1:14">
-      <c r="A409" s="20" t="s">
-        <v>105</v>
-      </c>
       <c r="C409" s="6"/>
-    </row>
-    <row r="410" spans="1:14">
+      <c r="E409" t="s">
+        <v>63</v>
+      </c>
+      <c r="F409" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
         <v>32</v>
       </c>
@@ -10186,17 +10237,17 @@
       <c r="D410" t="s">
         <v>3</v>
       </c>
-      <c r="E410" t="s">
-        <v>63</v>
-      </c>
-      <c r="F410" t="s">
-        <v>43</v>
+      <c r="E410">
+        <v>3</v>
+      </c>
+      <c r="F410">
+        <v>3</v>
       </c>
       <c r="G410" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="411" spans="1:14" ht="15">
+    <row r="411" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>26</v>
       </c>
@@ -10209,17 +10260,17 @@
       <c r="D411">
         <v>3</v>
       </c>
-      <c r="E411">
-        <v>3</v>
-      </c>
-      <c r="F411">
-        <v>3</v>
+      <c r="E411" s="22">
+        <v>3.3</v>
+      </c>
+      <c r="F411" s="6">
+        <v>3.3</v>
       </c>
       <c r="G411">
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:14" ht="15">
+    <row r="412" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>0</v>
       </c>
@@ -10233,16 +10284,16 @@
         <v>11.6</v>
       </c>
       <c r="E412" s="22">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="F412" s="6">
-        <v>3.3</v>
+        <v>0.2</v>
       </c>
       <c r="G412" s="2">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="413" spans="1:14" ht="15">
+    <row r="413" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>27</v>
       </c>
@@ -10255,17 +10306,19 @@
       <c r="D413" s="2">
         <v>0.2</v>
       </c>
-      <c r="E413" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="F413" s="6">
-        <v>0.2</v>
+      <c r="E413">
+        <f>(SQRT(E410-1))*E412</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="F413">
+        <f>(SQRT(F410-1))*F412</f>
+        <v>0.28284271247461906</v>
       </c>
       <c r="G413" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="414" spans="1:14">
+    <row r="414" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
         <v>25</v>
       </c>
@@ -10278,19 +10331,12 @@
         <v>0.28284271247461906</v>
       </c>
       <c r="D414">
-        <f t="shared" ref="D414" si="30">(SQRT(D411-1))*D413</f>
+        <f>(SQRT(D411-1))*D413</f>
         <v>0.28284271247461906</v>
       </c>
-      <c r="E414">
-        <f>(SQRT(E411-1))*E413</f>
-        <v>0.28284271247461906</v>
-      </c>
-      <c r="F414">
-        <f>(SQRT(F411-1))*F413</f>
-        <v>0.28284271247461906</v>
-      </c>
+      <c r="E414" s="1"/>
       <c r="G414">
-        <f t="shared" ref="G414" si="31">(SQRT(G411-1))*G413</f>
+        <f>(SQRT(G411-1))*G413</f>
         <v>0.56568542494923812</v>
       </c>
       <c r="H414" s="6"/>
@@ -10301,7 +10347,7 @@
       <c r="M414" s="6"/>
       <c r="N414" s="6"/>
     </row>
-    <row r="415" spans="1:14" ht="15">
+    <row r="415" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
         <v>30</v>
       </c>
@@ -10316,7 +10362,7 @@
       </c>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:14" ht="15">
+    <row r="416" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>26</v>
       </c>
@@ -10331,7 +10377,7 @@
       </c>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:7" ht="15">
+    <row r="417" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>0</v>
       </c>
@@ -10344,9 +10390,8 @@
       <c r="D417" s="2">
         <v>62.5</v>
       </c>
-      <c r="E417" s="1"/>
-    </row>
-    <row r="418" spans="1:7" ht="15">
+    </row>
+    <row r="418" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>27</v>
       </c>
@@ -10360,7 +10405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="4" t="s">
         <v>25</v>
       </c>
@@ -10373,17 +10418,23 @@
         <v>8.4852813742385713</v>
       </c>
       <c r="D419">
-        <f t="shared" ref="D419" si="32">(SQRT(D416-1))*D418</f>
+        <f>(SQRT(D416-1))*D418</f>
         <v>9.8994949366116654</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C420" s="6"/>
-    </row>
-    <row r="421" spans="1:7">
+      <c r="E420" t="s">
+        <v>63</v>
+      </c>
+      <c r="F420" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="4" t="s">
         <v>32</v>
       </c>
@@ -10396,17 +10447,17 @@
       <c r="D421" t="s">
         <v>3</v>
       </c>
-      <c r="E421" t="s">
-        <v>63</v>
-      </c>
-      <c r="F421" t="s">
-        <v>43</v>
+      <c r="E421">
+        <v>3</v>
+      </c>
+      <c r="F421">
+        <v>3</v>
       </c>
       <c r="G421" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="15">
+    <row r="422" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>26</v>
       </c>
@@ -10419,17 +10470,17 @@
       <c r="D422">
         <v>3</v>
       </c>
-      <c r="E422">
-        <v>3</v>
-      </c>
-      <c r="F422">
-        <v>3</v>
+      <c r="E422" s="22">
+        <v>1.6</v>
+      </c>
+      <c r="F422" s="6">
+        <v>1.6</v>
       </c>
       <c r="G422">
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="15">
+    <row r="423" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>0</v>
       </c>
@@ -10443,16 +10494,16 @@
         <v>5.7</v>
       </c>
       <c r="E423" s="22">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="F423" s="6">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="G423" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="15">
+    <row r="424" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>27</v>
       </c>
@@ -10465,17 +10516,19 @@
       <c r="D424" s="2">
         <v>0.3</v>
       </c>
-      <c r="E424" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="F424" s="6">
-        <v>0.2</v>
+      <c r="E424">
+        <f>(SQRT(E421-1))*E423</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="F424">
+        <f>(SQRT(F421-1))*F423</f>
+        <v>0.28284271247461906</v>
       </c>
       <c r="G424" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="4" t="s">
         <v>25</v>
       </c>
@@ -10488,23 +10541,16 @@
         <v>0.28284271247461906</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425" si="33">(SQRT(D422-1))*D424</f>
+        <f>(SQRT(D422-1))*D424</f>
         <v>0.42426406871192851</v>
       </c>
-      <c r="E425">
-        <f>(SQRT(E422-1))*E424</f>
-        <v>0.28284271247461906</v>
-      </c>
-      <c r="F425">
-        <f>(SQRT(F422-1))*F424</f>
-        <v>0.28284271247461906</v>
-      </c>
+      <c r="E425" s="6"/>
       <c r="G425">
-        <f t="shared" ref="G425" si="34">(SQRT(G422-1))*G424</f>
+        <f>(SQRT(G422-1))*G424</f>
         <v>0.42426406871192851</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
         <v>30</v>
       </c>
@@ -10517,9 +10563,9 @@
       <c r="D426" t="s">
         <v>97</v>
       </c>
-      <c r="E426" s="6"/>
-    </row>
-    <row r="427" spans="1:7" ht="15">
+      <c r="E426" s="1"/>
+    </row>
+    <row r="427" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>26</v>
       </c>
@@ -10532,9 +10578,8 @@
       <c r="D427">
         <v>3</v>
       </c>
-      <c r="E427" s="1"/>
-    </row>
-    <row r="428" spans="1:7" ht="15">
+    </row>
+    <row r="428" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="7" t="s">
         <v>0</v>
       </c>
@@ -10548,7 +10593,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="15">
+    <row r="429" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
         <v>27</v>
       </c>
@@ -10562,7 +10607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
         <v>25</v>
       </c>
@@ -10575,20 +10620,20 @@
         <v>2.8284271247461903</v>
       </c>
       <c r="D430">
-        <f t="shared" ref="D430" si="35">(SQRT(D427-1))*D429</f>
+        <f>(SQRT(D427-1))*D429</f>
         <v>2.8284271247461903</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" ht="15">
+      <c r="E430" s="1"/>
+    </row>
+    <row r="431" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
-      <c r="E431" s="1"/>
-    </row>
-    <row r="432" spans="1:7">
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
         <v>32</v>
       </c>
@@ -10599,7 +10644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="15">
+    <row r="433" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>26</v>
       </c>
@@ -10610,7 +10655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="15">
+    <row r="434" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>0</v>
       </c>
@@ -10621,7 +10666,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="15">
+    <row r="435" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>27</v>
       </c>
@@ -10631,8 +10676,9 @@
       <c r="C435" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:7">
+      <c r="E435" s="6"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="4" t="s">
         <v>25</v>
       </c>
@@ -10641,12 +10687,11 @@
         <v>2.4</v>
       </c>
       <c r="C436">
-        <f t="shared" ref="C436" si="36">(SQRT(C433-1))*C435</f>
+        <f>(SQRT(C433-1))*C435</f>
         <v>2</v>
       </c>
-      <c r="E436" s="6"/>
-    </row>
-    <row r="437" spans="1:7">
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="4" t="s">
         <v>30</v>
       </c>
@@ -10657,7 +10702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="15">
+    <row r="438" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
         <v>26</v>
       </c>
@@ -10668,7 +10713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="15">
+    <row r="439" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
         <v>0</v>
       </c>
@@ -10679,7 +10724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="15">
+    <row r="440" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
         <v>27</v>
       </c>
@@ -10690,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="4" t="s">
         <v>25</v>
       </c>
@@ -10699,19 +10744,25 @@
         <v>2</v>
       </c>
       <c r="C441">
-        <f t="shared" ref="C441" si="37">(SQRT(C438-1))*C440</f>
+        <f>(SQRT(C438-1))*C440</f>
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B442" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="E442" t="s">
+        <v>97</v>
+      </c>
+      <c r="F442" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="4" t="s">
         <v>32</v>
       </c>
@@ -10724,17 +10775,17 @@
       <c r="D443" t="s">
         <v>63</v>
       </c>
-      <c r="E443" t="s">
-        <v>97</v>
-      </c>
-      <c r="F443" t="s">
-        <v>41</v>
+      <c r="E443">
+        <v>1</v>
+      </c>
+      <c r="F443">
+        <v>1</v>
       </c>
       <c r="G443" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="15">
+    <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
         <v>26</v>
       </c>
@@ -10748,16 +10799,17 @@
         <v>1</v>
       </c>
       <c r="E444">
-        <v>1</v>
+        <f>4.7+20.3+8.3</f>
+        <v>33.299999999999997</v>
       </c>
       <c r="F444">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G444">
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="15">
+    <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="7" t="s">
         <v>0</v>
       </c>
@@ -10772,17 +10824,17 @@
         <v>17.8</v>
       </c>
       <c r="E445">
-        <f>4.7+20.3+8.3</f>
-        <v>33.299999999999997</v>
+        <f>0.9+1.2+0.4</f>
+        <v>2.5</v>
       </c>
       <c r="F445">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="G445">
         <v>1.9</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="15">
+    <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
         <v>27</v>
       </c>
@@ -10797,17 +10849,18 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E446">
-        <f>0.9+1.2+0.4</f>
-        <v>2.5</v>
+        <f t="shared" ref="C446:E447" si="25">(SQRT(E443-1))*E445</f>
+        <v>0</v>
       </c>
       <c r="F446">
-        <v>0.2</v>
+        <f>(SQRT(F443-1))*F445</f>
+        <v>0</v>
       </c>
       <c r="G446">
         <v>0.5</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="4" t="s">
         <v>25</v>
       </c>
@@ -10816,27 +10869,22 @@
         <v>0</v>
       </c>
       <c r="C447">
-        <f t="shared" ref="C447:E447" si="38">(SQRT(C444-1))*C446</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D447">
-        <f t="shared" si="38"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E447">
-        <f t="shared" si="38"/>
+      <c r="E447" t="s">
+        <v>9</v>
+      </c>
+      <c r="G447">
+        <f>(SQRT(G444-1))*G446</f>
         <v>0</v>
       </c>
-      <c r="F447">
-        <f t="shared" ref="F447:G447" si="39">(SQRT(F444-1))*F446</f>
-        <v>0</v>
-      </c>
-      <c r="G447">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7">
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
         <v>30</v>
       </c>
@@ -10849,11 +10897,11 @@
       <c r="D448" t="s">
         <v>41</v>
       </c>
-      <c r="E448" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="449" spans="1:15" ht="15">
+      <c r="E448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
         <v>26</v>
       </c>
@@ -10870,7 +10918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="15">
+    <row r="450" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
         <v>0</v>
       </c>
@@ -10884,10 +10932,10 @@
         <v>0.1</v>
       </c>
       <c r="E450">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:15" ht="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="7" t="s">
         <v>27</v>
       </c>
@@ -10901,10 +10949,11 @@
         <v>0</v>
       </c>
       <c r="E451">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="452" spans="1:15">
+        <f t="shared" ref="C451:E452" si="26">(SQRT(E448-1))*E450</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="4" t="s">
         <v>25</v>
       </c>
@@ -10913,24 +10962,20 @@
         <v>0</v>
       </c>
       <c r="C452">
-        <f t="shared" ref="C452:E452" si="40">(SQRT(C449-1))*C451</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D452">
-        <f t="shared" si="40"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="E452">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:15">
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="454" spans="1:15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="4" t="s">
         <v>30</v>
       </c>
@@ -10944,7 +10989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="15">
+    <row r="455" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="7" t="s">
         <v>26</v>
       </c>
@@ -10958,7 +11003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="15">
+    <row r="456" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
         <v>0</v>
       </c>
@@ -10971,8 +11016,10 @@
       <c r="D456" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="457" spans="1:15" ht="15">
+      <c r="E456" s="1"/>
+      <c r="F456" s="1"/>
+    </row>
+    <row r="457" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="7" t="s">
         <v>27</v>
       </c>
@@ -10997,7 +11044,7 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
     </row>
-    <row r="458" spans="1:15" ht="15">
+    <row r="458" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
         <v>25</v>
       </c>
@@ -11006,11 +11053,11 @@
         <v>1.4142135623730951</v>
       </c>
       <c r="C458">
-        <f t="shared" ref="C458:D458" si="41">(SQRT(C455-1))*C457</f>
+        <f>(SQRT(C455-1))*C457</f>
         <v>0.70710678118654757</v>
       </c>
       <c r="D458">
-        <f t="shared" si="41"/>
+        <f>(SQRT(D455-1))*D457</f>
         <v>7.0710678118654755</v>
       </c>
       <c r="E458" s="1"/>
@@ -11025,15 +11072,13 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
     </row>
-    <row r="459" spans="1:15" ht="15">
+    <row r="459" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
-      <c r="E459" s="1"/>
-      <c r="F459" s="1"/>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
@@ -11044,12 +11089,15 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
     </row>
-    <row r="460" spans="1:15" ht="15">
+    <row r="460" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="461" spans="1:15">
+        <v>111</v>
+      </c>
+      <c r="E460" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="4" t="s">
         <v>30</v>
       </c>
@@ -11062,8 +11110,8 @@
       <c r="D461" t="s">
         <v>41</v>
       </c>
-      <c r="E461" s="6" t="s">
-        <v>9</v>
+      <c r="E461">
+        <v>10</v>
       </c>
       <c r="G461" s="6"/>
       <c r="H461" s="6"/>
@@ -11074,7 +11122,7 @@
       <c r="M461" s="6"/>
       <c r="O461" s="6"/>
     </row>
-    <row r="462" spans="1:15" ht="15">
+    <row r="462" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="7" t="s">
         <v>26</v>
       </c>
@@ -11087,8 +11135,8 @@
       <c r="D462">
         <v>10</v>
       </c>
-      <c r="E462">
-        <v>10</v>
+      <c r="E462" s="2">
+        <v>0.2</v>
       </c>
       <c r="G462" s="6"/>
       <c r="H462" s="6"/>
@@ -11099,7 +11147,7 @@
       <c r="M462" s="6"/>
       <c r="O462" s="6"/>
     </row>
-    <row r="463" spans="1:15" ht="15">
+    <row r="463" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>0</v>
       </c>
@@ -11113,7 +11161,7 @@
         <v>0.1</v>
       </c>
       <c r="E463" s="2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G463" s="6"/>
       <c r="H463" s="6"/>
@@ -11124,7 +11172,7 @@
       <c r="M463" s="6"/>
       <c r="O463" s="6"/>
     </row>
-    <row r="464" spans="1:15" ht="15">
+    <row r="464" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
         <v>27</v>
       </c>
@@ -11137,11 +11185,12 @@
       <c r="D464" s="22">
         <v>0.1</v>
       </c>
-      <c r="E464" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+      <c r="E464">
+        <f>(SQRT(E461-1))*E463</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="4" t="s">
         <v>25</v>
       </c>
@@ -11150,24 +11199,20 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="C465">
-        <f t="shared" ref="C465:E465" si="42">(SQRT(C462-1))*C464</f>
+        <f>(SQRT(C462-1))*C464</f>
         <v>7.5</v>
       </c>
       <c r="D465">
         <f>(SQRT(D462-1))*D464</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="E465">
-        <f t="shared" si="42"/>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5" ht="15">
+    </row>
+    <row r="466" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="4" t="s">
         <v>30</v>
       </c>
@@ -11178,7 +11223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="15">
+    <row r="468" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="7" t="s">
         <v>26</v>
       </c>
@@ -11189,7 +11234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="15">
+    <row r="469" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="7" t="s">
         <v>0</v>
       </c>
@@ -11200,7 +11245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="15">
+    <row r="470" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="7" t="s">
         <v>27</v>
       </c>
@@ -11211,7 +11256,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="4" t="s">
         <v>25</v>
       </c>
@@ -11220,16 +11265,16 @@
         <v>9.1678787077491375</v>
       </c>
       <c r="C471">
-        <f t="shared" ref="C471" si="43">(SQRT(C468-1))*C470</f>
+        <f>(SQRT(C468-1))*C470</f>
         <v>11.403946685248927</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="15">
+    <row r="472" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="4" t="s">
         <v>30</v>
       </c>
@@ -11240,7 +11285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="15">
+    <row r="474" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
         <v>26</v>
       </c>
@@ -11251,7 +11296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="15">
+    <row r="475" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
         <v>0</v>
       </c>
@@ -11262,7 +11307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="15">
+    <row r="476" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="7" t="s">
         <v>27</v>
       </c>
@@ -11273,7 +11318,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="4" t="s">
         <v>25</v>
       </c>
@@ -11282,16 +11327,16 @@
         <v>4.1569219381653051</v>
       </c>
       <c r="C477">
-        <f t="shared" ref="C477" si="44">(SQRT(C474-1))*C476</f>
+        <f>(SQRT(C474-1))*C476</f>
         <v>11.085125168440815</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="15">
+    <row r="478" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="4" t="s">
         <v>30</v>
       </c>
@@ -11302,7 +11347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="15">
+    <row r="480" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
         <v>26</v>
       </c>
@@ -11313,7 +11358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="15">
+    <row r="481" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
         <v>0</v>
       </c>
@@ -11324,7 +11369,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="15">
+    <row r="482" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="7" t="s">
         <v>27</v>
       </c>
@@ -11335,7 +11380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="4" t="s">
         <v>25</v>
       </c>
@@ -11344,16 +11389,16 @@
         <v>20.091789367798974</v>
       </c>
       <c r="C483">
-        <f t="shared" ref="C483" si="45">(SQRT(C480-1))*C482</f>
+        <f>(SQRT(C480-1))*C482</f>
         <v>12.124355652982141</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="15">
+    <row r="484" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="4" t="s">
         <v>32</v>
       </c>
@@ -11364,7 +11409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="15">
+    <row r="486" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
         <v>26</v>
       </c>
@@ -11375,7 +11420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="15">
+    <row r="487" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="7" t="s">
         <v>0</v>
       </c>
@@ -11386,7 +11431,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="15">
+    <row r="488" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="7" t="s">
         <v>27</v>
       </c>
@@ -11397,7 +11442,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="4" t="s">
         <v>25</v>
       </c>
@@ -11406,16 +11451,16 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="C489">
-        <f t="shared" ref="C489" si="46">(SQRT(C486-1))*C488</f>
+        <f>(SQRT(C486-1))*C488</f>
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="15">
+    <row r="490" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="4" t="s">
         <v>32</v>
       </c>
@@ -11426,7 +11471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="15">
+    <row r="492" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
         <v>26</v>
       </c>
@@ -11437,7 +11482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="15">
+    <row r="493" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>0</v>
       </c>
@@ -11448,7 +11493,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="15">
+    <row r="494" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
         <v>27</v>
       </c>
@@ -11459,7 +11504,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="4" t="s">
         <v>25</v>
       </c>
@@ -11468,16 +11513,16 @@
         <v>0.89442719099991597</v>
       </c>
       <c r="C495">
-        <f t="shared" ref="C495" si="47">(SQRT(C492-1))*C494</f>
+        <f>(SQRT(C492-1))*C494</f>
         <v>1.7888543819998319</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="15">
+    <row r="496" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A496" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="4" t="s">
         <v>32</v>
       </c>
@@ -11488,7 +11533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="15">
+    <row r="498" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
         <v>26</v>
       </c>
@@ -11499,7 +11544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="15">
+    <row r="499" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>0</v>
       </c>
@@ -11510,7 +11555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="15">
+    <row r="500" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
         <v>27</v>
       </c>
@@ -11521,7 +11566,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="4" t="s">
         <v>25</v>
       </c>
@@ -11530,122 +11575,122 @@
         <v>0.34641016151377546</v>
       </c>
       <c r="C501">
-        <f t="shared" ref="C501" si="48">(SQRT(C498-1))*C500</f>
+        <f>(SQRT(C498-1))*C500</f>
         <v>0.51961524227066314</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="20"/>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="12"/>
     </row>
-    <row r="504" spans="1:3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="12"/>
     </row>
-    <row r="505" spans="1:3" ht="15">
+    <row r="505" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A505" s="3"/>
     </row>
-    <row r="506" spans="1:3" ht="15">
+    <row r="506" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A506" s="3"/>
     </row>
-    <row r="507" spans="1:3" ht="15">
+    <row r="507" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A507" s="3"/>
     </row>
-    <row r="508" spans="1:3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="12"/>
     </row>
-    <row r="509" spans="1:3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
     </row>
-    <row r="510" spans="1:3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="12"/>
     </row>
-    <row r="511" spans="1:3" ht="15">
+    <row r="511" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A511" s="3"/>
     </row>
-    <row r="512" spans="1:3" ht="15">
+    <row r="512" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A512" s="3"/>
     </row>
-    <row r="513" spans="1:1" ht="15">
+    <row r="513" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A513" s="3"/>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="12"/>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="12"/>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="12"/>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="12"/>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="12"/>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="12"/>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="12"/>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="12"/>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="12"/>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="12"/>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="12"/>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="12"/>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="12"/>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="12"/>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="12"/>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="12"/>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="12"/>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="12"/>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="12"/>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="12"/>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="12"/>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="12"/>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="12"/>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="12"/>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="12"/>
     </row>
   </sheetData>
@@ -11656,52 +11701,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>100</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>101</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="Control 2"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>100</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>101</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="Control 1"/>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11714,7 +11759,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11726,7 +11771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
+++ b/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="119">
   <si>
     <t>mean</t>
   </si>
@@ -368,6 +368,12 @@
   <si>
     <t>Shive+Sieg</t>
   </si>
+  <si>
+    <t>This was Canopy Cover</t>
+  </si>
+  <si>
+    <t>This is the correct data</t>
+  </si>
 </sst>
 </file>
 
@@ -532,15 +538,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>54429</xdr:colOff>
-          <xdr:row>99</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>40821</xdr:colOff>
+          <xdr:row>102</xdr:row>
+          <xdr:rowOff>13607</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>273504</xdr:colOff>
-          <xdr:row>100</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>193221</xdr:colOff>
+          <xdr:row>102</xdr:row>
+          <xdr:rowOff>175532</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -573,15 +579,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>54429</xdr:colOff>
-          <xdr:row>99</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>40821</xdr:colOff>
+          <xdr:row>102</xdr:row>
+          <xdr:rowOff>13607</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>273504</xdr:colOff>
-          <xdr:row>100</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>193221</xdr:colOff>
+          <xdr:row>102</xdr:row>
+          <xdr:rowOff>175532</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -902,8 +908,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AR539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A262" sqref="A262"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3899,113 +3905,154 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="24" t="s">
         <v>51</v>
       </c>
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="F97" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="11">
         <v>20</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="11">
         <v>20</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="11">
         <v>20</v>
       </c>
+      <c r="F99" s="6">
+        <v>20</v>
+      </c>
+      <c r="G99" s="6">
+        <v>20</v>
+      </c>
+      <c r="H99" s="6">
+        <v>20</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="11">
         <v>52.3</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="11">
         <v>37.6</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="11">
         <v>53.7</v>
       </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="11">
         <v>4.2</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="11">
         <v>2.8</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="11">
         <v>4.4000000000000004</v>
       </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="11">
         <f>(SQRT(B99-1))*B101</f>
         <v>18.307375562870831</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="11">
         <f>(SQRT(C99-1))*C101</f>
         <v>12.204917041913886</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="11">
         <f>(SQRT(D99-1))*D101</f>
         <v>19.179155351578967</v>
       </c>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C103">
+      <c r="B103" s="11"/>
+      <c r="C103" s="11">
         <v>-1.2418</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="11">
         <v>9.8100000000000007E-2</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C104">
+      <c r="B104" s="11"/>
+      <c r="C104" s="11">
         <v>-2.1156000000000001</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="11">
         <v>-0.70250000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C105">
+      <c r="B105" s="11"/>
+      <c r="C105" s="11">
         <v>-0.3679</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="11">
         <v>0.89880000000000004</v>
       </c>
     </row>
@@ -11701,52 +11748,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>100</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>102</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>101</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>102</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId6" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>100</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>102</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>101</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:colOff>190500</xdr:colOff>
+                <xdr:row>102</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1025" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
+++ b/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="119">
   <si>
     <t>mean</t>
   </si>
@@ -481,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -509,6 +509,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,15 +539,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>40821</xdr:colOff>
+          <xdr:colOff>35379</xdr:colOff>
           <xdr:row>102</xdr:row>
-          <xdr:rowOff>13607</xdr:rowOff>
+          <xdr:rowOff>10886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>193221</xdr:colOff>
-          <xdr:row>102</xdr:row>
-          <xdr:rowOff>175532</xdr:rowOff>
+          <xdr:colOff>254454</xdr:colOff>
+          <xdr:row>103</xdr:row>
+          <xdr:rowOff>54429</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -579,15 +580,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>40821</xdr:colOff>
+          <xdr:colOff>35379</xdr:colOff>
           <xdr:row>102</xdr:row>
-          <xdr:rowOff>13607</xdr:rowOff>
+          <xdr:rowOff>10886</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>193221</xdr:colOff>
-          <xdr:row>102</xdr:row>
-          <xdr:rowOff>175532</xdr:rowOff>
+          <xdr:colOff>254454</xdr:colOff>
+          <xdr:row>103</xdr:row>
+          <xdr:rowOff>54429</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -908,8 +909,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AR539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6709,12 +6710,6 @@
       <c r="A255" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E255" t="s">
-        <v>14</v>
-      </c>
-      <c r="F255" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
@@ -6729,11 +6724,11 @@
       <c r="D256" t="s">
         <v>13</v>
       </c>
-      <c r="E256">
-        <v>36</v>
-      </c>
-      <c r="F256">
-        <v>94</v>
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
       </c>
       <c r="G256" t="s">
         <v>11</v>
@@ -6759,10 +6754,10 @@
         <v>94</v>
       </c>
       <c r="E257">
-        <v>-0.15625</v>
+        <v>36</v>
       </c>
       <c r="F257">
-        <v>1.4062499999999998</v>
+        <v>94</v>
       </c>
       <c r="G257">
         <v>36</v>
@@ -6788,10 +6783,10 @@
         <v>-0.15625</v>
       </c>
       <c r="E258">
-        <v>1.25</v>
+        <v>-0.15625</v>
       </c>
       <c r="F258">
-        <v>2.34375</v>
+        <v>1.4062499999999998</v>
       </c>
       <c r="G258">
         <v>3.75</v>
@@ -6817,12 +6812,10 @@
         <v>0.78125</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="D259:I260" si="13">(SQRT(E256-1))*E258</f>
-        <v>7.3950997288745199</v>
+        <v>1.25</v>
       </c>
       <c r="F259">
-        <f t="shared" si="13"/>
-        <v>22.602306471077238</v>
+        <v>2.34375</v>
       </c>
       <c r="G259">
         <v>3.2812499999999996</v>
@@ -6847,8 +6840,16 @@
         <v>22.074924563804537</v>
       </c>
       <c r="D260">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D259:I260" si="13">(SQRT(D257-1))*D259</f>
         <v>7.534102157025746</v>
+      </c>
+      <c r="E260">
+        <f>(SQRT(E257-1))*E259</f>
+        <v>7.3950997288745199</v>
+      </c>
+      <c r="F260">
+        <f>(SQRT(F257-1))*F259</f>
+        <v>22.602306471077238</v>
       </c>
       <c r="G260">
         <f t="shared" si="13"/>
@@ -6872,12 +6873,6 @@
       <c r="A262" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E262" t="s">
-        <v>89</v>
-      </c>
-      <c r="F262" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="263" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A263" s="9" t="s">
@@ -6892,11 +6887,11 @@
       <c r="D263" t="s">
         <v>3</v>
       </c>
-      <c r="E263">
-        <v>3</v>
-      </c>
-      <c r="F263">
-        <v>3</v>
+      <c r="E263" t="s">
+        <v>89</v>
+      </c>
+      <c r="F263" t="s">
+        <v>14</v>
       </c>
       <c r="G263" t="s">
         <v>15</v>
@@ -6934,10 +6929,10 @@
         <v>3</v>
       </c>
       <c r="E264">
-        <v>3.5000000000000018</v>
+        <v>3</v>
       </c>
       <c r="F264">
-        <v>2.3100000000000009</v>
+        <v>3</v>
       </c>
       <c r="G264">
         <v>3</v>
@@ -6975,10 +6970,10 @@
         <v>11.428571428571427</v>
       </c>
       <c r="E265">
-        <v>3.780000000000002</v>
+        <v>3.5000000000000018</v>
       </c>
       <c r="F265">
-        <v>1.9600000000000009</v>
+        <v>2.3100000000000009</v>
       </c>
       <c r="G265">
         <v>2.100000000000001</v>
@@ -7016,12 +7011,10 @@
         <v>9.3877551020408152</v>
       </c>
       <c r="E266">
-        <f t="shared" ref="B266:M267" si="14">AVERAGE(E264:E265)</f>
-        <v>3.6400000000000019</v>
+        <v>3.780000000000002</v>
       </c>
       <c r="F266">
-        <f t="shared" si="14"/>
-        <v>2.1350000000000007</v>
+        <v>1.9600000000000009</v>
       </c>
       <c r="G266">
         <v>3.3600000000000012</v>
@@ -7050,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="B267">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B266:M267" si="14">AVERAGE(B265:B266)</f>
         <v>23.265306122448976</v>
       </c>
       <c r="C267">
@@ -7062,10 +7055,12 @@
         <v>10.408163265306122</v>
       </c>
       <c r="E267">
-        <v>0.70000000000000029</v>
+        <f>AVERAGE(E265:E266)</f>
+        <v>3.6400000000000019</v>
       </c>
       <c r="F267">
-        <v>0.63000000000000034</v>
+        <f>AVERAGE(F265:F266)</f>
+        <v>2.1350000000000007</v>
       </c>
       <c r="G267">
         <f t="shared" si="14"/>
@@ -7113,7 +7108,7 @@
         <v>0.70000000000000029</v>
       </c>
       <c r="F268">
-        <v>0.56000000000000028</v>
+        <v>0.63000000000000034</v>
       </c>
       <c r="G268">
         <v>0.42000000000000015</v>
@@ -7151,12 +7146,10 @@
         <v>5.3061224489795915</v>
       </c>
       <c r="E269">
-        <f t="shared" ref="B269:M270" si="15">AVERAGE(E267:E268)</f>
         <v>0.70000000000000029</v>
       </c>
       <c r="F269">
-        <f t="shared" si="15"/>
-        <v>0.59500000000000031</v>
+        <v>0.56000000000000028</v>
       </c>
       <c r="G269">
         <v>0.70000000000000029</v>
@@ -7185,7 +7178,7 @@
         <v>27</v>
       </c>
       <c r="B270">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B269:M270" si="15">AVERAGE(B268:B269)</f>
         <v>3.8775510204081631</v>
       </c>
       <c r="C270">
@@ -7197,12 +7190,12 @@
         <v>5.3061224489795915</v>
       </c>
       <c r="E270">
-        <f t="shared" ref="B270:M271" si="16">(SQRT(E263-1))*E269</f>
-        <v>0.98994949366116702</v>
+        <f>AVERAGE(E268:E269)</f>
+        <v>0.70000000000000029</v>
       </c>
       <c r="F270">
-        <f t="shared" si="16"/>
-        <v>0.84145706961199207</v>
+        <f>AVERAGE(F268:F269)</f>
+        <v>0.59500000000000031</v>
       </c>
       <c r="G270">
         <f t="shared" si="15"/>
@@ -7238,7 +7231,7 @@
         <v>25</v>
       </c>
       <c r="B271">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B270:M271" si="16">(SQRT(B264-1))*B270</f>
         <v>5.4836852418548583</v>
       </c>
       <c r="C271">
@@ -7281,12 +7274,6 @@
     <row r="272" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A272" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="E272" t="s">
-        <v>89</v>
-      </c>
-      <c r="F272" t="s">
-        <v>14</v>
       </c>
       <c r="Y272" s="12"/>
       <c r="Z272" s="12"/>
@@ -7311,11 +7298,11 @@
       <c r="D273" t="s">
         <v>3</v>
       </c>
-      <c r="E273">
-        <v>3</v>
-      </c>
-      <c r="F273">
-        <v>3</v>
+      <c r="E273" t="s">
+        <v>89</v>
+      </c>
+      <c r="F273" t="s">
+        <v>14</v>
       </c>
       <c r="G273" t="s">
         <v>15</v>
@@ -7362,10 +7349,10 @@
         <v>3</v>
       </c>
       <c r="E274">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F274">
-        <v>3.4999999999999996</v>
+        <v>3</v>
       </c>
       <c r="G274">
         <v>3</v>
@@ -7412,10 +7399,10 @@
         <v>5.25</v>
       </c>
       <c r="E275">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="F275">
-        <v>8</v>
+        <v>3.4999999999999996</v>
       </c>
       <c r="G275">
         <v>4.7499999999999991</v>
@@ -7462,12 +7449,10 @@
         <v>1</v>
       </c>
       <c r="E276">
-        <f t="shared" ref="B276:M277" si="17">AVERAGE(E274:E275)</f>
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="F276">
-        <f t="shared" si="17"/>
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="G276">
         <v>16.75</v>
@@ -7505,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="B277">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="B276:M277" si="17">AVERAGE(B275:B276)</f>
         <v>12.625</v>
       </c>
       <c r="C277">
@@ -7517,10 +7502,12 @@
         <v>3.125</v>
       </c>
       <c r="E277">
-        <v>2</v>
+        <f>AVERAGE(E275:E276)</f>
+        <v>9.25</v>
       </c>
       <c r="F277">
-        <v>0.74999999999999989</v>
+        <f>AVERAGE(F275:F276)</f>
+        <v>5.75</v>
       </c>
       <c r="G277">
         <f t="shared" si="17"/>
@@ -7574,10 +7561,10 @@
         <v>4.5</v>
       </c>
       <c r="E278">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F278">
-        <v>1.4999999999999998</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="G278">
         <v>0.74999999999999989</v>
@@ -7624,12 +7611,10 @@
         <v>0.5</v>
       </c>
       <c r="E279">
-        <f t="shared" ref="B279:M280" si="18">AVERAGE(E277:E278)</f>
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="F279">
-        <f t="shared" si="18"/>
-        <v>1.1249999999999998</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="G279">
         <v>3.75</v>
@@ -7667,7 +7652,7 @@
         <v>27</v>
       </c>
       <c r="B280">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="B279:M280" si="18">AVERAGE(B278:B279)</f>
         <v>3.3749999999999996</v>
       </c>
       <c r="C280">
@@ -7679,12 +7664,12 @@
         <v>2.5</v>
       </c>
       <c r="E280">
-        <f>(SQRT(E273-1))*E279</f>
-        <v>3.1819805153394642</v>
+        <f>AVERAGE(E278:E279)</f>
+        <v>2.25</v>
       </c>
       <c r="F280">
-        <f t="shared" si="18"/>
-        <v>1.3124999999999998</v>
+        <f>AVERAGE(F278:F279)</f>
+        <v>1.1249999999999998</v>
       </c>
       <c r="G280">
         <f t="shared" si="18"/>
@@ -7739,6 +7724,14 @@
       <c r="D281">
         <f>(SQRT(D274-1))*D280</f>
         <v>3.5355339059327378</v>
+      </c>
+      <c r="E281">
+        <f>(SQRT(E274-1))*E280</f>
+        <v>3.1819805153394642</v>
+      </c>
+      <c r="F281">
+        <f>AVERAGE(F279:F280)</f>
+        <v>1.3124999999999998</v>
       </c>
       <c r="G281">
         <f t="shared" ref="G281:M281" si="19">(SQRT(G274-1))*G280</f>
@@ -8066,12 +8059,6 @@
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
-      <c r="E296" t="s">
-        <v>6</v>
-      </c>
-      <c r="F296" t="s">
-        <v>41</v>
-      </c>
       <c r="G296" s="6"/>
       <c r="H296" s="6"/>
       <c r="K296" s="6"/>
@@ -8106,11 +8093,11 @@
       <c r="D297" t="s">
         <v>4</v>
       </c>
-      <c r="E297">
+      <c r="E297" t="s">
         <v>6</v>
       </c>
-      <c r="F297">
-        <v>6</v>
+      <c r="F297" t="s">
+        <v>41</v>
       </c>
       <c r="G297" t="s">
         <v>9</v>
@@ -8154,10 +8141,10 @@
         <v>6</v>
       </c>
       <c r="E298">
-        <v>4.6276149999999996</v>
-      </c>
-      <c r="F298" s="6">
-        <v>0.41004184100000002</v>
+        <v>6</v>
+      </c>
+      <c r="F298">
+        <v>6</v>
       </c>
       <c r="G298">
         <v>6</v>
@@ -8200,11 +8187,11 @@
       <c r="D299">
         <v>2.635983264</v>
       </c>
-      <c r="E299" s="1">
-        <v>0.64435146399999998</v>
+      <c r="E299">
+        <v>4.6276149999999996</v>
       </c>
       <c r="F299" s="6">
-        <v>0.23430962299999999</v>
+        <v>0.41004184100000002</v>
       </c>
       <c r="G299" s="6">
         <v>1.9330543929999999</v>
@@ -8246,13 +8233,11 @@
       <c r="D300" s="1">
         <v>0.351464</v>
       </c>
-      <c r="E300">
-        <f t="shared" ref="D300:I301" si="20">(SQRT(E297-1))*E299</f>
-        <v>1.4408136749055085</v>
-      </c>
-      <c r="F300">
-        <f t="shared" si="20"/>
-        <v>0.52393224481034817</v>
+      <c r="E300" s="1">
+        <v>0.64435146399999998</v>
+      </c>
+      <c r="F300" s="6">
+        <v>0.23430962299999999</v>
       </c>
       <c r="G300" s="6">
         <v>0.29288702900000002</v>
@@ -8290,11 +8275,16 @@
         <v>2.7506442902854813</v>
       </c>
       <c r="D301">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="D300:I301" si="20">(SQRT(D298-1))*D300</f>
         <v>0.78589739564398609</v>
       </c>
       <c r="E301">
-        <v>4.1120999999999999</v>
+        <f>(SQRT(E298-1))*E300</f>
+        <v>1.4408136749055085</v>
+      </c>
+      <c r="F301">
+        <f>(SQRT(F298-1))*F300</f>
+        <v>0.52393224481034817</v>
       </c>
       <c r="G301">
         <f t="shared" si="20"/>
@@ -8332,7 +8322,7 @@
         <v>-0.3327</v>
       </c>
       <c r="E302">
-        <v>1.7161999999999999</v>
+        <v>4.1120999999999999</v>
       </c>
       <c r="G302">
         <v>2.5680999999999998</v>
@@ -8367,10 +8357,7 @@
         <v>94</v>
       </c>
       <c r="E303">
-        <v>6</v>
-      </c>
-      <c r="F303">
-        <v>6</v>
+        <v>1.7161999999999999</v>
       </c>
       <c r="H303" t="s">
         <v>1</v>
@@ -8411,11 +8398,11 @@
       <c r="D304">
         <v>6</v>
       </c>
-      <c r="E304" s="2">
-        <v>0.82008368200000004</v>
-      </c>
-      <c r="F304" s="3">
-        <v>0.175732218</v>
+      <c r="E304">
+        <v>6</v>
+      </c>
+      <c r="F304">
+        <v>6</v>
       </c>
       <c r="G304">
         <v>6</v>
@@ -8460,10 +8447,10 @@
         <v>0.29288702900000002</v>
       </c>
       <c r="E305" s="2">
-        <v>0.35146443500000002</v>
+        <v>0.82008368200000004</v>
       </c>
       <c r="F305" s="3">
-        <v>5.8577405999999999E-2</v>
+        <v>0.175732218</v>
       </c>
       <c r="G305" s="2">
         <v>3.1631799159999998</v>
@@ -8507,13 +8494,11 @@
       <c r="D306" s="2">
         <v>5.8577405999999999E-2</v>
       </c>
-      <c r="E306">
-        <f t="shared" ref="D306:I307" si="21">(SQRT(E303-1))*E305</f>
-        <v>0.78589836833355642</v>
-      </c>
-      <c r="F306">
-        <f t="shared" si="21"/>
-        <v>0.13098306176160404</v>
+      <c r="E306" s="2">
+        <v>0.35146443500000002</v>
+      </c>
+      <c r="F306" s="3">
+        <v>5.8577405999999999E-2</v>
       </c>
       <c r="G306" s="2">
         <v>1.9330543929999999</v>
@@ -8548,11 +8533,16 @@
         <v>3.0126104138086891</v>
       </c>
       <c r="D307">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="D306:I307" si="21">(SQRT(D304-1))*D306</f>
         <v>0.13098306176160404</v>
       </c>
       <c r="E307">
-        <v>0.93579999999999997</v>
+        <f>(SQRT(E304-1))*E306</f>
+        <v>0.78589836833355642</v>
+      </c>
+      <c r="F307">
+        <f>(SQRT(F304-1))*F306</f>
+        <v>0.13098306176160404</v>
       </c>
       <c r="G307">
         <f t="shared" si="21"/>
@@ -8583,6 +8573,9 @@
       </c>
       <c r="C308">
         <v>2.12E-2</v>
+      </c>
+      <c r="E308">
+        <v>0.93579999999999997</v>
       </c>
       <c r="G308">
         <v>0.97699999999999998</v>
@@ -9229,348 +9222,463 @@
         <v>19.595917942265423</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="8"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E339" t="s">
-        <v>12</v>
-      </c>
-      <c r="F339" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C340" t="s">
-        <v>3</v>
-      </c>
-      <c r="D340" t="s">
+      <c r="C340" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D340" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E340">
-        <v>3</v>
-      </c>
-      <c r="F340">
-        <v>3</v>
-      </c>
-      <c r="G340" t="s">
+      <c r="E340" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F340" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G340" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="I340" t="s">
+        <v>63</v>
+      </c>
+      <c r="J340" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B341">
-        <v>3</v>
-      </c>
-      <c r="C341">
-        <v>3</v>
-      </c>
-      <c r="D341">
-        <v>3</v>
-      </c>
-      <c r="E341">
-        <v>6.5</v>
-      </c>
-      <c r="F341">
-        <v>1.5</v>
-      </c>
-      <c r="G341">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B341" s="12">
+        <v>3</v>
+      </c>
+      <c r="C341" s="12">
+        <v>3</v>
+      </c>
+      <c r="D341" s="12">
+        <v>3</v>
+      </c>
+      <c r="E341" s="12">
+        <v>3</v>
+      </c>
+      <c r="F341" s="12">
+        <v>3</v>
+      </c>
+      <c r="G341" s="12">
+        <v>3</v>
+      </c>
+      <c r="I341" s="12">
+        <v>3</v>
+      </c>
+      <c r="J341" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="C342" s="12">
         <v>12</v>
       </c>
-      <c r="C342">
-        <v>5.5</v>
-      </c>
-      <c r="D342">
-        <v>4.5</v>
-      </c>
-      <c r="E342">
-        <v>0.5</v>
-      </c>
-      <c r="F342">
-        <v>0.1</v>
-      </c>
-      <c r="G342">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D342" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E342" s="12">
+        <v>7.5</v>
+      </c>
+      <c r="F342" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="G342" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="I342" s="12">
+        <v>4</v>
+      </c>
+      <c r="J342" s="12">
+        <v>11</v>
+      </c>
+      <c r="L342">
+        <f>SQRT((D343^2)+(F343^2))</f>
+        <v>0.76157731058639078</v>
+      </c>
+      <c r="M342">
+        <f>SQRT((E343^2)+(G343^2))</f>
+        <v>0.58309518948452999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="12">
         <v>0.5</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="12">
         <v>0.5</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="12">
         <v>0.7</v>
       </c>
-      <c r="E343">
-        <f>(SQRT(E340-1))*D343</f>
-        <v>0.98994949366116658</v>
-      </c>
-      <c r="F343">
-        <f>(SQRT(F340-1))*G343</f>
-        <v>7.0710678118654766E-2</v>
-      </c>
-      <c r="G343">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E343" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F343" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="G343" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="I343" s="12">
+        <v>0.76157731058639078</v>
+      </c>
+      <c r="J343" s="12">
+        <v>0.58309518948452999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B344">
-        <f>(SQRT(B341-1))*C343</f>
+      <c r="B344" s="12">
         <v>0.70710678118654757</v>
       </c>
-      <c r="C344">
-        <f>(SQRT(C341-1))*B343</f>
+      <c r="C344" s="12">
         <v>0.70710678118654757</v>
       </c>
-      <c r="D344">
-        <f>(SQRT(D341-1))*E342</f>
+      <c r="D344" s="12">
         <v>0.70710678118654757</v>
       </c>
-      <c r="G344">
-        <f>(SQRT(G341-1))*F342</f>
-        <v>0.14142135623730953</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E344" s="12">
+        <v>0.98994949366116658</v>
+      </c>
+      <c r="F344" s="12">
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="G344" s="12">
+        <v>0.42426406871192851</v>
+      </c>
+      <c r="I344" s="12">
+        <v>0.82462112512353203</v>
+      </c>
+      <c r="J344" s="12">
+        <v>1.0770329614269007</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B345" s="12"/>
+      <c r="C345" s="12"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="12"/>
+      <c r="F345" s="12"/>
+      <c r="G345" s="12"/>
+    </row>
+    <row r="346" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="10"/>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B346" s="12"/>
+      <c r="C346" s="12"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="12"/>
+      <c r="F346" s="12"/>
+      <c r="G346" s="12"/>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C347" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C347" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D347" s="12"/>
+      <c r="E347" s="12"/>
+      <c r="F347" s="12"/>
+      <c r="G347" s="12"/>
+    </row>
+    <row r="348" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B348">
-        <v>3</v>
-      </c>
-      <c r="C348">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B348" s="12">
+        <v>3</v>
+      </c>
+      <c r="C348" s="12">
+        <v>3</v>
+      </c>
+      <c r="D348" s="12"/>
+      <c r="E348" s="12"/>
+      <c r="F348" s="12"/>
+      <c r="G348" s="12"/>
+    </row>
+    <row r="349" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="12">
+        <v>290</v>
+      </c>
+      <c r="C349" s="12">
         <v>340</v>
       </c>
-      <c r="C349">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="D349" s="12"/>
+      <c r="E349" s="12"/>
+      <c r="F349" s="12"/>
+      <c r="G349" s="12"/>
+    </row>
+    <row r="350" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="12">
+        <v>30</v>
+      </c>
+      <c r="C350" s="12">
         <v>25</v>
       </c>
-      <c r="C350">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D350" s="12"/>
+      <c r="E350" s="12"/>
+      <c r="F350" s="12"/>
+      <c r="G350" s="12"/>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B351">
-        <f>(SQRT(B348-1))*B350</f>
+      <c r="B351" s="12">
+        <v>42.426406871192853</v>
+      </c>
+      <c r="C351" s="12">
         <v>35.355339059327378</v>
       </c>
-      <c r="C351">
-        <f>(SQRT(C348-1))*C350</f>
-        <v>42.426406871192853</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D351" s="12"/>
+      <c r="E351" s="12"/>
+      <c r="F351" s="12"/>
+      <c r="G351" s="12"/>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B352" s="11"/>
-      <c r="C352" s="11"/>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B352" s="27"/>
+      <c r="C352" s="27"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="12"/>
+      <c r="F352" s="12"/>
+      <c r="G352" s="12"/>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C353" s="11"/>
-      <c r="E353" t="s">
-        <v>12</v>
-      </c>
-      <c r="F353" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B353" s="12"/>
+      <c r="C353" s="27"/>
+      <c r="D353" s="12"/>
+      <c r="E353" s="12"/>
+      <c r="F353" s="12"/>
+      <c r="G353" s="12"/>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C354" t="s">
-        <v>3</v>
-      </c>
-      <c r="D354" t="s">
+      <c r="C354" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D354" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E354">
-        <v>3</v>
-      </c>
-      <c r="F354">
-        <v>3</v>
-      </c>
-      <c r="G354" t="s">
+      <c r="E354" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F354" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G354" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="I354" t="s">
+        <v>63</v>
+      </c>
+      <c r="J354" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B355">
-        <v>3</v>
-      </c>
-      <c r="C355">
-        <v>3</v>
-      </c>
-      <c r="D355">
-        <v>3</v>
-      </c>
-      <c r="E355">
-        <v>7</v>
-      </c>
-      <c r="F355">
-        <v>2</v>
-      </c>
-      <c r="G355">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B355" s="12">
+        <v>3</v>
+      </c>
+      <c r="C355" s="12">
+        <v>3</v>
+      </c>
+      <c r="D355" s="12">
+        <v>3</v>
+      </c>
+      <c r="E355" s="12">
+        <v>3</v>
+      </c>
+      <c r="F355" s="12">
+        <v>3</v>
+      </c>
+      <c r="G355" s="12">
+        <v>3</v>
+      </c>
+      <c r="I355" s="12">
+        <v>3</v>
+      </c>
+      <c r="J355" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="12">
         <v>5.3</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="12">
         <v>5.3</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="12">
+        <v>3</v>
+      </c>
+      <c r="E356" s="12">
+        <v>4</v>
+      </c>
+      <c r="F356" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="G356" s="12">
+        <v>1</v>
+      </c>
+      <c r="I356" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="J356" s="12">
         <v>5</v>
       </c>
-      <c r="E356">
-        <v>1</v>
-      </c>
-      <c r="F356">
-        <v>0.5</v>
-      </c>
-      <c r="G356">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="L356">
+        <f>SQRT((D357^2)+(F357^2))</f>
+        <v>0.58309518948452999</v>
+      </c>
+      <c r="M356">
+        <f>SQRT((E357^2)+(G357^2))</f>
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="12">
         <v>2.5</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="12">
         <v>2</v>
       </c>
-      <c r="D357">
+      <c r="D357" s="12">
         <v>0.5</v>
       </c>
-      <c r="E357">
-        <f t="shared" ref="B357:G358" si="24">(SQRT(E354-1))*E356</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="F357">
-        <f t="shared" si="24"/>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="G357">
+      <c r="E357" s="12">
+        <v>1</v>
+      </c>
+      <c r="F357" s="12">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G357" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I357" s="12">
+        <v>0.58309518948452999</v>
+      </c>
+      <c r="J357" s="12">
+        <v>1.1180339887498949</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B358">
-        <f t="shared" si="24"/>
+      <c r="B358" s="12">
         <v>3.5355339059327378</v>
       </c>
-      <c r="C358">
-        <f t="shared" si="24"/>
+      <c r="C358" s="12">
         <v>2.8284271247461903</v>
       </c>
-      <c r="D358">
-        <f t="shared" si="24"/>
+      <c r="D358" s="12">
         <v>0.70710678118654757</v>
       </c>
-      <c r="G358">
-        <f t="shared" si="24"/>
+      <c r="E358" s="12">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="F358" s="12">
         <v>0.42426406871192851</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G358" s="12">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="I358" s="12">
+        <v>1.5811388300841898</v>
+      </c>
+      <c r="J358" s="12">
+        <v>0.82462112512353203</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B359" s="12"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+      <c r="E359" s="12"/>
+      <c r="F359" s="12"/>
+      <c r="G359" s="12"/>
+    </row>
+    <row r="360" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="10"/>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B360" s="12"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="12"/>
+      <c r="F360" s="12"/>
+      <c r="G360" s="12"/>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="8" t="s">
         <v>32</v>
       </c>
@@ -9581,7 +9689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
         <v>26</v>
       </c>
@@ -9592,7 +9700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
         <v>0</v>
       </c>
@@ -9603,7 +9711,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
         <v>27</v>
       </c>
@@ -9614,42 +9722,37 @@
         <v>50</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B365">
-        <f>(SQRT(B362-1))*B364</f>
         <v>42.426406871192853</v>
       </c>
       <c r="C365">
-        <f>(SQRT(C362-1))*C364</f>
         <v>70.710678118654755</v>
       </c>
-      <c r="E365" s="6"/>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B366" s="11"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
-      <c r="F366" s="6"/>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
-      <c r="E367" t="s">
-        <v>14</v>
-      </c>
+      <c r="E367" s="6"/>
+      <c r="F367" s="6"/>
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>30</v>
       </c>
@@ -9662,8 +9765,8 @@
       <c r="D368" t="s">
         <v>89</v>
       </c>
-      <c r="E368">
-        <v>3</v>
+      <c r="E368" t="s">
+        <v>14</v>
       </c>
       <c r="J368" s="2"/>
     </row>
@@ -9680,10 +9783,9 @@
       <c r="D369">
         <v>3</v>
       </c>
-      <c r="E369" s="2">
-        <v>11</v>
-      </c>
-      <c r="F369" s="3"/>
+      <c r="E369">
+        <v>3</v>
+      </c>
       <c r="J369" s="3"/>
     </row>
     <row r="370" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -9700,7 +9802,7 @@
         <v>9</v>
       </c>
       <c r="E370" s="2">
-        <v>4.4000000000000004</v>
+        <v>11</v>
       </c>
       <c r="F370" s="3"/>
       <c r="G370" s="2"/>
@@ -9724,10 +9826,10 @@
       <c r="D371" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E371">
-        <f>(SQRT(E368-1))*E370</f>
-        <v>6.2225396744416193</v>
-      </c>
+      <c r="E371" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F371" s="3"/>
       <c r="G371" s="2"/>
       <c r="H371" s="3"/>
       <c r="I371" s="6"/>
@@ -9749,6 +9851,10 @@
         <f>(SQRT(D369-1))*D371</f>
         <v>12.303657992645928</v>
       </c>
+      <c r="E372">
+        <f>(SQRT(E369-1))*E371</f>
+        <v>6.2225396744416193</v>
+      </c>
       <c r="J372" s="2"/>
     </row>
     <row r="373" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -10264,12 +10370,6 @@
         <v>104</v>
       </c>
       <c r="C409" s="6"/>
-      <c r="E409" t="s">
-        <v>63</v>
-      </c>
-      <c r="F409" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" s="4" t="s">
@@ -10284,11 +10384,11 @@
       <c r="D410" t="s">
         <v>3</v>
       </c>
-      <c r="E410">
-        <v>3</v>
-      </c>
-      <c r="F410">
-        <v>3</v>
+      <c r="E410" t="s">
+        <v>63</v>
+      </c>
+      <c r="F410" t="s">
+        <v>43</v>
       </c>
       <c r="G410" t="s">
         <v>97</v>
@@ -10307,11 +10407,11 @@
       <c r="D411">
         <v>3</v>
       </c>
-      <c r="E411" s="22">
-        <v>3.3</v>
-      </c>
-      <c r="F411" s="6">
-        <v>3.3</v>
+      <c r="E411">
+        <v>3</v>
+      </c>
+      <c r="F411">
+        <v>3</v>
       </c>
       <c r="G411">
         <v>3</v>
@@ -10331,10 +10431,10 @@
         <v>11.6</v>
       </c>
       <c r="E412" s="22">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="F412" s="6">
-        <v>0.2</v>
+        <v>3.25</v>
       </c>
       <c r="G412" s="2">
         <v>5.0999999999999996</v>
@@ -10353,19 +10453,17 @@
       <c r="D413" s="2">
         <v>0.2</v>
       </c>
-      <c r="E413">
-        <f>(SQRT(E410-1))*E412</f>
-        <v>0.28284271247461906</v>
-      </c>
-      <c r="F413">
-        <f>(SQRT(F410-1))*F412</f>
-        <v>0.28284271247461906</v>
+      <c r="E413" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="F413" s="6">
+        <v>0.2</v>
       </c>
       <c r="G413" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="414" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" s="4" t="s">
         <v>25</v>
       </c>
@@ -10381,7 +10479,14 @@
         <f>(SQRT(D411-1))*D413</f>
         <v>0.28284271247461906</v>
       </c>
-      <c r="E414" s="1"/>
+      <c r="E414">
+        <f>(SQRT(E411-1))*E413</f>
+        <v>0.28284271247461906</v>
+      </c>
+      <c r="F414">
+        <f>(SQRT(F411-1))*F413</f>
+        <v>0.28284271247461906</v>
+      </c>
       <c r="G414">
         <f>(SQRT(G411-1))*G413</f>
         <v>0.56568542494923812</v>
@@ -10896,7 +11001,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E446">
-        <f t="shared" ref="C446:E447" si="25">(SQRT(E443-1))*E445</f>
+        <f t="shared" ref="C446:E447" si="24">(SQRT(E443-1))*E445</f>
         <v>0</v>
       </c>
       <c r="F446">
@@ -10916,11 +11021,11 @@
         <v>0</v>
       </c>
       <c r="C447">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="D447">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E447" t="s">
@@ -10996,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="C451:E452" si="26">(SQRT(E448-1))*E450</f>
+        <f t="shared" ref="C451:E452" si="25">(SQRT(E448-1))*E450</f>
         <v>0</v>
       </c>
     </row>
@@ -11009,11 +11114,11 @@
         <v>0</v>
       </c>
       <c r="C452">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D452">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -11748,7 +11853,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4" name="Control 2">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -11759,21 +11864,21 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>102</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>103</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId4" name="Control 2"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId6" name="Control 1">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -11784,16 +11889,16 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>190500</xdr:colOff>
-                <xdr:row>102</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>103</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId6" name="Control 1"/>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
+++ b/Data Extraction Workbook/Copy of Excel Calculator for Means of means and SE's ONLY USED PAPERS.xlsx
@@ -261,9 +261,6 @@
     <t>Freeman</t>
   </si>
   <si>
-    <t>Zhang</t>
-  </si>
-  <si>
     <t>Zenner</t>
   </si>
   <si>
@@ -374,12 +371,15 @@
   <si>
     <t>This is the correct data</t>
   </si>
+  <si>
+    <t>Zhang+Ritchie+etal-2008</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,15 +539,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>35379</xdr:colOff>
-          <xdr:row>102</xdr:row>
-          <xdr:rowOff>10886</xdr:rowOff>
+          <xdr:colOff>31296</xdr:colOff>
+          <xdr:row>103</xdr:row>
+          <xdr:rowOff>122464</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>254454</xdr:colOff>
-          <xdr:row>103</xdr:row>
-          <xdr:rowOff>54429</xdr:rowOff>
+          <xdr:colOff>183696</xdr:colOff>
+          <xdr:row>104</xdr:row>
+          <xdr:rowOff>107496</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -580,15 +580,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>35379</xdr:colOff>
-          <xdr:row>102</xdr:row>
-          <xdr:rowOff>10886</xdr:rowOff>
+          <xdr:colOff>31296</xdr:colOff>
+          <xdr:row>103</xdr:row>
+          <xdr:rowOff>122464</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>254454</xdr:colOff>
-          <xdr:row>103</xdr:row>
-          <xdr:rowOff>54429</xdr:rowOff>
+          <xdr:colOff>183696</xdr:colOff>
+          <xdr:row>104</xdr:row>
+          <xdr:rowOff>107496</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -909,11 +909,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AR539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="32.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
@@ -921,12 +921,12 @@
     <col min="14" max="14" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -985,7 +985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="15">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
     </row>
-    <row r="7" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="15">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1367,7 +1367,7 @@
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -1489,7 +1489,7 @@
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
     </row>
-    <row r="11" spans="1:44" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="15">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1568,7 +1568,7 @@
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="AQ12" s="6"/>
       <c r="AR12" s="6"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="AR13" s="6"/>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="AR14" s="6"/>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="AR15" s="6"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15">
       <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>0.6333333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0.89566858950296024</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>-1.7726</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>-3.6613000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="5" t="s">
         <v>40</v>
       </c>
@@ -2622,12 +2622,12 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15">
       <c r="A32" s="7" t="s">
         <v>26</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="15">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="15">
       <c r="A34" s="7" t="s">
         <v>27</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
         <v>25</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1.8809040379562167</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" s="5" t="s">
         <v>31</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>2.4195000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0.31359999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
@@ -2799,12 +2799,12 @@
         <v>4.5255000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="8" t="s">
         <v>30</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15">
       <c r="A41" s="10" t="s">
         <v>26</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="15">
       <c r="A42" s="10" t="s">
         <v>0</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15">
       <c r="A43" s="10" t="s">
         <v>27</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" s="9" t="s">
         <v>25</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>0.18384776310850237</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" s="8" t="s">
         <v>31</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>0.50090000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" s="8" t="s">
         <v>39</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>-0.1285</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" s="8" t="s">
         <v>40</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>1.1304000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="8" t="s">
         <v>32</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15">
       <c r="A49" s="10" t="s">
         <v>26</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="10" t="s">
         <v>0</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15">
       <c r="A51" s="10" t="s">
         <v>27</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="9" t="s">
         <v>25</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>7.0710678118654766E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="8" t="s">
         <v>31</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>0.33379999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="8" t="s">
         <v>39</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>-0.29020000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="8" t="s">
         <v>40</v>
       </c>
@@ -3337,12 +3337,12 @@
         <v>0.95789999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
         <v>32</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15">
       <c r="A58" s="7" t="s">
         <v>26</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15">
       <c r="A59" s="7" t="s">
         <v>0</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15">
       <c r="A60" s="7" t="s">
         <v>27</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
         <v>25</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>1.7320508075688772</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="5" t="s">
         <v>31</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>-0.1026</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="5" t="s">
         <v>39</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>-0.7228</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="5" t="s">
         <v>40</v>
       </c>
@@ -3448,12 +3448,12 @@
         <v>0.51759999999999995</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="4" t="s">
         <v>32</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="7" t="s">
         <v>26</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="7" t="s">
         <v>0</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="7" t="s">
         <v>27</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="4" t="s">
         <v>25</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>4.2426406871192857</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="5" t="s">
         <v>31</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>0.62350000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="5" t="s">
         <v>39</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>-4.5499999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="5" t="s">
         <v>40</v>
       </c>
@@ -3559,15 +3559,15 @@
         <v>1.2925</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="9" t="s">
         <v>32</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="10" t="s">
         <v>26</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="10" t="s">
         <v>0</v>
       </c>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="10" t="s">
         <v>27</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="9" t="s">
         <v>25</v>
       </c>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="8" t="s">
         <v>31</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>-0.15989999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="8" t="s">
         <v>39</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>-1.6592</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="8" t="s">
         <v>40</v>
       </c>
@@ -3732,12 +3732,12 @@
         <v>1.3393999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="5" t="s">
         <v>32</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" s="7" t="s">
         <v>26</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
         <v>19</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
         <v>20</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>35.15</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="4" t="s">
         <v>49</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
         <v>50</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15">
       <c r="A92" s="7" t="s">
         <v>27</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="5" t="s">
         <v>25</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>1.9091883092036785</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="5" t="s">
         <v>31</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>0.69769999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="5" t="s">
         <v>39</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>5.9299999999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="5" t="s">
         <v>40</v>
       </c>
@@ -3905,20 +3905,20 @@
         <v>1.3360000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="F97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="25" t="s">
         <v>30</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="15">
       <c r="A99" s="26" t="s">
         <v>26</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="15">
       <c r="A100" s="26" t="s">
         <v>0</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="15">
       <c r="A101" s="26" t="s">
         <v>27</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" s="25" t="s">
         <v>25</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="25" t="s">
         <v>31</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>9.8100000000000007E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="25" t="s">
         <v>39</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>-0.70250000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="25" t="s">
         <v>40</v>
       </c>
@@ -4057,12 +4057,12 @@
         <v>0.89880000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="4" t="s">
         <v>32</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="15">
       <c r="A108" s="7" t="s">
         <v>26</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="15">
       <c r="A109" s="4" t="s">
         <v>19</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="15">
       <c r="A110" s="5" t="s">
         <v>20</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="5" t="s">
         <v>21</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="15">
       <c r="A112" s="5" t="s">
         <v>53</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="E112" s="6"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="15">
       <c r="A113" s="5" t="s">
         <v>54</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="15">
       <c r="A114" s="5" t="s">
         <v>55</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="D114" s="6"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="5" t="s">
         <v>56</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="5" t="s">
         <v>60</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="15">
       <c r="A117" s="7" t="s">
         <v>0</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="5" t="s">
         <v>22</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="5" t="s">
         <v>23</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="5" t="s">
         <v>24</v>
       </c>
@@ -4283,7 +4283,7 @@
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="5" t="s">
         <v>57</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="5" t="s">
         <v>58</v>
       </c>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="5" t="s">
         <v>59</v>
       </c>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="5" t="s">
         <v>61</v>
       </c>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="5" t="s">
         <v>62</v>
       </c>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="15">
       <c r="A126" s="7" t="s">
         <v>27</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>1.3125000000000011</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="5" t="s">
         <v>25</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>2.6250000000000022</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="5" t="s">
         <v>31</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>0.32840000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129" s="5" t="s">
         <v>39</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>-0.91949999999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130" s="5" t="s">
         <v>40</v>
       </c>
@@ -4396,12 +4396,12 @@
         <v>1.5764</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="7" t="s">
         <v>26</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="7" t="s">
         <v>0</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="7" t="s">
         <v>27</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136" s="5" t="s">
         <v>25</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>3.5355339059327378</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137" s="5" t="s">
         <v>31</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>1.0607</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138" s="5" t="s">
         <v>39</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>-0.64849999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="5" t="s">
         <v>40</v>
       </c>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140" s="4" t="s">
         <v>66</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="7" t="s">
         <v>26</v>
       </c>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="5" t="s">
         <v>19</v>
       </c>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="5" t="s">
         <v>20</v>
       </c>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144" s="4" t="s">
         <v>21</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>24.375</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" ht="15">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>23.125</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14">
       <c r="A146" s="5" t="s">
         <v>49</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14">
       <c r="A147" s="5" t="s">
         <v>50</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14">
       <c r="A148" s="5" t="s">
         <v>67</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" ht="15">
       <c r="A149" s="7" t="s">
         <v>27</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14">
       <c r="A150" s="5" t="s">
         <v>25</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>3.5355339059327378</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" ht="15">
       <c r="A151" s="5" t="s">
         <v>31</v>
       </c>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14">
       <c r="A152" s="5" t="s">
         <v>39</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>-1.7195</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14">
       <c r="A153" s="5" t="s">
         <v>40</v>
       </c>
@@ -4639,9 +4639,9 @@
         <v>1.4838</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14">
       <c r="A154" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B154" t="s">
         <v>1</v>
@@ -4650,7 +4650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" ht="15">
       <c r="A155" s="7" t="s">
         <v>26</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" ht="15">
       <c r="A156" s="7" t="s">
         <v>0</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="15">
       <c r="A157" s="7" t="s">
         <v>27</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14">
       <c r="A158" s="5" t="s">
         <v>25</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>2.6516504294495533</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14">
       <c r="A159" s="5" t="s">
         <v>31</v>
       </c>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="F159" s="6"/>
     </row>
-    <row r="160" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" ht="15">
       <c r="A160" s="4" t="s">
         <v>68</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
     </row>
-    <row r="161" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15">
       <c r="A161" s="7" t="s">
         <v>26</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15">
       <c r="A162" s="7" t="s">
         <v>0</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15">
       <c r="A163" s="7" t="s">
         <v>27</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>0.56568542494923812</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5">
       <c r="A164" s="5" t="s">
         <v>25</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>0.70709999999999995</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5">
       <c r="A165" s="5" t="s">
         <v>31</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>-0.94240000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
         <v>39</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>2.3567</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5">
       <c r="A167" s="5" t="s">
         <v>40</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15">
       <c r="A168" s="5" t="s">
         <v>71</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15">
       <c r="A169" s="7" t="s">
         <v>26</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5">
       <c r="A170" s="5" t="s">
         <v>19</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="4" t="s">
         <v>20</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15">
       <c r="A172" s="5" t="s">
         <v>21</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>5.6333333333333329</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15">
       <c r="A173" s="7" t="s">
         <v>0</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5">
       <c r="A174" s="5" t="s">
         <v>49</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="4" t="s">
         <v>50</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15">
       <c r="A176" s="4" t="s">
         <v>67</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15">
       <c r="A177" s="7" t="s">
         <v>27</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>2.5455844122715714</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5">
       <c r="A178" s="5" t="s">
         <v>25</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5">
       <c r="A179" s="5" t="s">
         <v>31</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>-1.1721999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5">
       <c r="A180" s="5" t="s">
         <v>39</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>2.0682999999999998</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5">
       <c r="A181" s="5" t="s">
         <v>40</v>
       </c>
@@ -5068,9 +5068,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5">
       <c r="A182" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>69</v>
@@ -5085,7 +5085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15">
       <c r="A183" s="7" t="s">
         <v>26</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15">
       <c r="A184" s="7" t="s">
         <v>0</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15">
       <c r="A185" s="7" t="s">
         <v>27</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>0.84852813742385702</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5">
       <c r="A186" s="5" t="s">
         <v>25</v>
       </c>
@@ -5154,17 +5154,17 @@
         <v>0.84852813742385702</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5">
       <c r="A187" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5">
       <c r="A188" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5">
       <c r="A189" s="8" t="s">
         <v>30</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15">
       <c r="A190" s="10" t="s">
         <v>26</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5">
       <c r="A191" s="9" t="s">
         <v>78</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15">
       <c r="A192" s="9" t="s">
         <v>19</v>
       </c>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="15">
       <c r="A193" s="10" t="s">
         <v>0</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>6.5500000000000007</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15">
       <c r="A194" s="9" t="s">
         <v>74</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15">
       <c r="A195" s="9" t="s">
         <v>49</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="15">
       <c r="A196" s="10" t="s">
         <v>27</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15">
       <c r="A197" s="9" t="s">
         <v>25</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>2.6870057685088806</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15">
       <c r="A198" s="9" t="s">
         <v>31</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>1.1671</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15">
       <c r="A199" s="9" t="s">
         <v>39</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>0.30149999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15">
       <c r="A200" s="9" t="s">
         <v>40</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>2.0327000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15">
       <c r="A201" s="4" t="s">
         <v>79</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="15">
       <c r="A202" s="4" t="s">
         <v>32</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="15">
       <c r="A203" s="7" t="s">
         <v>26</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" ht="15">
       <c r="A204" s="7" t="s">
         <v>0</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="15">
       <c r="A205" s="7" t="s">
         <v>27</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15">
       <c r="A206" s="4" t="s">
         <v>25</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>0.8660254037844386</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15">
       <c r="A207" s="5" t="s">
         <v>31</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>1.3251999999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15">
       <c r="A208" s="5" t="s">
         <v>39</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>-0.20530000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19">
       <c r="A209" s="5" t="s">
         <v>40</v>
       </c>
@@ -5674,9 +5674,9 @@
         <v>2.8557000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19">
       <c r="A210" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E210" t="s">
         <v>4</v>
@@ -5685,7 +5685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19">
       <c r="A211" s="17" t="s">
         <v>30</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>43</v>
       </c>
       <c r="M211" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N211" t="s">
         <v>16</v>
@@ -5744,7 +5744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19">
       <c r="A212" s="17" t="s">
         <v>26</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19">
       <c r="A213" s="9" t="s">
         <v>0</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19">
       <c r="A215" s="9" t="s">
         <v>25</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>0.15491933384829668</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19">
       <c r="A216" s="9" t="s">
         <v>31</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19">
       <c r="A217" s="9" t="s">
         <v>32</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>43</v>
       </c>
       <c r="M217" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N217" t="s">
         <v>16</v>
@@ -6075,7 +6075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19">
       <c r="A218" s="9" t="s">
         <v>26</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19">
       <c r="A219" s="9" t="s">
         <v>0</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19">
       <c r="A220" s="9" t="s">
         <v>27</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19">
       <c r="A221" s="9" t="s">
         <v>25</v>
       </c>
@@ -6339,17 +6339,17 @@
         <v>3.8729833462074169E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19">
       <c r="A222" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19">
       <c r="A223" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19">
       <c r="A224" s="4" t="s">
         <v>32</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" ht="15">
       <c r="A225" s="7" t="s">
         <v>26</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="15">
       <c r="A226" s="7" t="s">
         <v>0</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>2.4725274725274726</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="15">
       <c r="A227" s="7" t="s">
         <v>27</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>0.13186813186813201</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" s="4" t="s">
         <v>25</v>
       </c>
@@ -6408,12 +6408,12 @@
         <v>2.8709724470871119</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" s="4" t="s">
         <v>30</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="15">
       <c r="A231" s="7" t="s">
         <v>26</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="15">
       <c r="A232" s="7" t="s">
         <v>0</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>1.846153846153846</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" ht="15">
       <c r="A233" s="7" t="s">
         <v>27</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0.2142857142857145</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" s="4" t="s">
         <v>25</v>
       </c>
@@ -6472,17 +6472,17 @@
         <v>4.6653302265165557</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" s="9" t="s">
         <v>30</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238" s="9" t="s">
         <v>26</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" s="9" t="s">
         <v>0</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>18.780487804878053</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" s="9" t="s">
         <v>27</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>1.2804878048780499</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9">
       <c r="A241" s="9" t="s">
         <v>25</v>
       </c>
@@ -6558,12 +6558,12 @@
         <v>4.2468975974063081</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9">
       <c r="A242" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9">
       <c r="A243" s="9" t="s">
         <v>32</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9">
       <c r="A244" s="9" t="s">
         <v>26</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9">
       <c r="A245" s="9" t="s">
         <v>0</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>23.902439024390244</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9">
       <c r="A246" s="9" t="s">
         <v>27</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>0.85365853658536495</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9">
       <c r="A247" s="9" t="s">
         <v>25</v>
       </c>
@@ -6639,17 +6639,17 @@
         <v>2.8312650649375333</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9">
       <c r="A248" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9">
       <c r="A249" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" s="4" t="s">
         <v>32</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="7" t="s">
         <v>26</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="7" t="s">
         <v>0</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>6.3559322033898304</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="7" t="s">
         <v>27</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>1.6949152542372881</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9">
       <c r="A254" s="4" t="s">
         <v>25</v>
       </c>
@@ -6706,12 +6706,12 @@
         <v>10.027253869660365</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9">
       <c r="A255" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9">
       <c r="A256" s="4" t="s">
         <v>30</v>
       </c>
@@ -6734,13 +6734,13 @@
         <v>11</v>
       </c>
       <c r="H256" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I256" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:33" ht="15">
       <c r="A257" s="7" t="s">
         <v>26</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:33" ht="15">
       <c r="A258" s="7" t="s">
         <v>0</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="259" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:33" ht="15">
       <c r="A259" s="7" t="s">
         <v>27</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:33">
       <c r="A260" s="4" t="s">
         <v>25</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>22.074924563804537</v>
       </c>
       <c r="D260">
-        <f t="shared" ref="D259:I260" si="13">(SQRT(D257-1))*D259</f>
+        <f t="shared" ref="D260:I260" si="13">(SQRT(D257-1))*D259</f>
         <v>7.534102157025746</v>
       </c>
       <c r="E260">
@@ -6864,19 +6864,19 @@
         <v>13.311179511974137</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:33">
       <c r="A261" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:33">
       <c r="A262" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="263" spans="1:33">
+      <c r="A263" s="9" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A263" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="B263" t="s">
         <v>1</v>
@@ -6888,7 +6888,7 @@
         <v>3</v>
       </c>
       <c r="E263" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F263" t="s">
         <v>14</v>
@@ -6915,7 +6915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:33">
       <c r="A264" s="9" t="s">
         <v>26</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:33">
       <c r="A265" s="9" t="s">
         <v>19</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>4.7499999999999991</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:33">
       <c r="A266" s="9" t="s">
         <v>21</v>
       </c>
@@ -7038,12 +7038,12 @@
         <v>9.4999999999999982</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:33">
       <c r="A267" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B267">
-        <f t="shared" ref="B266:M267" si="14">AVERAGE(B265:B266)</f>
+        <f t="shared" ref="B267:M267" si="14">AVERAGE(B265:B266)</f>
         <v>23.265306122448976</v>
       </c>
       <c r="C267">
@@ -7091,7 +7091,7 @@
         <v>7.1249999999999982</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:33">
       <c r="A268" s="9" t="s">
         <v>49</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:33">
       <c r="A269" s="9" t="s">
         <v>67</v>
       </c>
@@ -7173,12 +7173,12 @@
         <v>1.4999999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:33">
       <c r="A270" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B270">
-        <f t="shared" ref="B269:M270" si="15">AVERAGE(B268:B269)</f>
+        <f t="shared" ref="B270:M270" si="15">AVERAGE(B268:B269)</f>
         <v>3.8775510204081631</v>
       </c>
       <c r="C270">
@@ -7226,12 +7226,12 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:33">
       <c r="A271" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B271">
-        <f t="shared" ref="B270:M271" si="16">(SQRT(B264-1))*B270</f>
+        <f t="shared" ref="B271:M271" si="16">(SQRT(B264-1))*B270</f>
         <v>5.4836852418548583</v>
       </c>
       <c r="C271">
@@ -7271,7 +7271,7 @@
         <v>1.4142135623730949</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:33">
       <c r="A272" s="9" t="s">
         <v>31</v>
       </c>
@@ -7285,9 +7285,9 @@
       <c r="AF272" s="12"/>
       <c r="AG272" s="12"/>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:33">
       <c r="A273" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B273" t="s">
         <v>1</v>
@@ -7299,7 +7299,7 @@
         <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F273" t="s">
         <v>14</v>
@@ -7335,7 +7335,7 @@
       <c r="AF273" s="12"/>
       <c r="AG273" s="12"/>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:33">
       <c r="A274" s="9" t="s">
         <v>26</v>
       </c>
@@ -7385,7 +7385,7 @@
       <c r="AF274" s="12"/>
       <c r="AG274" s="12"/>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:33">
       <c r="A275" s="9" t="s">
         <v>19</v>
       </c>
@@ -7435,7 +7435,7 @@
       <c r="AF275" s="12"/>
       <c r="AG275" s="12"/>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:33">
       <c r="A276" s="9" t="s">
         <v>21</v>
       </c>
@@ -7485,12 +7485,12 @@
       <c r="AF276" s="12"/>
       <c r="AG276" s="12"/>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:33">
       <c r="A277" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B277">
-        <f t="shared" ref="B276:M277" si="17">AVERAGE(B275:B276)</f>
+        <f t="shared" ref="B277:M277" si="17">AVERAGE(B275:B276)</f>
         <v>12.625</v>
       </c>
       <c r="C277">
@@ -7547,7 +7547,7 @@
       <c r="AF277" s="12"/>
       <c r="AG277" s="12"/>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:33">
       <c r="A278" s="9" t="s">
         <v>49</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="AF278" s="12"/>
       <c r="AG278" s="12"/>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:33">
       <c r="A279" s="9" t="s">
         <v>67</v>
       </c>
@@ -7647,12 +7647,12 @@
       <c r="AF279" s="12"/>
       <c r="AG279" s="12"/>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:33">
       <c r="A280" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B280">
-        <f t="shared" ref="B279:M280" si="18">AVERAGE(B278:B279)</f>
+        <f t="shared" ref="B280:M280" si="18">AVERAGE(B278:B279)</f>
         <v>3.3749999999999996</v>
       </c>
       <c r="C280">
@@ -7709,7 +7709,7 @@
       <c r="AF280" s="12"/>
       <c r="AG280" s="12"/>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:33">
       <c r="A281" s="9" t="s">
         <v>25</v>
       </c>
@@ -7771,7 +7771,7 @@
       <c r="AF281" s="12"/>
       <c r="AG281" s="12"/>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:33">
       <c r="A282" s="9" t="s">
         <v>31</v>
       </c>
@@ -7785,14 +7785,14 @@
       <c r="AF282" s="12"/>
       <c r="AG282" s="12"/>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:33">
       <c r="A283" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB283" s="9"/>
       <c r="AE283" s="9"/>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:33">
       <c r="A284" s="4" t="s">
         <v>32</v>
       </c>
@@ -7805,7 +7805,7 @@
       <c r="AB284" s="9"/>
       <c r="AE284" s="9"/>
     </row>
-    <row r="285" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:33" ht="15">
       <c r="A285" s="7" t="s">
         <v>26</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:33" ht="15">
       <c r="A286" s="7" t="s">
         <v>0</v>
       </c>
@@ -7829,7 +7829,7 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
     </row>
-    <row r="287" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:33" ht="15">
       <c r="A287" s="7" t="s">
         <v>27</v>
       </c>
@@ -7854,7 +7854,7 @@
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:33">
       <c r="A288" s="4" t="s">
         <v>25</v>
       </c>
@@ -7869,7 +7869,7 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:33">
       <c r="A289" s="5" t="s">
         <v>31</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="R289" s="2"/>
       <c r="S289" s="2"/>
     </row>
-    <row r="290" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:33" ht="15">
       <c r="A290" s="4" t="s">
         <v>30</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>3</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
@@ -7919,7 +7919,7 @@
       <c r="R290" s="2"/>
       <c r="S290" s="2"/>
     </row>
-    <row r="291" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:33" ht="15">
       <c r="A291" s="7" t="s">
         <v>26</v>
       </c>
@@ -7946,7 +7946,7 @@
       <c r="R291" s="3"/>
       <c r="S291" s="3"/>
     </row>
-    <row r="292" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:33" ht="15">
       <c r="A292" s="7" t="s">
         <v>0</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="R292" s="2"/>
       <c r="S292" s="2"/>
     </row>
-    <row r="293" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:33" ht="15">
       <c r="A293" s="7" t="s">
         <v>27</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="R293" s="2"/>
       <c r="S293" s="2"/>
     </row>
-    <row r="294" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:33" ht="15">
       <c r="A294" s="4" t="s">
         <v>25</v>
       </c>
@@ -8029,7 +8029,7 @@
       <c r="R294" s="2"/>
       <c r="S294" s="2"/>
     </row>
-    <row r="295" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:33" ht="15">
       <c r="A295" s="5" t="s">
         <v>31</v>
       </c>
@@ -8053,9 +8053,9 @@
       <c r="R295" s="3"/>
       <c r="S295" s="3"/>
     </row>
-    <row r="296" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:33">
       <c r="A296" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="6"/>
@@ -8080,7 +8080,7 @@
       <c r="AF296" s="12"/>
       <c r="AG296" s="12"/>
     </row>
-    <row r="297" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:33">
       <c r="A297" s="4" t="s">
         <v>32</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>9</v>
       </c>
       <c r="H297" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I297" s="6" t="s">
         <v>15</v>
@@ -8127,7 +8127,7 @@
       <c r="AF297" s="12"/>
       <c r="AG297" s="12"/>
     </row>
-    <row r="298" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:33" ht="15">
       <c r="A298" s="7" t="s">
         <v>26</v>
       </c>
@@ -8174,7 +8174,7 @@
       <c r="AF298" s="12"/>
       <c r="AG298" s="12"/>
     </row>
-    <row r="299" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:33" ht="15">
       <c r="A299" s="7" t="s">
         <v>0</v>
       </c>
@@ -8220,7 +8220,7 @@
       <c r="AF299" s="12"/>
       <c r="AG299" s="12"/>
     </row>
-    <row r="300" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:33" ht="15">
       <c r="A300" s="7" t="s">
         <v>27</v>
       </c>
@@ -8262,7 +8262,7 @@
       <c r="AF300" s="12"/>
       <c r="AG300" s="12"/>
     </row>
-    <row r="301" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:33" ht="15">
       <c r="A301" s="4" t="s">
         <v>25</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>2.7506442902854813</v>
       </c>
       <c r="D301">
-        <f t="shared" ref="D300:I301" si="20">(SQRT(D298-1))*D300</f>
+        <f t="shared" ref="D301:I301" si="20">(SQRT(D298-1))*D300</f>
         <v>0.78589739564398609</v>
       </c>
       <c r="E301">
@@ -8314,7 +8314,7 @@
       <c r="AF301" s="12"/>
       <c r="AG301" s="12"/>
     </row>
-    <row r="302" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:33">
       <c r="A302" s="5" t="s">
         <v>31</v>
       </c>
@@ -8346,7 +8346,7 @@
       <c r="AF302" s="12"/>
       <c r="AG302" s="12"/>
     </row>
-    <row r="303" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:33" ht="15">
       <c r="A303" s="4" t="s">
         <v>30</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E303">
         <v>1.7161999999999999</v>
@@ -8385,7 +8385,7 @@
       <c r="AF303" s="12"/>
       <c r="AG303" s="12"/>
     </row>
-    <row r="304" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:33" ht="15">
       <c r="A304" s="7" t="s">
         <v>26</v>
       </c>
@@ -8433,7 +8433,7 @@
       <c r="AF304" s="12"/>
       <c r="AG304" s="12"/>
     </row>
-    <row r="305" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:33" ht="15">
       <c r="A305" s="7" t="s">
         <v>0</v>
       </c>
@@ -8481,7 +8481,7 @@
       <c r="AF305" s="12"/>
       <c r="AG305" s="12"/>
     </row>
-    <row r="306" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:33" ht="15">
       <c r="A306" s="7" t="s">
         <v>27</v>
       </c>
@@ -8520,7 +8520,7 @@
       <c r="R306" s="2"/>
       <c r="S306" s="2"/>
     </row>
-    <row r="307" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:33" ht="15">
       <c r="A307" s="4" t="s">
         <v>25</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>3.0126104138086891</v>
       </c>
       <c r="D307">
-        <f t="shared" ref="D306:I307" si="21">(SQRT(D304-1))*D306</f>
+        <f t="shared" ref="D307:I307" si="21">(SQRT(D304-1))*D306</f>
         <v>0.13098306176160404</v>
       </c>
       <c r="E307">
@@ -8567,7 +8567,7 @@
       <c r="R307" s="2"/>
       <c r="S307" s="2"/>
     </row>
-    <row r="308" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:33" ht="15">
       <c r="A308" s="5" t="s">
         <v>31</v>
       </c>
@@ -8594,7 +8594,7 @@
       <c r="R308" s="3"/>
       <c r="S308" s="3"/>
     </row>
-    <row r="309" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:33" ht="15">
       <c r="A309" s="5"/>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
@@ -8611,9 +8611,9 @@
       <c r="R309" s="6"/>
       <c r="S309" s="6"/>
     </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:33">
       <c r="A310" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6"/>
@@ -8637,7 +8637,7 @@
       <c r="R310" s="6"/>
       <c r="S310" s="6"/>
     </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:33">
       <c r="A311" s="8" t="s">
         <v>32</v>
       </c>
@@ -8681,7 +8681,7 @@
       <c r="R311" s="6"/>
       <c r="S311" s="6"/>
     </row>
-    <row r="312" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:33" ht="15">
       <c r="A312" s="10" t="s">
         <v>26</v>
       </c>
@@ -8724,7 +8724,7 @@
       <c r="R312" s="6"/>
       <c r="S312" s="6"/>
     </row>
-    <row r="313" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:33" ht="15">
       <c r="A313" s="10" t="s">
         <v>0</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="314" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:33" ht="15">
       <c r="A314" s="10" t="s">
         <v>27</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="315" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:33">
       <c r="A315" s="9" t="s">
         <v>25</v>
       </c>
@@ -8853,12 +8853,12 @@
         <v>0.66332495807108005</v>
       </c>
     </row>
-    <row r="316" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:33">
       <c r="A316" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:33">
       <c r="A317" s="8"/>
       <c r="E317" t="s">
         <v>13</v>
@@ -8867,7 +8867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="318" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:33">
       <c r="A318" s="8" t="s">
         <v>30</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:33" ht="15">
       <c r="A319" s="10" t="s">
         <v>26</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:33" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:33" ht="15">
       <c r="A320" s="10" t="s">
         <v>0</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" ht="15">
       <c r="A321" s="10" t="s">
         <v>27</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13">
       <c r="A322" s="9" t="s">
         <v>25</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>3.3166247903553998E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13">
       <c r="A323" s="8" t="s">
         <v>31</v>
       </c>
@@ -9089,14 +9089,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13">
       <c r="A324" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13">
       <c r="A325" s="25" t="s">
         <v>32</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" ht="15">
       <c r="A326" s="26" t="s">
         <v>26</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" ht="15">
       <c r="A327" s="26" t="s">
         <v>0</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" ht="15">
       <c r="A328" s="26" t="s">
         <v>27</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13">
       <c r="A329" s="25" t="s">
         <v>25</v>
       </c>
@@ -9153,19 +9153,19 @@
         <v>2.4494897427831779</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13">
       <c r="A330" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13">
       <c r="A331" s="25"/>
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13">
       <c r="A332" s="25" t="s">
         <v>30</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" ht="15">
       <c r="A333" s="26" t="s">
         <v>26</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" ht="15">
       <c r="A334" s="26" t="s">
         <v>0</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" ht="15">
       <c r="A335" s="26" t="s">
         <v>27</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13">
       <c r="A336" s="25" t="s">
         <v>25</v>
       </c>
@@ -9222,20 +9222,20 @@
         <v>19.595917942265423</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13">
       <c r="A337" s="8"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13">
       <c r="A338" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13">
+      <c r="A339" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A339" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13">
       <c r="A340" s="8" t="s">
         <v>30</v>
       </c>
@@ -9261,10 +9261,10 @@
         <v>63</v>
       </c>
       <c r="J340" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" ht="15">
       <c r="A341" s="10" t="s">
         <v>26</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" ht="15">
       <c r="A342" s="10" t="s">
         <v>0</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>0.58309518948452999</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" ht="15">
       <c r="A343" s="10" t="s">
         <v>27</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>0.58309518948452999</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13">
       <c r="A344" s="9" t="s">
         <v>25</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>1.0770329614269007</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13">
       <c r="A345" s="8" t="s">
         <v>31</v>
       </c>
@@ -9399,7 +9399,7 @@
       <c r="F345" s="12"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" ht="15">
       <c r="A346" s="10"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -9408,7 +9408,7 @@
       <c r="F346" s="12"/>
       <c r="G346" s="12"/>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13">
       <c r="A347" s="8" t="s">
         <v>32</v>
       </c>
@@ -9423,7 +9423,7 @@
       <c r="F347" s="12"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" ht="15">
       <c r="A348" s="10" t="s">
         <v>26</v>
       </c>
@@ -9438,7 +9438,7 @@
       <c r="F348" s="12"/>
       <c r="G348" s="12"/>
     </row>
-    <row r="349" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" ht="15">
       <c r="A349" s="10" t="s">
         <v>0</v>
       </c>
@@ -9453,7 +9453,7 @@
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" ht="15">
       <c r="A350" s="10" t="s">
         <v>27</v>
       </c>
@@ -9468,7 +9468,7 @@
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13">
       <c r="A351" s="9" t="s">
         <v>25</v>
       </c>
@@ -9483,7 +9483,7 @@
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13">
       <c r="A352" s="8" t="s">
         <v>31</v>
       </c>
@@ -9494,9 +9494,9 @@
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13">
       <c r="A353" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B353" s="12"/>
       <c r="C353" s="27"/>
@@ -9505,7 +9505,7 @@
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13">
       <c r="A354" s="8" t="s">
         <v>30</v>
       </c>
@@ -9531,10 +9531,10 @@
         <v>63</v>
       </c>
       <c r="J354" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" ht="15">
       <c r="A355" s="10" t="s">
         <v>26</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" ht="15">
       <c r="A356" s="10" t="s">
         <v>0</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>1.1180339887498949</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" ht="15">
       <c r="A357" s="10" t="s">
         <v>27</v>
       </c>
@@ -9629,7 +9629,7 @@
         <v>1.1180339887498949</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13">
       <c r="A358" s="9" t="s">
         <v>25</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>0.82462112512353203</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13">
       <c r="A359" s="8" t="s">
         <v>31</v>
       </c>
@@ -9669,7 +9669,7 @@
       <c r="F359" s="12"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" ht="15">
       <c r="A360" s="10"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -9678,7 +9678,7 @@
       <c r="F360" s="12"/>
       <c r="G360" s="12"/>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13">
       <c r="A361" s="8" t="s">
         <v>32</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" ht="15">
       <c r="A362" s="10" t="s">
         <v>26</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" ht="15">
       <c r="A363" s="10" t="s">
         <v>0</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" ht="15">
       <c r="A364" s="10" t="s">
         <v>27</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13">
       <c r="A365" s="9" t="s">
         <v>25</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>70.710678118654755</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13">
       <c r="A366" s="8" t="s">
         <v>31</v>
       </c>
@@ -9741,9 +9741,9 @@
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13">
       <c r="A367" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
@@ -9752,7 +9752,7 @@
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13">
       <c r="A368" s="4" t="s">
         <v>30</v>
       </c>
@@ -9763,14 +9763,14 @@
         <v>17</v>
       </c>
       <c r="D368" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E368" t="s">
         <v>14</v>
       </c>
       <c r="J368" s="2"/>
     </row>
-    <row r="369" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" ht="15">
       <c r="A369" s="7" t="s">
         <v>26</v>
       </c>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="J369" s="3"/>
     </row>
-    <row r="370" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" ht="15">
       <c r="A370" s="7" t="s">
         <v>0</v>
       </c>
@@ -9810,10 +9810,10 @@
       <c r="I370" s="6"/>
       <c r="J370" s="2"/>
       <c r="M370" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" ht="15">
       <c r="A371" s="7" t="s">
         <v>27</v>
       </c>
@@ -9835,7 +9835,7 @@
       <c r="I371" s="6"/>
       <c r="J371" s="2"/>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13">
       <c r="A372" s="4" t="s">
         <v>25</v>
       </c>
@@ -9857,22 +9857,22 @@
       </c>
       <c r="J372" s="2"/>
     </row>
-    <row r="373" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" ht="15">
       <c r="A373" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J373" s="3"/>
     </row>
-    <row r="374" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" ht="15">
       <c r="A374" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B374" s="12"/>
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13">
       <c r="A375" s="4" t="s">
         <v>32</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" ht="15">
       <c r="A376" s="7" t="s">
         <v>26</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13">
       <c r="A377" s="4" t="s">
         <v>19</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13">
       <c r="A378" s="5" t="s">
         <v>20</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13">
       <c r="A379" s="5" t="s">
         <v>21</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>6.93</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" ht="15">
       <c r="A380" s="7" t="s">
         <v>0</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>5.9866666666666672</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13">
       <c r="A381" s="5" t="s">
         <v>22</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13">
       <c r="A382" s="5" t="s">
         <v>23</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13">
       <c r="A383" s="5" t="s">
         <v>24</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" ht="15">
       <c r="A384" s="7" t="s">
         <v>27</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>1.1333333333333335</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9">
       <c r="A385" s="5" t="s">
         <v>25</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>1.602775370689508</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9">
       <c r="A386" s="4" t="s">
         <v>30</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" ht="15">
       <c r="A387" s="7" t="s">
         <v>26</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9">
       <c r="A388" s="4" t="s">
         <v>19</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="15">
       <c r="A389" s="5" t="s">
         <v>20</v>
       </c>
@@ -10093,7 +10093,7 @@
       <c r="E389" s="2"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="15">
       <c r="A390" s="5" t="s">
         <v>21</v>
       </c>
@@ -10109,7 +10109,7 @@
       <c r="E390" s="2"/>
       <c r="F390" s="3"/>
     </row>
-    <row r="391" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="15">
       <c r="A391" s="7" t="s">
         <v>0</v>
       </c>
@@ -10126,7 +10126,7 @@
         <v>0.46333333333333337</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9">
       <c r="A392" s="5" t="s">
         <v>22</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9">
       <c r="A393" s="5" t="s">
         <v>23</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9">
       <c r="A394" s="5" t="s">
         <v>24</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="15">
       <c r="A395" s="7" t="s">
         <v>27</v>
       </c>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="I395" s="1"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9">
       <c r="A396" s="5" t="s">
         <v>25</v>
       </c>
@@ -10203,14 +10203,14 @@
         <v>0.26398653164297775</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9">
       <c r="A397" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E397" s="19"/>
       <c r="F397" s="19"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9">
       <c r="A398" s="4" t="s">
         <v>32</v>
       </c>
@@ -10225,7 +10225,7 @@
       </c>
       <c r="G398" s="19"/>
     </row>
-    <row r="399" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="15">
       <c r="A399" s="7" t="s">
         <v>26</v>
       </c>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="E399" s="2"/>
     </row>
-    <row r="400" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="15">
       <c r="A400" s="7" t="s">
         <v>0</v>
       </c>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="E400" s="2"/>
     </row>
-    <row r="401" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" ht="15">
       <c r="A401" s="7" t="s">
         <v>27</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>0.626</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14">
       <c r="A402" s="4" t="s">
         <v>25</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>2.0762071187624804</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14">
       <c r="A403" s="4" t="s">
         <v>30</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" ht="15">
       <c r="A404" s="7" t="s">
         <v>26</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" ht="15">
       <c r="A405" s="7" t="s">
         <v>0</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" ht="15">
       <c r="A406" s="7" t="s">
         <v>27</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14">
       <c r="A407" s="4" t="s">
         <v>25</v>
       </c>
@@ -10359,19 +10359,19 @@
         <v>0.16914786430812537</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14">
       <c r="A408" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C408" s="6"/>
+    </row>
+    <row r="409" spans="1:14">
+      <c r="A409" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C408" s="6"/>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A409" s="20" t="s">
-        <v>104</v>
-      </c>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14">
       <c r="A410" s="4" t="s">
         <v>32</v>
       </c>
@@ -10391,10 +10391,10 @@
         <v>43</v>
       </c>
       <c r="G410" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="411" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" ht="15">
       <c r="A411" s="7" t="s">
         <v>26</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" ht="15">
       <c r="A412" s="7" t="s">
         <v>0</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="413" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" ht="15">
       <c r="A413" s="7" t="s">
         <v>27</v>
       </c>
@@ -10463,32 +10463,32 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14">
       <c r="A414" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B414">
-        <f>(SQRT(B411-1))*B413</f>
+        <f t="shared" ref="B414:G414" si="24">(SQRT(B411-1))*B413</f>
         <v>0.28284271247461906</v>
       </c>
       <c r="C414">
-        <f>(SQRT(C411-1))*C413</f>
+        <f t="shared" si="24"/>
         <v>0.28284271247461906</v>
       </c>
       <c r="D414">
-        <f>(SQRT(D411-1))*D413</f>
+        <f t="shared" si="24"/>
         <v>0.28284271247461906</v>
       </c>
       <c r="E414">
-        <f>(SQRT(E411-1))*E413</f>
+        <f t="shared" si="24"/>
         <v>0.28284271247461906</v>
       </c>
       <c r="F414">
-        <f>(SQRT(F411-1))*F413</f>
+        <f t="shared" si="24"/>
         <v>0.28284271247461906</v>
       </c>
       <c r="G414">
-        <f>(SQRT(G411-1))*G413</f>
+        <f t="shared" si="24"/>
         <v>0.56568542494923812</v>
       </c>
       <c r="H414" s="6"/>
@@ -10499,7 +10499,7 @@
       <c r="M414" s="6"/>
       <c r="N414" s="6"/>
     </row>
-    <row r="415" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" ht="15">
       <c r="A415" s="4" t="s">
         <v>30</v>
       </c>
@@ -10510,11 +10510,11 @@
         <v>43</v>
       </c>
       <c r="D415" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" ht="15">
       <c r="A416" s="7" t="s">
         <v>26</v>
       </c>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="15">
       <c r="A417" s="7" t="s">
         <v>0</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="15">
       <c r="A418" s="7" t="s">
         <v>27</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7">
       <c r="A419" s="4" t="s">
         <v>25</v>
       </c>
@@ -10574,9 +10574,9 @@
         <v>9.8994949366116654</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7">
       <c r="A420" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C420" s="6"/>
       <c r="E420" t="s">
@@ -10586,7 +10586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7">
       <c r="A421" s="4" t="s">
         <v>32</v>
       </c>
@@ -10606,10 +10606,10 @@
         <v>3</v>
       </c>
       <c r="G421" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="15">
       <c r="A422" s="7" t="s">
         <v>26</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="15">
       <c r="A423" s="7" t="s">
         <v>0</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="15">
       <c r="A424" s="7" t="s">
         <v>27</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7">
       <c r="A425" s="4" t="s">
         <v>25</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>0.42426406871192851</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="15">
       <c r="A426" s="4" t="s">
         <v>30</v>
       </c>
@@ -10713,11 +10713,11 @@
         <v>43</v>
       </c>
       <c r="D426" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="15">
       <c r="A427" s="7" t="s">
         <v>26</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="15">
       <c r="A428" s="7" t="s">
         <v>0</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="429" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="15">
       <c r="A429" s="7" t="s">
         <v>27</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="15">
       <c r="A430" s="4" t="s">
         <v>25</v>
       </c>
@@ -10777,15 +10777,15 @@
       </c>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="15">
       <c r="A431" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7">
       <c r="A432" s="4" t="s">
         <v>32</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="15">
       <c r="A433" s="7" t="s">
         <v>26</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="15">
       <c r="A434" s="7" t="s">
         <v>0</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" ht="15">
       <c r="A435" s="7" t="s">
         <v>27</v>
       </c>
@@ -10830,7 +10830,7 @@
       </c>
       <c r="E435" s="6"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7">
       <c r="A436" s="4" t="s">
         <v>25</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7">
       <c r="A437" s="4" t="s">
         <v>30</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="15">
       <c r="A438" s="7" t="s">
         <v>26</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" ht="15">
       <c r="A439" s="7" t="s">
         <v>0</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="15">
       <c r="A440" s="7" t="s">
         <v>27</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7">
       <c r="A441" s="4" t="s">
         <v>25</v>
       </c>
@@ -10900,21 +10900,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7">
       <c r="A442" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B442" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E442" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F442" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7">
       <c r="A443" s="4" t="s">
         <v>32</v>
       </c>
@@ -10937,7 +10937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="444" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="15">
       <c r="A444" s="7" t="s">
         <v>26</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="15">
       <c r="A445" s="7" t="s">
         <v>0</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="15">
       <c r="A446" s="7" t="s">
         <v>27</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E446">
-        <f t="shared" ref="C446:E447" si="24">(SQRT(E443-1))*E445</f>
+        <f t="shared" ref="C446:E447" si="25">(SQRT(E443-1))*E445</f>
         <v>0</v>
       </c>
       <c r="F446">
@@ -11012,7 +11012,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7">
       <c r="A447" s="4" t="s">
         <v>25</v>
       </c>
@@ -11021,11 +11021,11 @@
         <v>0</v>
       </c>
       <c r="C447">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D447">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E447" t="s">
@@ -11036,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7">
       <c r="A448" s="4" t="s">
         <v>30</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" ht="15">
       <c r="A449" s="7" t="s">
         <v>26</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" ht="15">
       <c r="A450" s="7" t="s">
         <v>0</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="451" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" ht="15">
       <c r="A451" s="7" t="s">
         <v>27</v>
       </c>
@@ -11101,11 +11101,11 @@
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="C451:E452" si="25">(SQRT(E448-1))*E450</f>
+        <f t="shared" ref="C451:E452" si="26">(SQRT(E448-1))*E450</f>
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15">
       <c r="A452" s="4" t="s">
         <v>25</v>
       </c>
@@ -11114,20 +11114,20 @@
         <v>0</v>
       </c>
       <c r="C452">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D452">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15">
       <c r="A453" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15">
       <c r="A454" s="4" t="s">
         <v>30</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="455" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" ht="15">
       <c r="A455" s="7" t="s">
         <v>26</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" ht="15">
       <c r="A456" s="7" t="s">
         <v>0</v>
       </c>
@@ -11171,7 +11171,7 @@
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
     </row>
-    <row r="457" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" ht="15">
       <c r="A457" s="7" t="s">
         <v>27</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
     </row>
-    <row r="458" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" ht="15">
       <c r="A458" s="4" t="s">
         <v>25</v>
       </c>
@@ -11224,9 +11224,9 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
     </row>
-    <row r="459" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" ht="15">
       <c r="A459" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -11241,15 +11241,15 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
     </row>
-    <row r="460" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" ht="15">
       <c r="A460" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E460" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15">
       <c r="A461" s="4" t="s">
         <v>30</v>
       </c>
@@ -11274,7 +11274,7 @@
       <c r="M461" s="6"/>
       <c r="O461" s="6"/>
     </row>
-    <row r="462" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" ht="15">
       <c r="A462" s="7" t="s">
         <v>26</v>
       </c>
@@ -11299,7 +11299,7 @@
       <c r="M462" s="6"/>
       <c r="O462" s="6"/>
     </row>
-    <row r="463" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" ht="15">
       <c r="A463" s="7" t="s">
         <v>0</v>
       </c>
@@ -11324,7 +11324,7 @@
       <c r="M463" s="6"/>
       <c r="O463" s="6"/>
     </row>
-    <row r="464" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" ht="15">
       <c r="A464" s="7" t="s">
         <v>27</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4">
       <c r="A465" s="4" t="s">
         <v>25</v>
       </c>
@@ -11359,12 +11359,12 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" ht="15">
       <c r="A466" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" s="4" t="s">
         <v>30</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="15">
       <c r="A468" s="7" t="s">
         <v>26</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" ht="15">
       <c r="A469" s="7" t="s">
         <v>0</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="15">
       <c r="A470" s="7" t="s">
         <v>27</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4">
       <c r="A471" s="4" t="s">
         <v>25</v>
       </c>
@@ -11421,12 +11421,12 @@
         <v>11.403946685248927</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" ht="15">
       <c r="A472" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
       <c r="A473" s="4" t="s">
         <v>30</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" ht="15">
       <c r="A474" s="7" t="s">
         <v>26</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" ht="15">
       <c r="A475" s="7" t="s">
         <v>0</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" ht="15">
       <c r="A476" s="7" t="s">
         <v>27</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4">
       <c r="A477" s="4" t="s">
         <v>25</v>
       </c>
@@ -11483,12 +11483,12 @@
         <v>11.085125168440815</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" ht="15">
       <c r="A478" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
       <c r="A479" s="4" t="s">
         <v>30</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="15">
       <c r="A480" s="7" t="s">
         <v>26</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" ht="15">
       <c r="A481" s="7" t="s">
         <v>0</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" ht="15">
       <c r="A482" s="7" t="s">
         <v>27</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3">
       <c r="A483" s="4" t="s">
         <v>25</v>
       </c>
@@ -11545,12 +11545,12 @@
         <v>12.124355652982141</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" ht="15">
       <c r="A484" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
       <c r="A485" s="4" t="s">
         <v>32</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" ht="15">
       <c r="A486" s="7" t="s">
         <v>26</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" ht="15">
       <c r="A487" s="7" t="s">
         <v>0</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" ht="15">
       <c r="A488" s="7" t="s">
         <v>27</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3">
       <c r="A489" s="4" t="s">
         <v>25</v>
       </c>
@@ -11607,12 +11607,12 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" ht="15">
       <c r="A490" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
       <c r="A491" s="4" t="s">
         <v>32</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" ht="15">
       <c r="A492" s="7" t="s">
         <v>26</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" ht="15">
       <c r="A493" s="7" t="s">
         <v>0</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" ht="15">
       <c r="A494" s="7" t="s">
         <v>27</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3">
       <c r="A495" s="4" t="s">
         <v>25</v>
       </c>
@@ -11669,12 +11669,12 @@
         <v>1.7888543819998319</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" ht="15">
       <c r="A496" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
       <c r="A497" s="4" t="s">
         <v>32</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" ht="15">
       <c r="A498" s="7" t="s">
         <v>26</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" ht="15">
       <c r="A499" s="7" t="s">
         <v>0</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" ht="15">
       <c r="A500" s="7" t="s">
         <v>27</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3">
       <c r="A501" s="4" t="s">
         <v>25</v>
       </c>
@@ -11731,118 +11731,118 @@
         <v>0.51961524227066314</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3">
       <c r="A502" s="20"/>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3">
       <c r="A503" s="12"/>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3">
       <c r="A504" s="12"/>
     </row>
-    <row r="505" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" ht="15">
       <c r="A505" s="3"/>
     </row>
-    <row r="506" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" ht="15">
       <c r="A506" s="3"/>
     </row>
-    <row r="507" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" ht="15">
       <c r="A507" s="3"/>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3">
       <c r="A508" s="12"/>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3">
       <c r="A509" s="2"/>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3">
       <c r="A510" s="12"/>
     </row>
-    <row r="511" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" ht="15">
       <c r="A511" s="3"/>
     </row>
-    <row r="512" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" ht="15">
       <c r="A512" s="3"/>
     </row>
-    <row r="513" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" ht="15">
       <c r="A513" s="3"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1">
       <c r="A514" s="12"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1">
       <c r="A515" s="2"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1">
       <c r="A516" s="12"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1">
       <c r="A517" s="12"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1">
       <c r="A518" s="12"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1">
       <c r="A519" s="12"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1">
       <c r="A520" s="12"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1">
       <c r="A521" s="12"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1">
       <c r="A522" s="12"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1">
       <c r="A523" s="12"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1">
       <c r="A524" s="12"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1">
       <c r="A525" s="12"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1">
       <c r="A526" s="12"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1">
       <c r="A527" s="12"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1">
       <c r="A528" s="12"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1">
       <c r="A529" s="12"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1">
       <c r="A530" s="12"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1">
       <c r="A531" s="12"/>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1">
       <c r="A532" s="12"/>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1">
       <c r="A533" s="12"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1">
       <c r="A534" s="12"/>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1">
       <c r="A535" s="12"/>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1">
       <c r="A536" s="12"/>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1">
       <c r="A537" s="12"/>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1">
       <c r="A538" s="12"/>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1">
       <c r="A539" s="12"/>
     </row>
   </sheetData>
@@ -11853,52 +11853,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1026" r:id="rId4" name="Control 2">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>102</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>103</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1026" r:id="rId4" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
+        <control shapeId="1025" r:id="rId6" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>102</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>103</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>103</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>104</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1025" r:id="rId6" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11911,7 +11911,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11923,7 +11923,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
